--- a/load/predict_for_0901.xlsx
+++ b/load/predict_for_0901.xlsx
@@ -727,4226 +727,4226 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.548174262046814</v>
+        <v>535.9914634466171</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4958374500274658</v>
+        <v>589.3009600162507</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.007231418043375015</v>
+        <v>631.8293849371373</v>
       </c>
       <c r="D2" t="n">
-        <v>0.518008291721344</v>
+        <v>566.951775920391</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004257366061210632</v>
+        <v>192.2572558678687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.512892484664917</v>
+        <v>473.4088176786899</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7934468984603882</v>
+        <v>5.573229217529296</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2518110573291779</v>
+        <v>191.8074893251061</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1995664089918137</v>
+        <v>183.9844634711743</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8141732215881348</v>
+        <v>851.1484985351564</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8372646570205688</v>
+        <v>790.8108677864075</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8267911672592163</v>
+        <v>144.3641338348389</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8475367426872253</v>
+        <v>841.1915239810943</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8222023844718933</v>
+        <v>920.1936275959016</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8323699235916138</v>
+        <v>386.9230234384537</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8169776201248169</v>
+        <v>2246.628965568543</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.495629221200943</v>
+        <v>542.3513479292393</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8007636070251465</v>
+        <v>0.04708207054138184</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8127425312995911</v>
+        <v>938.1060452163218</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8092619180679321</v>
+        <v>816.6080064177513</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8077244162559509</v>
+        <v>736.0371711492538</v>
       </c>
       <c r="V2" t="n">
-        <v>0.81795334815979</v>
+        <v>783.2752506732941</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8249683976173401</v>
+        <v>451.5019329130649</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8253046274185181</v>
+        <v>332.7896209716797</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8178424835205078</v>
+        <v>949.5841336965561</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8052883744239807</v>
+        <v>197.8554368495941</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8113014101982117</v>
+        <v>35.55198850631714</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8180636167526245</v>
+        <v>692.2905965805054</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8026533126831055</v>
+        <v>0.1933553997039795</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.06299467384815216</v>
+        <v>153.8940045237541</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.8635126948356628</v>
+        <v>740.9684847712517</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6204487085342407</v>
+        <v>680.8540891587735</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6731914877891541</v>
+        <v>580.3770919799805</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.5078589916229248</v>
+        <v>601.9472694754601</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.2005443572998047</v>
+        <v>-14.85448107197881</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.3603096902370453</v>
+        <v>350.2622772455215</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.8260655403137207</v>
+        <v>532.4413164973259</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.4000367522239685</v>
+        <v>458.0020373165608</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.05243180692195892</v>
+        <v>87.78970857858657</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.8391258716583252</v>
+        <v>660.1232773900032</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.8218112587928772</v>
+        <v>950.1561801314353</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.8259178400039673</v>
+        <v>793.7221230030059</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.7941697835922241</v>
+        <v>709.9071485161782</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.8177621364593506</v>
+        <v>104.7564732789993</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.8353959321975708</v>
+        <v>591.0733423352242</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.8402547836303711</v>
+        <v>79.31111115217209</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.2611432671546936</v>
+        <v>297.4211202800274</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.8364915251731873</v>
+        <v>924.0851567983626</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.5397328734397888</v>
+        <v>584.3047306418418</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.8167368173599243</v>
+        <v>128.3030419051647</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1270812600851059</v>
+        <v>91.22357227355242</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.9616192579269409</v>
+        <v>727.1549650669098</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.7811814546585083</v>
+        <v>39.44438285827637</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.814103901386261</v>
+        <v>337.4650270581245</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.9898079633712769</v>
+        <v>854.5840377748012</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.833746612071991</v>
+        <v>360.2549422979355</v>
       </c>
       <c r="BE2" t="n">
-        <v>36.66705322265625</v>
+        <v>28433.52988023223</v>
       </c>
       <c r="BF2" t="n">
-        <v>36667.0546875</v>
+        <v>28433529.88023223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4988613128662109</v>
+        <v>524.8553930640221</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5375121831893921</v>
+        <v>522.3738545715809</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.003519909456372261</v>
+        <v>631.7711478836834</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5183629393577576</v>
+        <v>498.0735708475112</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01313204690814018</v>
+        <v>192.1770340956747</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5051816701889038</v>
+        <v>507.8696901321411</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8188523650169373</v>
+        <v>5.5729332447052</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2722166776657104</v>
+        <v>227.5358639836311</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1926542520523071</v>
+        <v>210.700760564208</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8138914704322815</v>
+        <v>857.1841186523438</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8298585414886475</v>
+        <v>785.5607442855835</v>
       </c>
       <c r="L3" t="n">
-        <v>0.828615128993988</v>
+        <v>149.2436754226685</v>
       </c>
       <c r="M3" t="n">
-        <v>0.85039222240448</v>
+        <v>844.4738691806792</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8079321980476379</v>
+        <v>909.9324066638948</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8217170238494873</v>
+        <v>371.2100593328477</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8285154104232788</v>
+        <v>2246.191984558106</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4928688406944275</v>
+        <v>471.2612841784954</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8008329272270203</v>
+        <v>0.04772129268646241</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8226475119590759</v>
+        <v>934.7253737747668</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8101803660392761</v>
+        <v>816.1099585056305</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8044766783714294</v>
+        <v>737.968172454834</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8176213502883911</v>
+        <v>784.0591343045235</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8234860301017761</v>
+        <v>453.6162889957428</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8217962980270386</v>
+        <v>334.6287307739258</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8123536705970764</v>
+        <v>950.6339681744576</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8074041604995728</v>
+        <v>190.3620920062065</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8228356242179871</v>
+        <v>37.00675706863403</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8197129964828491</v>
+        <v>699.6276417255402</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8076719045639038</v>
+        <v>0.1946217881202698</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0431627444922924</v>
+        <v>175.1502561569214</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.8793538212776184</v>
+        <v>766.0539019823075</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.5965537428855896</v>
+        <v>596.8142283439637</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.7065290212631226</v>
+        <v>647.2474658250809</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.4920181632041931</v>
+        <v>563.8698294818402</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.1829902231693268</v>
+        <v>115.1350487723947</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.331038236618042</v>
+        <v>257.9305027723312</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.8258820176124573</v>
+        <v>536.359844994545</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.4239125549793243</v>
+        <v>407.4907848984004</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.04064429178833961</v>
+        <v>69.3098586320877</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.8367443084716797</v>
+        <v>652.9774834156036</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.8288131356239319</v>
+        <v>948.840850251913</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.8427496552467346</v>
+        <v>768.259301495552</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.8090361356735229</v>
+        <v>712.8113773226738</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.8218265771865845</v>
+        <v>101.1564190149307</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.8487088680267334</v>
+        <v>587.2529226899147</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8413553237915039</v>
+        <v>79.88047025799752</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2685607969760895</v>
+        <v>277.5444737792015</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.822352409362793</v>
+        <v>923.7685736596584</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.5573450922966003</v>
+        <v>527.6213189959526</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.8295520544052124</v>
+        <v>127.1968757152557</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1198277175426483</v>
+        <v>113.9269013792276</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.9352542161941528</v>
+        <v>739.9014548778534</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.7774038314819336</v>
+        <v>39.10235686302185</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.8152621388435364</v>
+        <v>338.6593954801559</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.9924454689025879</v>
+        <v>826.3654315233231</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.8243147134780884</v>
+        <v>364.9027370393276</v>
       </c>
       <c r="BE3" t="n">
-        <v>36.66543960571289</v>
+        <v>28160.49891714828</v>
       </c>
       <c r="BF3" t="n">
-        <v>36665.44140625</v>
+        <v>28160498.91714828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5022411942481995</v>
+        <v>578.9487903475762</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5212976932525635</v>
+        <v>517.6981911063194</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.001564159989356995</v>
+        <v>631.8134728886187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5177041888237</v>
+        <v>538.4261993587016</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005397897213697433</v>
+        <v>192.1630028679967</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5135242938995361</v>
+        <v>542.055331325531</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8364057540893555</v>
+        <v>5.619719338417053</v>
       </c>
       <c r="H4" t="n">
-        <v>0.268687903881073</v>
+        <v>298.5267795413732</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1917142122983932</v>
+        <v>216.3892883062363</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8209463357925415</v>
+        <v>846.2116271972657</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8334218859672546</v>
+        <v>782.4454627037048</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8235344886779785</v>
+        <v>145.5694387435913</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8455914258956909</v>
+        <v>850.0272358894347</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8182289600372314</v>
+        <v>899.2380044460298</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8345644474029541</v>
+        <v>385.8461905479431</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8313966393470764</v>
+        <v>2248.011909484863</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4847389161586761</v>
+        <v>465.724219596386</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8033639788627625</v>
+        <v>0.04812733001708985</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8055693507194519</v>
+        <v>933.8321638345718</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8144551515579224</v>
+        <v>816.036279797554</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8078040480613708</v>
+        <v>738.5108096241951</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8098385334014893</v>
+        <v>785.2369414567947</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8266307711601257</v>
+        <v>451.1441736698151</v>
       </c>
       <c r="X4" t="n">
-        <v>0.818583607673645</v>
+        <v>333.7260757446289</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8142990469932556</v>
+        <v>951.0048303484917</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8138488531112671</v>
+        <v>192.5312172353267</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8210623860359192</v>
+        <v>36.64002718925476</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8171504139900208</v>
+        <v>698.3277117490769</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.806448757648468</v>
+        <v>0.1939878178358078</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.02982521988451481</v>
+        <v>162.5064771056175</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.8901659250259399</v>
+        <v>735.9655682265759</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6094802021980286</v>
+        <v>570.0748762607575</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.7040423154830933</v>
+        <v>591.0134447574616</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.4621862173080444</v>
+        <v>501.2736290216446</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.1970076262950897</v>
+        <v>88.88603673428298</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.2528904378414154</v>
+        <v>202.4999198436737</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.8137414455413818</v>
+        <v>530.3689431786538</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.4133281409740448</v>
+        <v>406.0711004674435</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.05469998344779015</v>
+        <v>55.07130537927151</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.8250114917755127</v>
+        <v>642.2403450608253</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.8246690630912781</v>
+        <v>950.8594981312751</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.8318312168121338</v>
+        <v>776.6909490704536</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.8180841207504272</v>
+        <v>711.7396018147468</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.8296633958816528</v>
+        <v>106.5200671672821</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.840783417224884</v>
+        <v>586.8161003112793</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.8563125133514404</v>
+        <v>79.16697372794151</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.2513558864593506</v>
+        <v>293.4508146464825</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.8224698901176453</v>
+        <v>924.2138963520526</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.548509418964386</v>
+        <v>564.3173201918602</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.8189318180084229</v>
+        <v>129.4059010028839</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1162459254264832</v>
+        <v>91.44055618345737</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9554813504219055</v>
+        <v>739.3632191598415</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.7720634937286377</v>
+        <v>39.84065170288086</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.8130378127098083</v>
+        <v>338.2205114841461</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.027621865272522</v>
+        <v>786.507857811451</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.8241227865219116</v>
+        <v>367.1911529004574</v>
       </c>
       <c r="BE4" t="n">
-        <v>36.61045074462891</v>
+        <v>28053.66392718225</v>
       </c>
       <c r="BF4" t="n">
-        <v>36610.44921875</v>
+        <v>28053663.92718225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5127900838851929</v>
+        <v>505.3892100453377</v>
       </c>
       <c r="B5" t="n">
-        <v>0.545996367931366</v>
+        <v>545.1338585555553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003094768151640892</v>
+        <v>631.8015048719942</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5060752630233765</v>
+        <v>476.0653393775224</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.007108710706233978</v>
+        <v>192.2065394602716</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5151239633560181</v>
+        <v>499.1566454499959</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8376388549804688</v>
+        <v>5.564171969890594</v>
       </c>
       <c r="H5" t="n">
-        <v>0.277041494846344</v>
+        <v>300.631337159872</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1873006075620651</v>
+        <v>211.9296966135502</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8124043345451355</v>
+        <v>838.7499557495117</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8262946605682373</v>
+        <v>786.7800658345222</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8376940488815308</v>
+        <v>147.1794542312622</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8508630990982056</v>
+        <v>845.5746750235556</v>
       </c>
       <c r="N5" t="n">
-        <v>0.829268753528595</v>
+        <v>919.9935121536256</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8295003771781921</v>
+        <v>379.016244673729</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8365935683250427</v>
+        <v>2247.222211837769</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4898344576358795</v>
+        <v>455.891540786624</v>
       </c>
       <c r="R5" t="n">
-        <v>0.806547224521637</v>
+        <v>0.04820666236877442</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8112529516220093</v>
+        <v>933.2462992608547</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8248633742332458</v>
+        <v>815.6373099327087</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8010937571525574</v>
+        <v>737.1070363759994</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8206191062927246</v>
+        <v>785.2272479534149</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8222028613090515</v>
+        <v>452.5086064219475</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8245723247528076</v>
+        <v>333.9953125</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.825888991355896</v>
+        <v>950.9314760565758</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.8092188239097595</v>
+        <v>192.8863533318043</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.8115137219429016</v>
+        <v>36.75267119407653</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8137218356132507</v>
+        <v>691.7028679609299</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.8107205629348755</v>
+        <v>0.1942579723596573</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.05422624573111534</v>
+        <v>123.009283220768</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.8938910365104675</v>
+        <v>776.014875215292</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.6137235760688782</v>
+        <v>612.1280659019948</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7004059553146362</v>
+        <v>686.7696486473084</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.4986182153224945</v>
+        <v>570.747418820858</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.1810315251350403</v>
+        <v>41.25325699150563</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1836902797222137</v>
+        <v>128.5357152938843</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.8172734975814819</v>
+        <v>522.5666541576386</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.3994995653629303</v>
+        <v>378.2182213127614</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.06271705776453018</v>
+        <v>106.2095457613468</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.8218926191329956</v>
+        <v>628.1455712795257</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.8163636326789856</v>
+        <v>942.3133979916572</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.8256043195724487</v>
+        <v>778.1216395020484</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.8074217438697815</v>
+        <v>710.929467868805</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.8240706920623779</v>
+        <v>103.2709040880203</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.8396961092948914</v>
+        <v>585.813270944357</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.8368546962738037</v>
+        <v>79.745690792799</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.2561872005462646</v>
+        <v>247.861725383997</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.8332782983779907</v>
+        <v>922.2172033309936</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.5500889420509338</v>
+        <v>598.3974965631962</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.8168056607246399</v>
+        <v>126.4386448204517</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.1318662613630295</v>
+        <v>150.0339745864272</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.956156849861145</v>
+        <v>720.6978052139282</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.7764421701431274</v>
+        <v>39.53931803703308</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.8186061978340149</v>
+        <v>337.7817690253258</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.003348350524902</v>
+        <v>825.8909067988396</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.8298165798187256</v>
+        <v>368.4357570767402</v>
       </c>
       <c r="BE5" t="n">
-        <v>36.62220001220703</v>
+        <v>28029.61083804513</v>
       </c>
       <c r="BF5" t="n">
-        <v>36622.19921875</v>
+        <v>28029610.83804514</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5367462038993835</v>
+        <v>566.3552628338336</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4977865815162659</v>
+        <v>572.1575751125813</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.002123880200088024</v>
+        <v>631.8085115786641</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5222249627113342</v>
+        <v>612.7193291902541</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.007291559129953384</v>
+        <v>192.1643662571907</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4867652058601379</v>
+        <v>585.0693473815918</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8255388140678406</v>
+        <v>5.538688015937804</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2712446451187134</v>
+        <v>222.5824209421873</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1856079995632172</v>
+        <v>217.3216760635376</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8142556548118591</v>
+        <v>849.4480163574219</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8232312798500061</v>
+        <v>793.6809818744659</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8348990082740784</v>
+        <v>146.4503345489502</v>
       </c>
       <c r="M6" t="n">
-        <v>0.840618908405304</v>
+        <v>843.7583247184753</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8083097338676453</v>
+        <v>897.8810137271881</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8368989825248718</v>
+        <v>380.6916359901429</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8282012939453125</v>
+        <v>2245.477705192566</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4741760790348053</v>
+        <v>479.9307046145201</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7979140877723694</v>
+        <v>0.04758138580322266</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8087149858474731</v>
+        <v>938.5995621860027</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8127211332321167</v>
+        <v>815.0254310011863</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7919915318489075</v>
+        <v>736.043868625164</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8151537775993347</v>
+        <v>783.1956639885902</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8212181925773621</v>
+        <v>449.8332857489586</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8230194449424744</v>
+        <v>333.8837265014648</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8196585774421692</v>
+        <v>951.546510887146</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7983271479606628</v>
+        <v>194.0095508575439</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.823826789855957</v>
+        <v>35.85348787307739</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8142271041870117</v>
+        <v>694.4709167480469</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8096526265144348</v>
+        <v>0.1932250598907471</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.03340201824903488</v>
+        <v>87.77318145036696</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.8531435132026672</v>
+        <v>774.0752970695496</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6063905954360962</v>
+        <v>604.5133985579015</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7038424015045166</v>
+        <v>626.6528942346573</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.4973966479301453</v>
+        <v>626.6357418715954</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.2064980566501617</v>
+        <v>43.38578159697354</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.2059852182865143</v>
+        <v>167.3107826709747</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.8222482204437256</v>
+        <v>546.5306929945946</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.4213353395462036</v>
+        <v>433.6558391869069</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.01841587200760841</v>
+        <v>18.51083410382271</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.8176831007003784</v>
+        <v>651.1038662672042</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.8274129629135132</v>
+        <v>949.6495488762855</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.8287546634674072</v>
+        <v>771.5732973933219</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.8075761795043945</v>
+        <v>712.4737110853196</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.8222438097000122</v>
+        <v>106.7434965610504</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.8450146913528442</v>
+        <v>586.8098182380199</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.8472026586532593</v>
+        <v>80.66821405291557</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.2609845995903015</v>
+        <v>257.4456358075142</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.8295032382011414</v>
+        <v>923.6509057879447</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.5562943816184998</v>
+        <v>620.0984131395817</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.8251494765281677</v>
+        <v>128.392150914669</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.1333907395601273</v>
+        <v>81.72522565722466</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.9167210459709167</v>
+        <v>664.3295483887196</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.7765535712242126</v>
+        <v>39.57114262580872</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.8230432868003845</v>
+        <v>338.5885036110878</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.02983546257019</v>
+        <v>857.5305967271328</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.831546425819397</v>
+        <v>365.3988071143627</v>
       </c>
       <c r="BE6" t="n">
-        <v>36.46108245849609</v>
+        <v>28240.53603124789</v>
       </c>
       <c r="BF6" t="n">
-        <v>36461.08203125</v>
+        <v>28240536.03124789</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5104634761810303</v>
+        <v>566.2158818483352</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5031672120094299</v>
+        <v>587.4709073245525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001812899485230446</v>
+        <v>631.7158388227224</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5301042199134827</v>
+        <v>496.3546742767095</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.001593934139236808</v>
+        <v>192.2177836194634</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5018091797828674</v>
+        <v>493.5035002410411</v>
       </c>
       <c r="G7" t="n">
-        <v>0.841886043548584</v>
+        <v>5.582764792442322</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2681224644184113</v>
+        <v>238.9059527188539</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1809513866901398</v>
+        <v>145.0977380633354</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8086786270141602</v>
+        <v>849.806689453125</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8341403603553772</v>
+        <v>792.130499958992</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8271641731262207</v>
+        <v>147.9594131469727</v>
       </c>
       <c r="M7" t="n">
-        <v>0.840765118598938</v>
+        <v>842.3351999402046</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8264138102531433</v>
+        <v>894.4759558677674</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8299118280410767</v>
+        <v>374.7973403692246</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8336336016654968</v>
+        <v>2247.694689559937</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4872332513332367</v>
+        <v>475.154351195693</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8007842302322388</v>
+        <v>0.04760636444091797</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8245846629142761</v>
+        <v>945.9694350421428</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8213456273078918</v>
+        <v>814.6702135801315</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8127573728561401</v>
+        <v>737.0381340026855</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8287040591239929</v>
+        <v>784.8320063948631</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8219940662384033</v>
+        <v>451.4283187747001</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8227543234825134</v>
+        <v>334.0992584228516</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.824403703212738</v>
+        <v>950.3397183299065</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.8165347576141357</v>
+        <v>194.1467100858688</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8145744800567627</v>
+        <v>36.84323346614838</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8027907013893127</v>
+        <v>697.2909039020539</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.8037211298942566</v>
+        <v>0.194313787317276</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.03356335684657097</v>
+        <v>173.6710696935653</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.8646543622016907</v>
+        <v>697.8055582165719</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.6035057902336121</v>
+        <v>599.3915360987187</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6991346478462219</v>
+        <v>647.2751860380173</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.4741039276123047</v>
+        <v>571.7014605939389</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.1953430473804474</v>
+        <v>116.3478479608894</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1091648414731026</v>
+        <v>139.7666966438294</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.8317911028862</v>
+        <v>533.145928478241</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.4115003347396851</v>
+        <v>368.5839354753495</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.03961505740880966</v>
+        <v>93.9504380762577</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.831724226474762</v>
+        <v>665.8073410630226</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.8292819857597351</v>
+        <v>948.5481489181518</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.8208190202713013</v>
+        <v>783.3413793206214</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.8093878030776978</v>
+        <v>710.4684695839882</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.8174616098403931</v>
+        <v>104.9246858358383</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.8387669324874878</v>
+        <v>588.0502772510052</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.8564033508300781</v>
+        <v>80.37110071778298</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.2557362914085388</v>
+        <v>235.8061620444059</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.8372139930725098</v>
+        <v>929.4213860750198</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.5585446357727051</v>
+        <v>599.5156712889672</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.8185155391693115</v>
+        <v>128.2749793469906</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.1198449730873108</v>
+        <v>48.51557973697781</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.9071378707885742</v>
+        <v>654.3332398653031</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.7855880856513977</v>
+        <v>39.60686821937561</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.8204550743103027</v>
+        <v>337.6442268371582</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.02325975894928</v>
+        <v>846.2412351489068</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.8335843682289124</v>
+        <v>371.1070149540901</v>
       </c>
       <c r="BE7" t="n">
-        <v>36.44571685791016</v>
+        <v>27941.93645683546</v>
       </c>
       <c r="BF7" t="n">
-        <v>36445.71875</v>
+        <v>27941936.45683546</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.53196781873703</v>
+        <v>515.3615891158581</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5348510146141052</v>
+        <v>575.3302935898304</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0009908480569720268</v>
+        <v>631.797895671986</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5078760981559753</v>
+        <v>559.3154520034789</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001529857516288757</v>
+        <v>192.2192078612745</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5073065757751465</v>
+        <v>517.6251754462719</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8453399538993835</v>
+        <v>5.602052807807922</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2706387042999268</v>
+        <v>306.8173284590244</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2049670815467834</v>
+        <v>193.7048561304808</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8151500225067139</v>
+        <v>852.7814651489258</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8360897898674011</v>
+        <v>787.6955958008766</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8319581747055054</v>
+        <v>154.4098880767822</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8585286736488342</v>
+        <v>842.426016896963</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8208478093147278</v>
+        <v>904.1810306072235</v>
       </c>
       <c r="O8" t="n">
-        <v>0.839686393737793</v>
+        <v>371.9213561534882</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8295145034790039</v>
+        <v>2248.760196113587</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4915047287940979</v>
+        <v>483.9408957719803</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8031594753265381</v>
+        <v>0.04812643547058106</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8101662397384644</v>
+        <v>937.3549246370792</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8098945021629333</v>
+        <v>816.4212433457375</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8071424961090088</v>
+        <v>736.7273239135742</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8153778314590454</v>
+        <v>784.0424740314484</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8297637104988098</v>
+        <v>448.370791965723</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8290480971336365</v>
+        <v>333.7256317138672</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.8174978494644165</v>
+        <v>951.9489466547966</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.8180866837501526</v>
+        <v>192.8709520876407</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.8146069049835205</v>
+        <v>36.58278021812439</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.8184259533882141</v>
+        <v>700.8879311561585</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.8118723630905151</v>
+        <v>0.1934718316555023</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.07583952695131302</v>
+        <v>173.5443920373916</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.8682342767715454</v>
+        <v>753.9258342802525</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.6206295490264893</v>
+        <v>609.798549860716</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.7233623862266541</v>
+        <v>708.519427394867</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.4912067651748657</v>
+        <v>508.2643794894219</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.2270109504461288</v>
+        <v>89.73447776138784</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.07150821387767792</v>
+        <v>122.4251528322697</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.8354833722114563</v>
+        <v>531.9869855046272</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.4260813295841217</v>
+        <v>381.236827158928</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.04318996518850327</v>
+        <v>97.91883979737757</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.8331884741783142</v>
+        <v>667.5474402189254</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.831540584564209</v>
+        <v>931.074689912796</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.8261402249336243</v>
+        <v>781.4320397853851</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.8144391179084778</v>
+        <v>710.5621838450431</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.8222928643226624</v>
+        <v>105.0604885101318</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.8441507816314697</v>
+        <v>591.1958128929139</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.8435289859771729</v>
+        <v>80.43731480240822</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.2616252899169922</v>
+        <v>209.2520316511393</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.82582026720047</v>
+        <v>925.220477426052</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.5605227947235107</v>
+        <v>554.649781525135</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.8127437829971313</v>
+        <v>129.6073079705238</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.1230800002813339</v>
+        <v>129.668478371203</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.9074127674102783</v>
+        <v>514.0992044448852</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.7781708240509033</v>
+        <v>39.80456919670105</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.8107791543006897</v>
+        <v>340.4837870240211</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.04234790802002</v>
+        <v>829.5182019233704</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.8215354681015015</v>
+        <v>366.2730217933654</v>
       </c>
       <c r="BE8" t="n">
-        <v>36.65367126464844</v>
+        <v>27966.30659105835</v>
       </c>
       <c r="BF8" t="n">
-        <v>36653.671875</v>
+        <v>27966306.59105835</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.522103488445282</v>
+        <v>538.3486751496791</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4951108396053314</v>
+        <v>589.9747042417526</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.003780575469136238</v>
+        <v>631.8291638486087</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5410944223403931</v>
+        <v>529.8396085917949</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.002152843400835991</v>
+        <v>192.1993581492454</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4950488209724426</v>
+        <v>501.8296778619289</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8545269370079041</v>
+        <v>5.57746478319168</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2786502242088318</v>
+        <v>266.8160870939493</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1998140066862106</v>
+        <v>195.1493539601564</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8129191398620605</v>
+        <v>845.921730041504</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8396797180175781</v>
+        <v>791.8560444116592</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8370042443275452</v>
+        <v>146.5694246292114</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8510135412216187</v>
+        <v>845.0059534490108</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8230499029159546</v>
+        <v>901.9498723983766</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8420608639717102</v>
+        <v>372.6512837409974</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8408676981925964</v>
+        <v>2244.932150268555</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4925655424594879</v>
+        <v>515.171279257536</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8005175590515137</v>
+        <v>0.04804644889831543</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8226524591445923</v>
+        <v>939.7188428521156</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8103681206703186</v>
+        <v>815.5536871314049</v>
       </c>
       <c r="U9" t="n">
-        <v>0.792039692401886</v>
+        <v>737.0929215192795</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8127170205116272</v>
+        <v>783.7564273476601</v>
       </c>
       <c r="W9" t="n">
-        <v>0.8242005705833435</v>
+        <v>450.5971444308758</v>
       </c>
       <c r="X9" t="n">
-        <v>0.8222355246543884</v>
+        <v>333.2778564453125</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.8201590180397034</v>
+        <v>951.3510967612267</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.8161083459854126</v>
+        <v>191.3037631392479</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.8163349032402039</v>
+        <v>37.43769266605377</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.8237401247024536</v>
+        <v>696.5554923057557</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.8156854510307312</v>
+        <v>0.1945970162153244</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.06511370092630386</v>
+        <v>204.403831410408</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.8424413204193115</v>
+        <v>780.6221552312375</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6162254214286804</v>
+        <v>664.6053008913995</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.6928380727767944</v>
+        <v>710.663817858696</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.4933630526065826</v>
+        <v>537.0864773154259</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.2157820761203766</v>
+        <v>62.59980531409384</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.01111536845564842</v>
+        <v>86.23392613530159</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.8243863582611084</v>
+        <v>541.5485887169839</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.4191165864467621</v>
+        <v>397.5927680462599</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.04487940669059753</v>
+        <v>48.06018652915954</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.8289511799812317</v>
+        <v>696.6128087282181</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.8358971476554871</v>
+        <v>945.3382838547229</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.8343533277511597</v>
+        <v>756.0475708127021</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.8019200563430786</v>
+        <v>711.4343892455101</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.831355094909668</v>
+        <v>107.3714066028595</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.8436127901077271</v>
+        <v>586.5715406239033</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.8546615839004517</v>
+        <v>81.30607888698577</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.2590281367301941</v>
+        <v>256.4372971236705</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.8228862881660461</v>
+        <v>927.9312805414199</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.5543718338012695</v>
+        <v>613.9680781304836</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.8231504559516907</v>
+        <v>129.0462926268578</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.1287754774093628</v>
+        <v>139.9219701170921</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.927981972694397</v>
+        <v>517.5063420295716</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.7798559665679932</v>
+        <v>39.54133863449097</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.82752925157547</v>
+        <v>339.8556951999664</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.035832047462463</v>
+        <v>876.5565231144428</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.8333743214607239</v>
+        <v>363.0064004659653</v>
       </c>
       <c r="BE9" t="n">
-        <v>36.54513549804688</v>
+        <v>28174.37955412903</v>
       </c>
       <c r="BF9" t="n">
-        <v>36545.13671875</v>
+        <v>28174379.55412903</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.4948580861091614</v>
+        <v>510.5347559273243</v>
       </c>
       <c r="B10" t="n">
-        <v>0.49533611536026</v>
+        <v>547.9572612524032</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003085995092988014</v>
+        <v>631.8151713080704</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5303683280944824</v>
+        <v>493.7605303555726</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008611395955085754</v>
+        <v>192.2026595853269</v>
       </c>
       <c r="F10" t="n">
-        <v>0.509269654750824</v>
+        <v>484.486473685503</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8556180596351624</v>
+        <v>5.597327005863189</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2801083326339722</v>
+        <v>255.7334232658148</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1990193426609039</v>
+        <v>145.3769597709179</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8244807124137878</v>
+        <v>847.1233703613282</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8330219388008118</v>
+        <v>784.3584658503532</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8219073414802551</v>
+        <v>146.67894115448</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8509395718574524</v>
+        <v>846.3884029984473</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8117391467094421</v>
+        <v>903.9827291011811</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8329452872276306</v>
+        <v>372.5160570144654</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8234909772872925</v>
+        <v>2248.311281394959</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4730378985404968</v>
+        <v>504.4837312459945</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8078084588050842</v>
+        <v>0.04741104335784913</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8273525238037109</v>
+        <v>940.5152030944823</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8142329454421997</v>
+        <v>815.3367576122284</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8086106181144714</v>
+        <v>737.1287023663521</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8214685320854187</v>
+        <v>785.4306697249413</v>
       </c>
       <c r="W10" t="n">
-        <v>0.8259720206260681</v>
+        <v>451.0050758302212</v>
       </c>
       <c r="X10" t="n">
-        <v>0.8408153653144836</v>
+        <v>334.3498641967773</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.8134369850158691</v>
+        <v>950.8079855322839</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.8021001815795898</v>
+        <v>191.7951596260071</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.82350754737854</v>
+        <v>37.17065217494964</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.8080147504806519</v>
+        <v>696.1834357738495</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.8218789100646973</v>
+        <v>0.1951815769910812</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1110694110393524</v>
+        <v>222.1924980998039</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.8018901348114014</v>
+        <v>708.5401107788086</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5936952829360962</v>
+        <v>592.2289204001428</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.7252085208892822</v>
+        <v>751.0317051172257</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.4988946616649628</v>
+        <v>586.02958817482</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.2114623785018921</v>
+        <v>115.0495641119778</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.03608012199401855</v>
+        <v>72.78026803731917</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.8231363296508789</v>
+        <v>529.9568747997284</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.4182181656360626</v>
+        <v>359.3054124087096</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.02843803912401199</v>
+        <v>58.2574037104845</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.8287370204925537</v>
+        <v>618.8536256313324</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.8379959464073181</v>
+        <v>949.7101863205432</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.8309529423713684</v>
+        <v>775.4132087945937</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.7919936180114746</v>
+        <v>712.1402378559112</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.8215090036392212</v>
+        <v>105.1851083278656</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.8299376964569092</v>
+        <v>586.1329903304577</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.8506027460098267</v>
+        <v>79.87843213677407</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.2509461045265198</v>
+        <v>251.2233509361744</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.8360002040863037</v>
+        <v>920.7780945003032</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.5780382752418518</v>
+        <v>567.5906005442142</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.8333284854888916</v>
+        <v>129.0009759187698</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.1274368166923523</v>
+        <v>56.71806471049786</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.9170660376548767</v>
+        <v>551.8635531663895</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.7751636505126953</v>
+        <v>39.50992817878723</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.8240083456039429</v>
+        <v>336.4292305111885</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.031944036483765</v>
+        <v>930.4489909946918</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.8318492770195007</v>
+        <v>367.2725494265556</v>
       </c>
       <c r="BE10" t="n">
-        <v>36.50864028930664</v>
+        <v>27834.79511375452</v>
       </c>
       <c r="BF10" t="n">
-        <v>36508.640625</v>
+        <v>27834795.11375452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5110183954238892</v>
+        <v>551.0460388183594</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5217512845993042</v>
+        <v>471.4376360654831</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.006358880549669266</v>
+        <v>631.7832215495407</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5152307152748108</v>
+        <v>551.0117851138114</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.003258034586906433</v>
+        <v>192.2223415270448</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5149332880973816</v>
+        <v>584.0312267899513</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8639358282089233</v>
+        <v>5.596709740161895</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2637883126735687</v>
+        <v>306.0867244124412</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2032280117273331</v>
+        <v>207.1174649775028</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8123745918273926</v>
+        <v>851.1076217651367</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8260752558708191</v>
+        <v>794.5106533169746</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8302302360534668</v>
+        <v>145.5685581207275</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8539053797721863</v>
+        <v>845.8481870353221</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8255969882011414</v>
+        <v>895.8566442489624</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8426036834716797</v>
+        <v>392.9573783397675</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8340115547180176</v>
+        <v>2247.809837341309</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4884213507175446</v>
+        <v>489.3254189699888</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7862477898597717</v>
+        <v>0.04801865215301514</v>
       </c>
       <c r="S11" t="n">
-        <v>0.806438148021698</v>
+        <v>933.3096384346485</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8184784650802612</v>
+        <v>814.7921664357185</v>
       </c>
       <c r="U11" t="n">
-        <v>0.8078523278236389</v>
+        <v>737.9447224378586</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8153799176216125</v>
+        <v>782.6750810146332</v>
       </c>
       <c r="W11" t="n">
-        <v>0.8321175575256348</v>
+        <v>452.3592705011368</v>
       </c>
       <c r="X11" t="n">
-        <v>0.8282331228256226</v>
+        <v>334.5018737792968</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.8229503631591797</v>
+        <v>950.5365737438202</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.8158797025680542</v>
+        <v>194.1163829445839</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.8101069927215576</v>
+        <v>35.07865219116211</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.8118026256561279</v>
+        <v>692.8648792028428</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8102534413337708</v>
+        <v>0.1941952824115753</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.07455875724554062</v>
+        <v>102.5315155148506</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.8336500525474548</v>
+        <v>678.8371666789055</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.6060467958450317</v>
+        <v>655.5235946476461</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.7331650257110596</v>
+        <v>662.3751474380493</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.5035269260406494</v>
+        <v>529.1559715926647</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1878691464662552</v>
+        <v>53.20144954212011</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0.01146863400936127</v>
+        <v>109.902243694663</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.8295464515686035</v>
+        <v>532.2917815804482</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.4194199740886688</v>
+        <v>414.2823054283858</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.03580216318368912</v>
+        <v>64.34977168440818</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.8438981175422668</v>
+        <v>662.7598065257073</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.8225081562995911</v>
+        <v>956.2118310809135</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.849409818649292</v>
+        <v>764.6436608552932</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.8147710561752319</v>
+        <v>712.1429393053055</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.8280172944068909</v>
+        <v>102.2218790769577</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.8373643755912781</v>
+        <v>589.0474311530591</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.8582146167755127</v>
+        <v>80.52665410637856</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.2529272437095642</v>
+        <v>233.8333300232887</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.8334024548530579</v>
+        <v>922.4016673743724</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.5692156553268433</v>
+        <v>544.8330973029136</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.8282425999641418</v>
+        <v>129.2783533632755</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.1216473057866096</v>
+        <v>100.3689754813909</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.8641512393951416</v>
+        <v>542.9950901448726</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.7789332866668701</v>
+        <v>39.57850332260132</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.8317506909370422</v>
+        <v>340.1391074419021</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.049749493598938</v>
+        <v>893.6049651563168</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.8404404520988464</v>
+        <v>363.8926300168037</v>
       </c>
       <c r="BE11" t="n">
-        <v>36.49999237060547</v>
+        <v>27872.66977228624</v>
       </c>
       <c r="BF11" t="n">
-        <v>36499.9921875</v>
+        <v>27872669.77228624</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5146270990371704</v>
+        <v>565.461402630806</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4994844198226929</v>
+        <v>598.5164187669754</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001342318952083588</v>
+        <v>631.7900834374129</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5008080005645752</v>
+        <v>540.9343939840793</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002243008464574814</v>
+        <v>192.1966958165169</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5004530549049377</v>
+        <v>593.8806804299354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8663656711578369</v>
+        <v>5.620445001125336</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2526792585849762</v>
+        <v>320.1183886259794</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1824404299259186</v>
+        <v>191.7460581958294</v>
       </c>
       <c r="J12" t="n">
-        <v>0.822256326675415</v>
+        <v>848.1083862304688</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8371756672859192</v>
+        <v>784.2124574184418</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8357776403427124</v>
+        <v>147.9570596694946</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8434224128723145</v>
+        <v>842.0801462054252</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8256658315658569</v>
+        <v>909.0920216560364</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8277093768119812</v>
+        <v>380.587672495842</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8434506058692932</v>
+        <v>2246.277756500244</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4891636073589325</v>
+        <v>483.6972048789263</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8055168390274048</v>
+        <v>0.04835166091918946</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8166515827178955</v>
+        <v>937.2227872729301</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8210135102272034</v>
+        <v>813.1977437376976</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8058916926383972</v>
+        <v>737.944073343277</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8330270648002625</v>
+        <v>785.043638586998</v>
       </c>
       <c r="W12" t="n">
-        <v>0.8309668898582458</v>
+        <v>451.529816955328</v>
       </c>
       <c r="X12" t="n">
-        <v>0.8392454385757446</v>
+        <v>333.9208740234375</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.8187706470489502</v>
+        <v>951.0766691684723</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.8043925166130066</v>
+        <v>193.403349417448</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.8212162256240845</v>
+        <v>36.81544144153595</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.8187058568000793</v>
+        <v>697.6776020526886</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.8200791478157043</v>
+        <v>0.1939708436012268</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.1093026921153069</v>
+        <v>140.0113662362098</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.8137084245681763</v>
+        <v>646.7598076581955</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.6293313503265381</v>
+        <v>671.1700840950012</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.7410327196121216</v>
+        <v>735.9956905603409</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.5135729908943176</v>
+        <v>572.8823603689671</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.2234094440937042</v>
+        <v>142.2829867228866</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.04416744410991669</v>
+        <v>85.01521570682524</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.8291913866996765</v>
+        <v>530.2380817055703</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.4214292168617249</v>
+        <v>393.3052322804928</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0451405942440033</v>
+        <v>46.68978337645531</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.8344051837921143</v>
+        <v>622.9237627625465</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.8146823644638062</v>
+        <v>947.7037041068077</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.8286715149879456</v>
+        <v>789.6915074944495</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.8202085494995117</v>
+        <v>713.9527781009674</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.82465660572052</v>
+        <v>102.6820937156677</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.8483143448829651</v>
+        <v>589.7465335369111</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.8401252031326294</v>
+        <v>78.15742517709732</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.2443806231021881</v>
+        <v>263.839041185379</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.8282471895217896</v>
+        <v>926.0123973369598</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.5740063786506653</v>
+        <v>530.0559534132481</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.8320099711418152</v>
+        <v>128.146061706543</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.1274062097072601</v>
+        <v>36.80010246559978</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.8580763339996338</v>
+        <v>471.2797847181558</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.777072548866272</v>
+        <v>39.95111436843872</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.8266704082489014</v>
+        <v>341.2258984684944</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.051669836044312</v>
+        <v>897.3139104783535</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.8345085382461548</v>
+        <v>361.174263805151</v>
       </c>
       <c r="BE12" t="n">
-        <v>36.52760314941406</v>
+        <v>28025.35853199959</v>
       </c>
       <c r="BF12" t="n">
-        <v>36527.6015625</v>
+        <v>28025358.53199959</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5324583053588867</v>
+        <v>595.7954324781895</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5391238331794739</v>
+        <v>561.1464772582054</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006746577098965645</v>
+        <v>631.8120242647826</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4966316223144531</v>
+        <v>562.5263699769973</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0004692748188972473</v>
+        <v>192.2235635377467</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5190558433532715</v>
+        <v>562.7414125144481</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8553529381752014</v>
+        <v>5.569291162490845</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2989784777164459</v>
+        <v>387.4215428978204</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1958209127187729</v>
+        <v>192.8420279800892</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8215405344963074</v>
+        <v>842.8506744384766</v>
       </c>
       <c r="K13" t="n">
-        <v>0.832050085067749</v>
+        <v>782.1093314290047</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8367033004760742</v>
+        <v>153.9061717987061</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8615965843200684</v>
+        <v>843.8953124999999</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8289528489112854</v>
+        <v>918.6577727794648</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8445330262184143</v>
+        <v>371.3307460069657</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8385151624679565</v>
+        <v>2247.802690887451</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4770118594169617</v>
+        <v>508.9685253858566</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8006387948989868</v>
+        <v>0.04855385513305664</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8207052946090698</v>
+        <v>932.3303054451942</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8222185969352722</v>
+        <v>815.9370894908905</v>
       </c>
       <c r="U13" t="n">
-        <v>0.811011791229248</v>
+        <v>737.0170207262039</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8308602571487427</v>
+        <v>782.9283418059349</v>
       </c>
       <c r="W13" t="n">
-        <v>0.8277734518051147</v>
+        <v>450.0953761816025</v>
       </c>
       <c r="X13" t="n">
-        <v>0.8250374794006348</v>
+        <v>334.1073974609375</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.8296102285385132</v>
+        <v>951.5240800857545</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.816986620426178</v>
+        <v>197.8444649755955</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.8276016116142273</v>
+        <v>35.84352929592132</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.8244462013244629</v>
+        <v>690.7934175252915</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.8077001571655273</v>
+        <v>0.1952261649847031</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.08089123666286469</v>
+        <v>166.9920989632606</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.8129865527153015</v>
+        <v>695.8106946170331</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.6124300360679626</v>
+        <v>603.501150649786</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.7086897492408752</v>
+        <v>695.735888338089</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.5200513005256653</v>
+        <v>593.9470574498177</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1810798346996307</v>
+        <v>109.0900088690221</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.07214434444904327</v>
+        <v>17.06208112537861</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.821343719959259</v>
+        <v>523.1518045186997</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.4208660125732422</v>
+        <v>406.553216969967</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.01772886514663696</v>
+        <v>62.02527879178524</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.8360378742218018</v>
+        <v>694.4555340528489</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.8304693102836609</v>
+        <v>935.5348443567752</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.8366931676864624</v>
+        <v>776.6237247347832</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.8204621076583862</v>
+        <v>712.1369197249412</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.8253193497657776</v>
+        <v>102.6506327390671</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.8450199961662292</v>
+        <v>588.4405056715012</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.8414427638053894</v>
+        <v>80.97386015653611</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.2532297670841217</v>
+        <v>268.6192715287208</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.8328199982643127</v>
+        <v>924.1813286423683</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.5694972276687622</v>
+        <v>632.5492080032826</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.8349424600601196</v>
+        <v>129.3344672501087</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1160437986254692</v>
+        <v>125.4985819250345</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.8542766571044922</v>
+        <v>436.187274813652</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.7837508320808411</v>
+        <v>39.45723028182984</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.8321634531021118</v>
+        <v>339.932225728035</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.043449282646179</v>
+        <v>875.6287503957749</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.8209965825080872</v>
+        <v>362.4193523108959</v>
       </c>
       <c r="BE13" t="n">
-        <v>36.51066589355469</v>
+        <v>28188.75716291913</v>
       </c>
       <c r="BF13" t="n">
-        <v>36510.6640625</v>
+        <v>28188757.16291913</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5173572897911072</v>
+        <v>505.9999619245529</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5055453777313232</v>
+        <v>600.7810472011566</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0009076651185750961</v>
+        <v>631.7665061496198</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5323041677474976</v>
+        <v>508.8898995816707</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.003405420109629631</v>
+        <v>192.1805536530912</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5045058131217957</v>
+        <v>531.7395516753197</v>
       </c>
       <c r="G14" t="n">
-        <v>0.854510486125946</v>
+        <v>5.54722466468811</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3196916878223419</v>
+        <v>301.6602022260427</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2037539780139923</v>
+        <v>157.3604457110167</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8223049640655518</v>
+        <v>840.412925720215</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8322974443435669</v>
+        <v>788.3538092970848</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8396201133728027</v>
+        <v>148.8916734695435</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8422379493713379</v>
+        <v>846.3957527995109</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8188703060150146</v>
+        <v>913.4029326438905</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8394753336906433</v>
+        <v>380.6855317115784</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8267147541046143</v>
+        <v>2245.285160446167</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4933211505413055</v>
+        <v>504.7516988873481</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8057540059089661</v>
+        <v>0.04778607196807862</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8230069875717163</v>
+        <v>937.6526825487613</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8107014298439026</v>
+        <v>815.5807573080062</v>
       </c>
       <c r="U14" t="n">
-        <v>0.8063971400260925</v>
+        <v>738.3722928404808</v>
       </c>
       <c r="V14" t="n">
-        <v>0.8153263926506042</v>
+        <v>784.7605510950089</v>
       </c>
       <c r="W14" t="n">
-        <v>0.8358526825904846</v>
+        <v>451.1136617422104</v>
       </c>
       <c r="X14" t="n">
-        <v>0.826770544052124</v>
+        <v>334.5860885620117</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.834690272808075</v>
+        <v>951.4328096151352</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.8072533011436462</v>
+        <v>194.4309157609939</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.8145610690116882</v>
+        <v>36.08853859901428</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.8244868516921997</v>
+        <v>697.2915254354477</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.8202568888664246</v>
+        <v>0.1941513177394867</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.08161889761686325</v>
+        <v>80.50695675015449</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.8136964440345764</v>
+        <v>574.0309591412545</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.622797429561615</v>
+        <v>607.8819009065629</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.7246027588844299</v>
+        <v>702.331395483017</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.5087208151817322</v>
+        <v>531.988928604126</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.2215756475925446</v>
+        <v>167.0623657256365</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.06516805291175842</v>
+        <v>104.6112524151802</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.8261106014251709</v>
+        <v>530.0651049852372</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.405951976776123</v>
+        <v>410.9512563884259</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.05593050271272659</v>
+        <v>63.72307100892066</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.8348077535629272</v>
+        <v>648.9792890191078</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.8283950090408325</v>
+        <v>941.3008481144905</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.8262130618095398</v>
+        <v>773.1096715807914</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.815976619720459</v>
+        <v>711.3120323657989</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.8254931569099426</v>
+        <v>107.6942623615265</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.842096209526062</v>
+        <v>585.2602876543999</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.8473631143569946</v>
+        <v>79.45273075103759</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.2396584302186966</v>
+        <v>279.8218395173549</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.827053427696228</v>
+        <v>921.8245425581931</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.5708931088447571</v>
+        <v>567.9245698451996</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.8299350738525391</v>
+        <v>129.5661068797112</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.1121776923537254</v>
+        <v>102.808230432868</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.7976041436195374</v>
+        <v>388.4816271543503</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.7791493535041809</v>
+        <v>39.88469572067261</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.8135770559310913</v>
+        <v>338.9105372428894</v>
       </c>
       <c r="BC14" t="n">
-        <v>1.079842925071716</v>
+        <v>906.3110470592976</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.8384016156196594</v>
+        <v>368.2176045835018</v>
       </c>
       <c r="BE14" t="n">
-        <v>36.47772979736328</v>
+        <v>27709.66975290898</v>
       </c>
       <c r="BF14" t="n">
-        <v>36477.73046875</v>
+        <v>27709669.75290898</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5122160315513611</v>
+        <v>573.0729976534843</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5305924415588379</v>
+        <v>499.9248529702425</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007807396352291107</v>
+        <v>631.8085697863251</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5314341187477112</v>
+        <v>556.3467764317988</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.004994280636310577</v>
+        <v>192.268743146956</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5380373597145081</v>
+        <v>501.5180390894413</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8519646525382996</v>
+        <v>5.582074785232543</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3151591122150421</v>
+        <v>367.8029398351907</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1905364245176315</v>
+        <v>225.8647846668959</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8140734434127808</v>
+        <v>853.4084381103517</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8392143249511719</v>
+        <v>794.2323304414749</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8335689306259155</v>
+        <v>146.3099447250366</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8540186882019043</v>
+        <v>845.630312347412</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8126882314682007</v>
+        <v>893.6298461437226</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8404264450073242</v>
+        <v>394.7057242631913</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8393470048904419</v>
+        <v>2244.493114471436</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4925962090492249</v>
+        <v>487.7904731541872</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8028862476348877</v>
+        <v>0.04763548965454102</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8309683203697205</v>
+        <v>934.4329928576946</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8229469060897827</v>
+        <v>815.6518279433251</v>
       </c>
       <c r="U15" t="n">
-        <v>0.8070883750915527</v>
+        <v>737.0173964142799</v>
       </c>
       <c r="V15" t="n">
-        <v>0.8200255036354065</v>
+        <v>782.6062896847725</v>
       </c>
       <c r="W15" t="n">
-        <v>0.8321581482887268</v>
+        <v>452.5785810947418</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8319981098175049</v>
+        <v>335.074137878418</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.8240506649017334</v>
+        <v>950.8342239379883</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.8162893652915955</v>
+        <v>196.7958882927894</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.8226180672645569</v>
+        <v>36.35501298904419</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.8227124214172363</v>
+        <v>698.0412750005722</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.8190974593162537</v>
+        <v>0.1946537507772446</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.08246549218893051</v>
+        <v>190.4204078555107</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.7882310748100281</v>
+        <v>495.917736363411</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.6288211941719055</v>
+        <v>657.0064145624639</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.7262606620788574</v>
+        <v>686.7123046875</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.520592212677002</v>
+        <v>557.4985781550408</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.1597168296575546</v>
+        <v>82.99273452386261</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.09031287580728531</v>
+        <v>46.41645909696817</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.822105884552002</v>
+        <v>534.8802219390869</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.4130254685878754</v>
+        <v>460.9397541314364</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.0364096574485302</v>
+        <v>88.33022562265396</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.8341046571731567</v>
+        <v>673.3287147283554</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.8242863416671753</v>
+        <v>952.4172505319118</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.8375751972198486</v>
+        <v>774.9840562820434</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.8166487216949463</v>
+        <v>711.5133778333663</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.8381054401397705</v>
+        <v>109.1706603765488</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.8341740369796753</v>
+        <v>588.1971867740154</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.8474044799804688</v>
+        <v>80.11239105463028</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.2429917305707932</v>
+        <v>244.0022324204445</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.8379583954811096</v>
+        <v>922.5037768542766</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.5572637319564819</v>
+        <v>613.4741228222847</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.83084636926651</v>
+        <v>127.5925729453564</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.1104722246527672</v>
+        <v>87.93652603775263</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.6997935175895691</v>
+        <v>390.0627802491188</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.7810975909233093</v>
+        <v>38.90300006866455</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.8378609418869019</v>
+        <v>338.1734480857849</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.047929525375366</v>
+        <v>805.5032100737095</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.8349478244781494</v>
+        <v>367.6410949707031</v>
       </c>
       <c r="BE15" t="n">
-        <v>36.35230255126953</v>
+        <v>27780.65111640334</v>
       </c>
       <c r="BF15" t="n">
-        <v>36352.30078125</v>
+        <v>27780651.11640334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5296989679336548</v>
+        <v>525.878155374527</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5592377185821533</v>
+        <v>587.2481716275215</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002205600962042809</v>
+        <v>631.8092537775635</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5102136135101318</v>
+        <v>568.9392119228839</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0004054605960845947</v>
+        <v>192.1763917326927</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5214663743972778</v>
+        <v>458.1927417814731</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8394830822944641</v>
+        <v>5.583447611331939</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2933289706707001</v>
+        <v>344.8074885606765</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2139315903186798</v>
+        <v>206.4499966740608</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8271142840385437</v>
+        <v>855.2169815063477</v>
       </c>
       <c r="K16" t="n">
-        <v>0.838045597076416</v>
+        <v>792.0094228386879</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8370336294174194</v>
+        <v>147.911107635498</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8406736850738525</v>
+        <v>841.1132508337497</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8231434226036072</v>
+        <v>918.8362208366395</v>
       </c>
       <c r="O16" t="n">
-        <v>0.838718593120575</v>
+        <v>383.2366962432862</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8341581225395203</v>
+        <v>2248.816835021973</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4883027970790863</v>
+        <v>499.6122963786125</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8113811016082764</v>
+        <v>0.04741591091156006</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8210525512695312</v>
+        <v>942.2837148487567</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8250070810317993</v>
+        <v>814.9999559521675</v>
       </c>
       <c r="U16" t="n">
-        <v>0.8063652515411377</v>
+        <v>738.5764252185821</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8266844749450684</v>
+        <v>784.8488131165504</v>
       </c>
       <c r="W16" t="n">
-        <v>0.8278530240058899</v>
+        <v>450.8460198462009</v>
       </c>
       <c r="X16" t="n">
-        <v>0.8507145047187805</v>
+        <v>334.4722793579101</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.8339900374412537</v>
+        <v>950.9336152791977</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.8125579953193665</v>
+        <v>188.6372131586075</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.82733154296875</v>
+        <v>36.4361613035202</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.8182080984115601</v>
+        <v>696.9587488651276</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.8110090494155884</v>
+        <v>0.1941829461812973</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.1057916209101677</v>
+        <v>215.2596062660217</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.7863262891769409</v>
+        <v>468.1317617565394</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.6128601431846619</v>
+        <v>655.1688493371011</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.7194110751152039</v>
+        <v>700.4239355087281</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.5029120445251465</v>
+        <v>565.3096723973752</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.1749099344015121</v>
+        <v>55.73007343299687</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.0588386282324791</v>
+        <v>39.90500347912311</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.8381733298301697</v>
+        <v>532.8060696959496</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.4085477590560913</v>
+        <v>368.4639277338982</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.05652262270450592</v>
+        <v>66.44275591969489</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.8384953737258911</v>
+        <v>665.1022267103195</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.8373387455940247</v>
+        <v>938.8163545012474</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.831108570098877</v>
+        <v>786.0836725234985</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.8133588433265686</v>
+        <v>711.7508301138878</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.8333482146263123</v>
+        <v>106.3192549467087</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.8429536819458008</v>
+        <v>586.9879497110844</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.8399136066436768</v>
+        <v>79.24316217899323</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.2426535785198212</v>
+        <v>224.0205090492964</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.8361948728561401</v>
+        <v>925.4372904241084</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.5671234726905823</v>
+        <v>576.1880317628384</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.8384431004524231</v>
+        <v>129.754223716259</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.1054903417825699</v>
+        <v>77.86897473707795</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.5847344994544983</v>
+        <v>392.7440058588982</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.7904982566833496</v>
+        <v>39.77665920257569</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.8296062350273132</v>
+        <v>339.5552071809769</v>
       </c>
       <c r="BC16" t="n">
-        <v>1.050167679786682</v>
+        <v>894.1893302559853</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.8344837427139282</v>
+        <v>364.3353071451187</v>
       </c>
       <c r="BE16" t="n">
-        <v>36.32662200927734</v>
+        <v>27652.88686170754</v>
       </c>
       <c r="BF16" t="n">
-        <v>36326.62109375</v>
+        <v>27652886.86170754</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5350553393363953</v>
+        <v>517.8562170147895</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5313029289245605</v>
+        <v>596.3097218573093</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.005910787731409073</v>
+        <v>631.8253957398235</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5254638195037842</v>
+        <v>633.9949069440364</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006906662136316299</v>
+        <v>192.237808932364</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5158202648162842</v>
+        <v>491.9663405060767</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8500860929489136</v>
+        <v>5.625439667701721</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3099283874034882</v>
+        <v>360.347634896636</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1994947195053101</v>
+        <v>226.5596358269453</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8401219844818115</v>
+        <v>856.0749023437501</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8384100794792175</v>
+        <v>793.9861361384392</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8486108183860779</v>
+        <v>147.2767965316773</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8505845665931702</v>
+        <v>845.8689016342162</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8259893655776978</v>
+        <v>908.3249263286591</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8503269553184509</v>
+        <v>383.8436480522156</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8333203196525574</v>
+        <v>2248.429016685486</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4837369918823242</v>
+        <v>491.2667545735836</v>
       </c>
       <c r="R17" t="n">
-        <v>0.812096118927002</v>
+        <v>0.04682241363525391</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8189926147460938</v>
+        <v>945.244452124834</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8245348334312439</v>
+        <v>814.1159733176231</v>
       </c>
       <c r="U17" t="n">
-        <v>0.8056057095527649</v>
+        <v>736.360642516613</v>
       </c>
       <c r="V17" t="n">
-        <v>0.8164921402931213</v>
+        <v>782.9744684696198</v>
       </c>
       <c r="W17" t="n">
-        <v>0.8349919319152832</v>
+        <v>449.8602782666683</v>
       </c>
       <c r="X17" t="n">
-        <v>0.8422245383262634</v>
+        <v>334.2715530395508</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.832406222820282</v>
+        <v>950.8015527248383</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.8144329190254211</v>
+        <v>195.0534864246845</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.815132200717926</v>
+        <v>36.00703268051147</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.8152840137481689</v>
+        <v>696.7899574756623</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.8255295753479004</v>
+        <v>0.1938759818553925</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.08897466212511063</v>
+        <v>92.06048607230186</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.7659448385238647</v>
+        <v>459.9020036578179</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.6066774725914001</v>
+        <v>628.6345908999443</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.737149178981781</v>
+        <v>710.6582857131958</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.5087590217590332</v>
+        <v>558.5063729524613</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.1715716123580933</v>
+        <v>151.3718302249909</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.07435023784637451</v>
+        <v>3.274025771021843</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.8274996280670166</v>
+        <v>528.157276916504</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.4107597768306732</v>
+        <v>364.3878058046103</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.02873820066452026</v>
+        <v>96.89954631626605</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.8396417498588562</v>
+        <v>648.3998435974121</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.8281645178794861</v>
+        <v>948.5048691809177</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.8303399085998535</v>
+        <v>785.2348571896553</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.8046252131462097</v>
+        <v>713.2245006322861</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.8378615379333496</v>
+        <v>102.3809679031372</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.8405349850654602</v>
+        <v>588.7510753810407</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.8585209250450134</v>
+        <v>79.69610479474068</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.2594190537929535</v>
+        <v>241.0287640750408</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.8437652587890625</v>
+        <v>922.2067834496497</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.5777507424354553</v>
+        <v>591.5809371352195</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.8285343647003174</v>
+        <v>128.2961245238781</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.1077789217233658</v>
+        <v>82.14177576154471</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.5433686375617981</v>
+        <v>373.2383100628853</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.782322108745575</v>
+        <v>39.37062711715699</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.8379486203193665</v>
+        <v>336.6511106014252</v>
       </c>
       <c r="BC17" t="n">
-        <v>1.049131870269775</v>
+        <v>901.126140320301</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.8386185169219971</v>
+        <v>366.4150528669357</v>
       </c>
       <c r="BE17" t="n">
-        <v>36.27702331542969</v>
+        <v>27715.61434803215</v>
       </c>
       <c r="BF17" t="n">
-        <v>36277.0234375</v>
+        <v>27715614.34803215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5581315159797668</v>
+        <v>572.1569293737411</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5291212201118469</v>
+        <v>583.3259156763554</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002493180334568024</v>
+        <v>631.7927128031849</v>
       </c>
       <c r="D18" t="n">
-        <v>0.518018364906311</v>
+        <v>441.8768776148557</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.007367908954620361</v>
+        <v>192.2178581140935</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5076777338981628</v>
+        <v>527.5133604824543</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8493503332138062</v>
+        <v>5.578533411026001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.293357640504837</v>
+        <v>334.8407061636448</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1998228877782822</v>
+        <v>257.8663008451462</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8254196047782898</v>
+        <v>852.4142791748047</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8307008743286133</v>
+        <v>790.5421988368034</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8377821445465088</v>
+        <v>149.468574142456</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8601500391960144</v>
+        <v>848.9773201584815</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8221222162246704</v>
+        <v>918.0636337757112</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8343809843063354</v>
+        <v>367.8530240535737</v>
       </c>
       <c r="P18" t="n">
-        <v>0.835935115814209</v>
+        <v>2247.738992500305</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4856351315975189</v>
+        <v>453.8777621746063</v>
       </c>
       <c r="R18" t="n">
-        <v>0.797914445400238</v>
+        <v>0.04845350666046143</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8249327540397644</v>
+        <v>941.1627664029597</v>
       </c>
       <c r="T18" t="n">
-        <v>0.821541428565979</v>
+        <v>814.4762241363526</v>
       </c>
       <c r="U18" t="n">
-        <v>0.8042241334915161</v>
+        <v>737.0572016477585</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8187894225120544</v>
+        <v>784.8635277152061</v>
       </c>
       <c r="W18" t="n">
-        <v>0.8317109942436218</v>
+        <v>452.2935133397579</v>
       </c>
       <c r="X18" t="n">
-        <v>0.8325012922286987</v>
+        <v>333.4109649658203</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.8224085569381714</v>
+        <v>952.2103542089462</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.8132959008216858</v>
+        <v>193.051627177</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.8218372464179993</v>
+        <v>36.83968396186828</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.8209114670753479</v>
+        <v>698.9052491188049</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.8188961148262024</v>
+        <v>0.1941760629892349</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0690600648522377</v>
+        <v>152.6056236743927</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.7262712717056274</v>
+        <v>470.2144088864327</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.6142478585243225</v>
+        <v>651.027136796713</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.7269605994224548</v>
+        <v>733.583794093132</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.5053040385246277</v>
+        <v>637.3086637973786</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.157956525683403</v>
+        <v>114.6085699245334</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.08788516372442245</v>
+        <v>-2.930118582025171</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.8276069164276123</v>
+        <v>530.1891454935075</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.4133550226688385</v>
+        <v>426.8399476706982</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.03965654224157333</v>
+        <v>43.49924627542496</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.8466290831565857</v>
+        <v>686.1074065685273</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.8380922675132751</v>
+        <v>961.8568908154964</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.8353407979011536</v>
+        <v>771.3169847011566</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.8189919590950012</v>
+        <v>712.6721865296364</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.838916540145874</v>
+        <v>105.8241490364075</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.8325385451316833</v>
+        <v>593.2446327328682</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.8570713400840759</v>
+        <v>78.34666224718094</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.2509160935878754</v>
+        <v>224.2689362168312</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.8288853168487549</v>
+        <v>924.9344396293162</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.5657382011413574</v>
+        <v>554.4106959581375</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.8331543207168579</v>
+        <v>126.4331339359283</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.1041503772139549</v>
+        <v>69.19536216408014</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.477858304977417</v>
+        <v>264.3053546458483</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.7882243394851685</v>
+        <v>39.32657308578491</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.8274151086807251</v>
+        <v>338.693300485611</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.031787276268005</v>
+        <v>847.0836029529572</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.82790207862854</v>
+        <v>363.8147755146027</v>
       </c>
       <c r="BE18" t="n">
-        <v>36.00784301757812</v>
+        <v>27539.40022679593</v>
       </c>
       <c r="BF18" t="n">
-        <v>36007.84375</v>
+        <v>27539400.22679593</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5342260599136353</v>
+        <v>648.4710256576539</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5339415073394775</v>
+        <v>481.7502512067556</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001807943917810917</v>
+        <v>631.7905319623649</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5408881306648254</v>
+        <v>546.5507009804248</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003962915390729904</v>
+        <v>192.1757406804711</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5199269652366638</v>
+        <v>548.2535464525223</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8479378819465637</v>
+        <v>5.598364377021789</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2616140842437744</v>
+        <v>382.0195919692516</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1885459274053574</v>
+        <v>189.4478648006916</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8292813897132874</v>
+        <v>849.071356201172</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8352586030960083</v>
+        <v>783.0558671951294</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8348166346549988</v>
+        <v>146.3840663909912</v>
       </c>
       <c r="M19" t="n">
-        <v>0.856619119644165</v>
+        <v>841.5230189979076</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8150389194488525</v>
+        <v>904.6747374534608</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8457877039909363</v>
+        <v>392.140591955185</v>
       </c>
       <c r="P19" t="n">
-        <v>0.838619589805603</v>
+        <v>2246.032370758057</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4944091439247131</v>
+        <v>498.2239642500878</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8124431371688843</v>
+        <v>0.04856397457122803</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8215337991714478</v>
+        <v>932.9330665409565</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8287383913993835</v>
+        <v>813.1463263273239</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8170589804649353</v>
+        <v>738.8278726577759</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8261419534683228</v>
+        <v>784.3552975654602</v>
       </c>
       <c r="W19" t="n">
-        <v>0.8306739330291748</v>
+        <v>451.7597013413906</v>
       </c>
       <c r="X19" t="n">
-        <v>0.8366802930831909</v>
+        <v>334.3085861206055</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.8353713750839233</v>
+        <v>951.5236198425293</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.8189445734024048</v>
+        <v>192.3337969660759</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.8221046924591064</v>
+        <v>36.74484939575195</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.8178943395614624</v>
+        <v>696.2938647031784</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.8212973475456238</v>
+        <v>0.1951567692041397</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.06605837494134903</v>
+        <v>127.0400090098381</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.6526398658752441</v>
+        <v>441.0197573423386</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.6225097179412842</v>
+        <v>615.5166369378568</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.7352151870727539</v>
+        <v>681.4950155973435</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.5186847448348999</v>
+        <v>612.3744632899761</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.18234483897686</v>
+        <v>72.20190685093404</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.08124756067991257</v>
+        <v>62.04561339467764</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.8410933017730713</v>
+        <v>536.7385559082031</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.4131151735782623</v>
+        <v>347.2148708045483</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.03564459830522537</v>
+        <v>-3.246920743584633</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.8296958804130554</v>
+        <v>691.9406863570214</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.8272303342819214</v>
+        <v>948.5622106969356</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.8352407813072205</v>
+        <v>794.7724065303802</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.815553605556488</v>
+        <v>711.2546062946319</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.8293120265007019</v>
+        <v>100.9147231817246</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.8444230556488037</v>
+        <v>585.0744494974614</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.8450178503990173</v>
+        <v>81.36904440522194</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.2569725215435028</v>
+        <v>327.1293743610382</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.8280037045478821</v>
+        <v>927.3117842197418</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.5593957304954529</v>
+        <v>607.5989553689957</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.8170614838600159</v>
+        <v>129.5534708678722</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.09267160296440125</v>
+        <v>89.83163010179996</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.3942769765853882</v>
+        <v>230.4897167533636</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.7840536236763</v>
+        <v>39.68874068260193</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.8192998170852661</v>
+        <v>338.1578013777733</v>
       </c>
       <c r="BC19" t="n">
-        <v>1.069667339324951</v>
+        <v>961.3996009349823</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.8438563942909241</v>
+        <v>362.722501707077</v>
       </c>
       <c r="BE19" t="n">
-        <v>35.94935607910156</v>
+        <v>27639.80590522473</v>
       </c>
       <c r="BF19" t="n">
-        <v>35949.35546875</v>
+        <v>27639805.90522473</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5615826845169067</v>
+        <v>611.8571113824844</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5394103527069092</v>
+        <v>614.6971758306026</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0006249686703085899</v>
+        <v>631.7975542202591</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5128297209739685</v>
+        <v>474.2802386194467</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001399945467710495</v>
+        <v>192.1969271756709</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5502772927284241</v>
+        <v>490.8529618322848</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8526692390441895</v>
+        <v>5.563801324367523</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3063936233520508</v>
+        <v>381.9186434596776</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1872466057538986</v>
+        <v>178.1152654886246</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8297138214111328</v>
+        <v>855.5948059082032</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8395414352416992</v>
+        <v>781.7392098903656</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8456841111183167</v>
+        <v>153.360654258728</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8567682504653931</v>
+        <v>843.8210158407687</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8208515644073486</v>
+        <v>899.7230909347535</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8381947875022888</v>
+        <v>388.1302505016328</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8420894742012024</v>
+        <v>2248.382637214661</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4809351861476898</v>
+        <v>504.0426391124725</v>
       </c>
       <c r="R20" t="n">
-        <v>0.8199259042739868</v>
+        <v>0.04788107891082764</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8292336463928223</v>
+        <v>935.6345415413379</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8235344290733337</v>
+        <v>815.4296875</v>
       </c>
       <c r="U20" t="n">
-        <v>0.8205235600471497</v>
+        <v>735.4007496476173</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8254787921905518</v>
+        <v>783.3295877575874</v>
       </c>
       <c r="W20" t="n">
-        <v>0.8410993814468384</v>
+        <v>452.3460243582725</v>
       </c>
       <c r="X20" t="n">
-        <v>0.8318083882331848</v>
+        <v>335.5429840087891</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.8268817663192749</v>
+        <v>949.7844530463219</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.8100782632827759</v>
+        <v>195.811189609766</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.8259323835372925</v>
+        <v>36.67710554599762</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.8251811861991882</v>
+        <v>693.8216895341874</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.8179156184196472</v>
+        <v>0.1938714115142822</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.07865354418754578</v>
+        <v>184.1531990647316</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.571865439414978</v>
+        <v>440.9838039249182</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.6098403334617615</v>
+        <v>619.8583812892438</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.7221110463142395</v>
+        <v>702.7237614154816</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.5099460482597351</v>
+        <v>552.6305066406727</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.1515696197748184</v>
+        <v>144.3357209280134</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-0.07894432544708252</v>
+        <v>-21.94445767104625</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.8307371735572815</v>
+        <v>531.3221098542214</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.4117454588413239</v>
+        <v>409.3462273299695</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.04010015726089478</v>
+        <v>16.29457718729973</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.8373754620552063</v>
+        <v>653.7422842144966</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.8381949067115784</v>
+        <v>951.4003103256225</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.8366459012031555</v>
+        <v>780.7211094379425</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.8182805180549622</v>
+        <v>711.7235744953156</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.8283748626708984</v>
+        <v>109.3137032032013</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.8371679186820984</v>
+        <v>588.3003653466702</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.8496078252792358</v>
+        <v>82.16048415899277</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.2556034028530121</v>
+        <v>231.4588579416275</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.8399800658226013</v>
+        <v>923.899799877405</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.5703461170196533</v>
+        <v>576.8642496109009</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.8343650102615356</v>
+        <v>129.7222701311111</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.0893273651599884</v>
+        <v>143.0671118855476</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.331179678440094</v>
+        <v>216.3287713676691</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.7760097980499268</v>
+        <v>40.04913873672486</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.8378154635429382</v>
+        <v>339.7654766559601</v>
       </c>
       <c r="BC20" t="n">
-        <v>1.038815259933472</v>
+        <v>969.3449399352074</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.8318800330162048</v>
+        <v>364.2655403614044</v>
       </c>
       <c r="BE20" t="n">
-        <v>35.86115264892578</v>
+        <v>27581.92556568461</v>
       </c>
       <c r="BF20" t="n">
-        <v>35861.15234375</v>
+        <v>27581925.56568461</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5321088433265686</v>
+        <v>551.3991650998593</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5492010712623596</v>
+        <v>546.368341833353</v>
       </c>
       <c r="C21" t="n">
-        <v>0.000693121924996376</v>
+        <v>631.8305236801505</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5549213886260986</v>
+        <v>528.1954932689666</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0009963763877749443</v>
+        <v>192.1544465206563</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5292242765426636</v>
+        <v>557.8451681673527</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8298922777175903</v>
+        <v>5.60365651845932</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2894136607646942</v>
+        <v>377.6873201459646</v>
       </c>
       <c r="I21" t="n">
-        <v>0.200465127825737</v>
+        <v>170.0211582630873</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8299840688705444</v>
+        <v>850.2389236450196</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8454796075820923</v>
+        <v>779.5280098319054</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8399540185928345</v>
+        <v>145.9493425369263</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8569249510765076</v>
+        <v>845.6571703970432</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8217418193817139</v>
+        <v>906.702601671219</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8434466123580933</v>
+        <v>376.652129650116</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8330550789833069</v>
+        <v>2246.181489562989</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4792722463607788</v>
+        <v>461.3742135375738</v>
       </c>
       <c r="R21" t="n">
-        <v>0.8093658089637756</v>
+        <v>0.0479158899307251</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8296425938606262</v>
+        <v>938.8374714136123</v>
       </c>
       <c r="T21" t="n">
-        <v>0.830630362033844</v>
+        <v>815.077161693573</v>
       </c>
       <c r="U21" t="n">
-        <v>0.7995863556861877</v>
+        <v>737.271808052063</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8290947079658508</v>
+        <v>784.0932940244675</v>
       </c>
       <c r="W21" t="n">
-        <v>0.8329973816871643</v>
+        <v>450.4385353207588</v>
       </c>
       <c r="X21" t="n">
-        <v>0.8410330414772034</v>
+        <v>336.8325820922851</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.8302356600761414</v>
+        <v>950.9604305028915</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.813180685043335</v>
+        <v>194.9673276126385</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.8250635266304016</v>
+        <v>35.71832871437073</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.8145224452018738</v>
+        <v>699.8721368312836</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.8159303665161133</v>
+        <v>0.1947998807191849</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.06075378879904747</v>
+        <v>154.2904454350471</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.4924392998218536</v>
+        <v>351.7146855115891</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.6322290897369385</v>
+        <v>589.5325701951981</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.7336162924766541</v>
+        <v>690.3011204957962</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.5109496712684631</v>
+        <v>564.03341011405</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.1888709366321564</v>
+        <v>156.1216847911477</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-0.09749840199947357</v>
+        <v>-13.29041679948568</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.8404948115348816</v>
+        <v>531.6949261069299</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.4211010634899139</v>
+        <v>345.9519293546677</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.04538015276193619</v>
+        <v>10.45350614488125</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.8513034582138062</v>
+        <v>668.3018315672874</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.8273113965988159</v>
+        <v>947.9287307441234</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.8515688180923462</v>
+        <v>779.2873012900352</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.8187842965126038</v>
+        <v>713.4610097527504</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.8411751389503479</v>
+        <v>109.5587391853333</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.8369138240814209</v>
+        <v>590.011492729187</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.8544518947601318</v>
+        <v>78.81814679503441</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.2416268289089203</v>
+        <v>262.4535103559494</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.8425348997116089</v>
+        <v>924.2626162171363</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.569618821144104</v>
+        <v>631.2457330286503</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.8337900042533875</v>
+        <v>126.4202789485455</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.08459943532943726</v>
+        <v>103.4998657144606</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.2845064699649811</v>
+        <v>206.8893231511116</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.786262035369873</v>
+        <v>39.77374811172486</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.8230716586112976</v>
+        <v>338.7750724554062</v>
       </c>
       <c r="BC21" t="n">
-        <v>1.058128952980042</v>
+        <v>919.8000172793866</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.8321570754051208</v>
+        <v>367.7872515976429</v>
       </c>
       <c r="BE21" t="n">
-        <v>35.7722053527832</v>
+        <v>27306.77947663282</v>
       </c>
       <c r="BF21" t="n">
-        <v>35772.20703125</v>
+        <v>27306779.47663282</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.580656111240387</v>
+        <v>514.8297860562801</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5412195324897766</v>
+        <v>548.9171502947808</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.007700921967625618</v>
+        <v>631.7837590903043</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5503383874893188</v>
+        <v>530.9948314547538</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00176792498677969</v>
+        <v>192.1754419736564</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5015789270401001</v>
+        <v>489.5334725439548</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8484063148498535</v>
+        <v>5.588978898525237</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2898543477058411</v>
+        <v>323.9825642049312</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2002334445714951</v>
+        <v>192.0218086272478</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8335191011428833</v>
+        <v>850.9710845947267</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8341466784477234</v>
+        <v>786.6368019580841</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8473114967346191</v>
+        <v>149.2700271606445</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8645223379135132</v>
+        <v>842.8331098675727</v>
       </c>
       <c r="N22" t="n">
-        <v>0.829738974571228</v>
+        <v>922.4421929359437</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8331096172332764</v>
+        <v>392.0374974727631</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8353997468948364</v>
+        <v>2246.255306053162</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4777047336101532</v>
+        <v>491.3949596345425</v>
       </c>
       <c r="R22" t="n">
-        <v>0.7998871803283691</v>
+        <v>0.04754480476379395</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8199520707130432</v>
+        <v>940.7930843532084</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8205801844596863</v>
+        <v>812.4015688300133</v>
       </c>
       <c r="U22" t="n">
-        <v>0.8193474411964417</v>
+        <v>738.3064490795135</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8318963050842285</v>
+        <v>784.9815141558647</v>
       </c>
       <c r="W22" t="n">
-        <v>0.8366402983665466</v>
+        <v>452.7346934914589</v>
       </c>
       <c r="X22" t="n">
-        <v>0.8328211903572083</v>
+        <v>333.8755905151367</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.8414550423622131</v>
+        <v>952.2546177983285</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.8268901109695435</v>
+        <v>192.1023677766323</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.8239972591400146</v>
+        <v>35.96127705574035</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.8269502520561218</v>
+        <v>695.150575375557</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.822181224822998</v>
+        <v>0.1947284519672394</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.08443011343479156</v>
+        <v>204.9043183326721</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.4517808854579926</v>
+        <v>389.2474320054055</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.6204063892364502</v>
+        <v>625.1897441685201</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.7713650465011597</v>
+        <v>690.6321569442749</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.5015094876289368</v>
+        <v>551.4958594679833</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.1752356886863708</v>
+        <v>117.5279116712511</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.1042172610759735</v>
+        <v>-0.8278918746858834</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.8291723132133484</v>
+        <v>533.4787452459336</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.4190490245819092</v>
+        <v>386.9342453330756</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.02379946038126945</v>
+        <v>5.150196534395217</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.8456674218177795</v>
+        <v>662.6316191792488</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.8314670324325562</v>
+        <v>943.6843896090984</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.8369185924530029</v>
+        <v>784.4851488232612</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.8164802193641663</v>
+        <v>710.5485613703728</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.8362321853637695</v>
+        <v>106.8286181688309</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.8387832045555115</v>
+        <v>585.5154537975789</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.8518292903900146</v>
+        <v>78.79977139234543</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.2445275038480759</v>
+        <v>247.0895228683949</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.8458070158958435</v>
+        <v>924.2433880984782</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.5826294422149658</v>
+        <v>562.1642397046089</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.8349953293800354</v>
+        <v>128.9732642829418</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.1003322750329971</v>
+        <v>52.29247873388231</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.1933614164590836</v>
+        <v>211.8772115394473</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.7860797643661499</v>
+        <v>39.29420418739319</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.8309242129325867</v>
+        <v>341.4012310862541</v>
       </c>
       <c r="BC22" t="n">
-        <v>1.08052396774292</v>
+        <v>900.394626069069</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.835692822933197</v>
+        <v>371.7990400612354</v>
       </c>
       <c r="BE22" t="n">
-        <v>35.72918701171875</v>
+        <v>27206.22827131132</v>
       </c>
       <c r="BF22" t="n">
-        <v>35729.1875</v>
+        <v>27206228.27131132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5495473146438599</v>
+        <v>592.7164285123348</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5454926490783691</v>
+        <v>539.6541198194027</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.002060014754533768</v>
+        <v>631.7718207269907</v>
       </c>
       <c r="D23" t="n">
-        <v>0.570391058921814</v>
+        <v>542.9743644833563</v>
       </c>
       <c r="E23" t="n">
-        <v>0.005865845829248428</v>
+        <v>192.1877418167889</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5205093026161194</v>
+        <v>540.2631998300552</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8456189036369324</v>
+        <v>5.599143469333648</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2902137041091919</v>
+        <v>296.1286644905805</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1934810876846313</v>
+        <v>215.9778303444386</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8326922059059143</v>
+        <v>859.2038177490235</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8368465900421143</v>
+        <v>797.3617186546326</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8424753546714783</v>
+        <v>145.7858505249023</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8667203187942505</v>
+        <v>845.3728738367556</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8323454260826111</v>
+        <v>907.2502606391907</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8389646410942078</v>
+        <v>394.7828543663026</v>
       </c>
       <c r="P23" t="n">
-        <v>0.84044349193573</v>
+        <v>2245.853064346314</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.4824426770210266</v>
+        <v>479.5267573952675</v>
       </c>
       <c r="R23" t="n">
-        <v>0.8129271268844604</v>
+        <v>0.04810489292144775</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8206132650375366</v>
+        <v>937.9018014430999</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8183161020278931</v>
+        <v>815.0613461732864</v>
       </c>
       <c r="U23" t="n">
-        <v>0.811093807220459</v>
+        <v>738.0187742948532</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8257507681846619</v>
+        <v>784.4372506737709</v>
       </c>
       <c r="W23" t="n">
-        <v>0.8304995894432068</v>
+        <v>451.0834877490997</v>
       </c>
       <c r="X23" t="n">
-        <v>0.847238302230835</v>
+        <v>333.8946197509765</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.8284100890159607</v>
+        <v>950.1244955778122</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.8155831694602966</v>
+        <v>194.0853816747665</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.8329178690910339</v>
+        <v>36.26757817268371</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.8277183771133423</v>
+        <v>699.2008902549744</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.8353243470191956</v>
+        <v>0.1952796117305756</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.09298655390739441</v>
+        <v>158.1100715756416</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.3588432371616364</v>
+        <v>282.8892402470112</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.6333237290382385</v>
+        <v>637.7869841814041</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.7500236630439758</v>
+        <v>717.7600139141083</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.5063496828079224</v>
+        <v>513.6741481482983</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.185442179441452</v>
+        <v>136.8842918902636</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-0.07938530296087265</v>
+        <v>-40.6553247332573</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.8370093107223511</v>
+        <v>536.5333059191704</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.4063272774219513</v>
+        <v>428.1088180035353</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.04234255105257034</v>
+        <v>61.39950906634331</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.8460023999214172</v>
+        <v>650.1501843094826</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.837791919708252</v>
+        <v>945.7900550842285</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.8438888192176819</v>
+        <v>791.609585738182</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.8244436383247375</v>
+        <v>714.0670605063439</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.832123875617981</v>
+        <v>109.6068724393845</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.8533108234405518</v>
+        <v>591.6283108890057</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.8387346267700195</v>
+        <v>79.00778403282166</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.2475768625736237</v>
+        <v>247.617216438055</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.8270664811134338</v>
+        <v>923.7527429401873</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.5716456174850464</v>
+        <v>582.3550575315952</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.845073401927948</v>
+        <v>130.5538915216923</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.09296862035989761</v>
+        <v>71.62935753166676</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.1822282075881958</v>
+        <v>141.8170807734132</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.7968907952308655</v>
+        <v>39.83570857048035</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.844796895980835</v>
+        <v>338.6431232690811</v>
       </c>
       <c r="BC23" t="n">
-        <v>1.063627600669861</v>
+        <v>920.5533446490765</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.8453448414802551</v>
+        <v>368.5997230231762</v>
       </c>
       <c r="BE23" t="n">
-        <v>35.72516250610352</v>
+        <v>27252.43767873604</v>
       </c>
       <c r="BF23" t="n">
-        <v>35725.1640625</v>
+        <v>27252437.67873604</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5371835827827454</v>
+        <v>543.9286776959896</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5378953814506531</v>
+        <v>518.6428381443023</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.00285613164305687</v>
+        <v>631.8214019156992</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5567765831947327</v>
+        <v>595.4771737933158</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.003287940053269267</v>
+        <v>192.2493848063052</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5203577876091003</v>
+        <v>621.3853941261768</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8435219526290894</v>
+        <v>5.556757485866546</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2689989507198334</v>
+        <v>273.3115327596664</v>
       </c>
       <c r="I24" t="n">
-        <v>0.179632306098938</v>
+        <v>191.370191988349</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8325668573379517</v>
+        <v>849.7192749023438</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8459722399711609</v>
+        <v>789.4276022315025</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8465949296951294</v>
+        <v>149.8622846603394</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8528338670730591</v>
+        <v>841.8748376667498</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8322375416755676</v>
+        <v>906.0259036064149</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8488462567329407</v>
+        <v>403.20741584301</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8429563641548157</v>
+        <v>2244.153085327149</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4725975394248962</v>
+        <v>472.1559195876122</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8188493251800537</v>
+        <v>0.04804579753875732</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8355529308319092</v>
+        <v>934.7296206891536</v>
       </c>
       <c r="T24" t="n">
-        <v>0.816825270652771</v>
+        <v>814.9491859912872</v>
       </c>
       <c r="U24" t="n">
-        <v>0.8189218044281006</v>
+        <v>738.6062422633171</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8350926041603088</v>
+        <v>785.595122218132</v>
       </c>
       <c r="W24" t="n">
-        <v>0.8448131084442139</v>
+        <v>451.3921153187752</v>
       </c>
       <c r="X24" t="n">
-        <v>0.8304509520530701</v>
+        <v>334.3539276123047</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.8367134928703308</v>
+        <v>950.1162596464158</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.816603422164917</v>
+        <v>193.9886183023453</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.836726188659668</v>
+        <v>36.04654603004455</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.8204552531242371</v>
+        <v>698.6699868679048</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.8285813331604004</v>
+        <v>0.1949304071187973</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.09714409708976746</v>
+        <v>180.2841257572174</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.3299975395202637</v>
+        <v>305.5688763827086</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.6494009494781494</v>
+        <v>677.0868928611279</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.7331349849700928</v>
+        <v>776.1363434553147</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.5169759392738342</v>
+        <v>516.8005740523339</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.1793036758899689</v>
+        <v>95.43202255740763</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.09287595748901367</v>
+        <v>-37.22116545289755</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.8318242430686951</v>
+        <v>534.1734310388565</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.4093945026397705</v>
+        <v>412.5668918907643</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.02515123039484024</v>
+        <v>36.62027764618397</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.8378920555114746</v>
+        <v>673.4380139589309</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.8342180252075195</v>
+        <v>949.090462732315</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.8355176448822021</v>
+        <v>797.3353969097137</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.8124893307685852</v>
+        <v>712.1599353909493</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.8288558125495911</v>
+        <v>104.7754940986633</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.8390886187553406</v>
+        <v>586.5125341713428</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.8502659797668457</v>
+        <v>79.87431115508079</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.2529172301292419</v>
+        <v>174.2620744556189</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.8528020977973938</v>
+        <v>921.971045911312</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.5719457864761353</v>
+        <v>616.9587919831276</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.8325332999229431</v>
+        <v>127.7911865711212</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.09636805951595306</v>
+        <v>124.2558599591255</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.139725998044014</v>
+        <v>109.2611355721951</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.7943210005760193</v>
+        <v>39.47012133598328</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.8323660492897034</v>
+        <v>341.4545677781105</v>
       </c>
       <c r="BC24" t="n">
-        <v>1.064268112182617</v>
+        <v>886.6613608419896</v>
       </c>
       <c r="BD24" t="n">
-        <v>0.8413865566253662</v>
+        <v>368.5969512581825</v>
       </c>
       <c r="BE24" t="n">
-        <v>35.548828125</v>
+        <v>27280.17779195791</v>
       </c>
       <c r="BF24" t="n">
-        <v>35548.828125</v>
+        <v>27280177.79195791</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5693851113319397</v>
+        <v>576.9579226016998</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5627368092536926</v>
+        <v>570.5862197220325</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.00165734114125371</v>
+        <v>631.8256150774657</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5388002395629883</v>
+        <v>569.4384087681769</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.003372866660356522</v>
+        <v>192.2323146432638</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5339151620864868</v>
+        <v>571.19504622221</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8513584136962891</v>
+        <v>5.604046475887298</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2951990365982056</v>
+        <v>362.0010649085045</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1945145130157471</v>
+        <v>175.3184895694256</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8248867988586426</v>
+        <v>854.0961868286133</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8364083170890808</v>
+        <v>786.9677128195763</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8371707797050476</v>
+        <v>146.9900533676148</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8602266311645508</v>
+        <v>847.3547901391983</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8163187503814697</v>
+        <v>917.3781988620759</v>
       </c>
       <c r="O25" t="n">
-        <v>0.845499575138092</v>
+        <v>387.0224087238312</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8318037986755371</v>
+        <v>2250.559797859192</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4770047962665558</v>
+        <v>460.9030956834555</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8052908182144165</v>
+        <v>0.04784107131958008</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8247137665748596</v>
+        <v>947.3661595165729</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8300091028213501</v>
+        <v>815.4952417612076</v>
       </c>
       <c r="U25" t="n">
-        <v>0.8210229873657227</v>
+        <v>737.0672291755676</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8342714309692383</v>
+        <v>782.6695275902748</v>
       </c>
       <c r="W25" t="n">
-        <v>0.8394988179206848</v>
+        <v>451.3516521096229</v>
       </c>
       <c r="X25" t="n">
-        <v>0.837952196598053</v>
+        <v>333.520198059082</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.8222029209136963</v>
+        <v>951.7302978157998</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.8278070092201233</v>
+        <v>193.3540516078472</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.8242635726928711</v>
+        <v>36.93078200817108</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.8366712927818298</v>
+        <v>692.4163266181946</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.811060905456543</v>
+        <v>0.1945210806846619</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.1314037293195724</v>
+        <v>172.6030793786049</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.2934462130069733</v>
+        <v>307.6761577099562</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.6592278480529785</v>
+        <v>693.1152233242989</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.7786421775817871</v>
+        <v>752.8082971334458</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.5133591294288635</v>
+        <v>584.3343142211438</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.1893520951271057</v>
+        <v>178.110287937522</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-0.07149740308523178</v>
+        <v>17.09196834564209</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.8371651768684387</v>
+        <v>537.2195391893388</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.4015647768974304</v>
+        <v>368.0163417607546</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.06104480475187302</v>
+        <v>64.7034954637289</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.8492087125778198</v>
+        <v>687.3481459140778</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.8352795243263245</v>
+        <v>954.4211367249488</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.8356349468231201</v>
+        <v>790.8948549628258</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.8222323060035706</v>
+        <v>713.2668148040772</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.8315954804420471</v>
+        <v>107.0140581130982</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.8305068016052246</v>
+        <v>586.9277024686337</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.8473020195960999</v>
+        <v>79.16508722305298</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.2465315461158752</v>
+        <v>243.3987220078707</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.8430686593055725</v>
+        <v>923.2375436484813</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.5746939778327942</v>
+        <v>648.9461655437947</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.8394149541854858</v>
+        <v>127.8843606650829</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.08615398406982422</v>
+        <v>121.0476925820112</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0.08319699764251709</v>
+        <v>99.49026652202011</v>
       </c>
       <c r="BA25" t="n">
-        <v>0.7747266292572021</v>
+        <v>39.77523584365845</v>
       </c>
       <c r="BB25" t="n">
-        <v>0.8264979124069214</v>
+        <v>340.1893257498741</v>
       </c>
       <c r="BC25" t="n">
-        <v>1.044721961021423</v>
+        <v>847.3843975126744</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.8368765711784363</v>
+        <v>365.8607290446758</v>
       </c>
       <c r="BE25" t="n">
-        <v>35.5863151550293</v>
+        <v>27600.50614448186</v>
       </c>
       <c r="BF25" t="n">
-        <v>35586.31640625</v>
+        <v>27600506.14448186</v>
       </c>
     </row>
   </sheetData>

--- a/load/predict_for_0901.xlsx
+++ b/load/predict_for_0901.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF25"/>
+  <dimension ref="A1:BE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,4237 +716,4160 @@
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>total(MVH)</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>total(KVH)</t>
+          <t>total(KW)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>535.9914634466171</v>
+        <v>2294.159316647053</v>
       </c>
       <c r="B2" t="n">
-        <v>589.3009600162507</v>
+        <v>2263.802852702141</v>
       </c>
       <c r="C2" t="n">
-        <v>631.8293849371373</v>
+        <v>-0.001096896827220917</v>
       </c>
       <c r="D2" t="n">
-        <v>566.951775920391</v>
+        <v>2257.504307073355</v>
       </c>
       <c r="E2" t="n">
-        <v>192.2572558678687</v>
+        <v>0.002491779625415802</v>
       </c>
       <c r="F2" t="n">
-        <v>473.4088176786899</v>
+        <v>2261.433450713754</v>
       </c>
       <c r="G2" t="n">
-        <v>5.573229217529296</v>
+        <v>747.2035542249679</v>
       </c>
       <c r="H2" t="n">
-        <v>191.8074893251061</v>
+        <v>932.1949510097504</v>
       </c>
       <c r="I2" t="n">
-        <v>183.9844634711743</v>
+        <v>250.6232777714729</v>
       </c>
       <c r="J2" t="n">
-        <v>851.1484985351564</v>
+        <v>151.6189607858658</v>
       </c>
       <c r="K2" t="n">
-        <v>790.8108677864075</v>
+        <v>77.86707733273506</v>
       </c>
       <c r="L2" t="n">
-        <v>144.3641338348389</v>
+        <v>64.57215671539306</v>
       </c>
       <c r="M2" t="n">
-        <v>841.1915239810943</v>
+        <v>67.59887444972991</v>
       </c>
       <c r="N2" t="n">
-        <v>920.1936275959016</v>
+        <v>191.9715583801269</v>
       </c>
       <c r="O2" t="n">
-        <v>386.9230234384537</v>
+        <v>330.1613771796227</v>
       </c>
       <c r="P2" t="n">
-        <v>2246.628965568543</v>
+        <v>34.20339831113815</v>
       </c>
       <c r="Q2" t="n">
-        <v>542.3513479292393</v>
+        <v>539.0565530657768</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04708207054138184</v>
+        <v>-1.815343905519694</v>
       </c>
       <c r="S2" t="n">
-        <v>938.1060452163218</v>
+        <v>105.8730230689049</v>
       </c>
       <c r="T2" t="n">
-        <v>816.6080064177513</v>
+        <v>35.49678158760071</v>
       </c>
       <c r="U2" t="n">
-        <v>736.0371711492538</v>
+        <v>40.01455169320106</v>
       </c>
       <c r="V2" t="n">
-        <v>783.2752506732941</v>
+        <v>43.13060505390168</v>
       </c>
       <c r="W2" t="n">
-        <v>451.5019329130649</v>
+        <v>30.41386850476265</v>
       </c>
       <c r="X2" t="n">
-        <v>332.7896209716797</v>
+        <v>26.37866487503052</v>
       </c>
       <c r="Y2" t="n">
-        <v>949.5841336965561</v>
+        <v>20.72509080171585</v>
       </c>
       <c r="Z2" t="n">
-        <v>197.8554368495941</v>
+        <v>51.27823219299316</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.55198850631714</v>
+        <v>17.62158234417439</v>
       </c>
       <c r="AB2" t="n">
-        <v>692.2905965805054</v>
+        <v>55.81735301017761</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1933553997039795</v>
+        <v>17.87920555099845</v>
       </c>
       <c r="AD2" t="n">
-        <v>153.8940045237541</v>
+        <v>3520.372787186504</v>
       </c>
       <c r="AE2" t="n">
-        <v>740.9684847712517</v>
+        <v>2211.738517892361</v>
       </c>
       <c r="AF2" t="n">
-        <v>680.8540891587735</v>
+        <v>1336.526722735166</v>
       </c>
       <c r="AG2" t="n">
-        <v>580.3770919799805</v>
+        <v>2209.469001734257</v>
       </c>
       <c r="AH2" t="n">
-        <v>601.9472694754601</v>
+        <v>1357.726892340183</v>
       </c>
       <c r="AI2" t="n">
-        <v>-14.85448107197881</v>
+        <v>1818.262017655373</v>
       </c>
       <c r="AJ2" t="n">
-        <v>350.2622772455215</v>
+        <v>424.0538891285658</v>
       </c>
       <c r="AK2" t="n">
-        <v>532.4413164973259</v>
+        <v>152.9965836703777</v>
       </c>
       <c r="AL2" t="n">
-        <v>458.0020373165608</v>
+        <v>427.4104392766952</v>
       </c>
       <c r="AM2" t="n">
-        <v>87.78970857858657</v>
+        <v>413.3449374139309</v>
       </c>
       <c r="AN2" t="n">
-        <v>660.1232773900032</v>
+        <v>471.4923814833164</v>
       </c>
       <c r="AO2" t="n">
-        <v>950.1561801314353</v>
+        <v>121.1633911460638</v>
       </c>
       <c r="AP2" t="n">
-        <v>793.7221230030059</v>
+        <v>250.4414295911789</v>
       </c>
       <c r="AQ2" t="n">
-        <v>709.9071485161782</v>
+        <v>30.77041484117508</v>
       </c>
       <c r="AR2" t="n">
-        <v>104.7564732789993</v>
+        <v>51.10513295978308</v>
       </c>
       <c r="AS2" t="n">
-        <v>591.0733423352242</v>
+        <v>-4.956061070412398</v>
       </c>
       <c r="AT2" t="n">
-        <v>79.31111115217209</v>
+        <v>0.2883796796202659</v>
       </c>
       <c r="AU2" t="n">
-        <v>297.4211202800274</v>
+        <v>321.0595647573471</v>
       </c>
       <c r="AV2" t="n">
-        <v>924.0851567983626</v>
+        <v>60.27742500305175</v>
       </c>
       <c r="AW2" t="n">
-        <v>584.3047306418418</v>
+        <v>797.9789747208357</v>
       </c>
       <c r="AX2" t="n">
-        <v>128.3030419051647</v>
+        <v>36.43705794811249</v>
       </c>
       <c r="AY2" t="n">
-        <v>91.22357227355242</v>
+        <v>125.2265033960342</v>
       </c>
       <c r="AZ2" t="n">
-        <v>727.1549650669098</v>
+        <v>105.6495678901672</v>
       </c>
       <c r="BA2" t="n">
-        <v>39.44438285827637</v>
+        <v>13.36291127800941</v>
       </c>
       <c r="BB2" t="n">
-        <v>337.4650270581245</v>
+        <v>38.9168714761734</v>
       </c>
       <c r="BC2" t="n">
-        <v>854.5840377748012</v>
+        <v>84.09460694640876</v>
       </c>
       <c r="BD2" t="n">
-        <v>360.2549422979355</v>
+        <v>60.27697373032569</v>
       </c>
       <c r="BE2" t="n">
-        <v>28433.52988023223</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>28433529.88023223</v>
+        <v>29342.27399083422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>524.8553930640221</v>
+        <v>2216.572426688671</v>
       </c>
       <c r="B3" t="n">
-        <v>522.3738545715809</v>
+        <v>2206.758875828981</v>
       </c>
       <c r="C3" t="n">
-        <v>631.7711478836834</v>
+        <v>-0.0009318366646766663</v>
       </c>
       <c r="D3" t="n">
-        <v>498.0735708475112</v>
+        <v>2178.4133235991</v>
       </c>
       <c r="E3" t="n">
-        <v>192.1770340956747</v>
+        <v>-0.001992076635360718</v>
       </c>
       <c r="F3" t="n">
-        <v>507.8696901321411</v>
+        <v>2149.024545389414</v>
       </c>
       <c r="G3" t="n">
-        <v>5.5729332447052</v>
+        <v>735.7334905147552</v>
       </c>
       <c r="H3" t="n">
-        <v>227.5358639836311</v>
+        <v>926.1685311555863</v>
       </c>
       <c r="I3" t="n">
-        <v>210.700760564208</v>
+        <v>242.4711427599192</v>
       </c>
       <c r="J3" t="n">
-        <v>857.1841186523438</v>
+        <v>141.3442940294743</v>
       </c>
       <c r="K3" t="n">
-        <v>785.5607442855835</v>
+        <v>73.33472368270159</v>
       </c>
       <c r="L3" t="n">
-        <v>149.2436754226685</v>
+        <v>65.06107597351074</v>
       </c>
       <c r="M3" t="n">
-        <v>844.4738691806792</v>
+        <v>58.05720899105071</v>
       </c>
       <c r="N3" t="n">
-        <v>909.9324066638948</v>
+        <v>189.6512420892715</v>
       </c>
       <c r="O3" t="n">
-        <v>371.2100593328477</v>
+        <v>318.7112381100655</v>
       </c>
       <c r="P3" t="n">
-        <v>2246.191984558106</v>
+        <v>32.9058506205678</v>
       </c>
       <c r="Q3" t="n">
-        <v>471.2612841784954</v>
+        <v>534.3359068632126</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04772129268646241</v>
+        <v>0.3219834744930267</v>
       </c>
       <c r="S3" t="n">
-        <v>934.7253737747668</v>
+        <v>96.7652415394783</v>
       </c>
       <c r="T3" t="n">
-        <v>816.1099585056305</v>
+        <v>32.96516740322113</v>
       </c>
       <c r="U3" t="n">
-        <v>737.968172454834</v>
+        <v>37.45038238167763</v>
       </c>
       <c r="V3" t="n">
-        <v>784.0591343045235</v>
+        <v>44.50725301504135</v>
       </c>
       <c r="W3" t="n">
-        <v>453.6162889957428</v>
+        <v>30.08970725536346</v>
       </c>
       <c r="X3" t="n">
-        <v>334.6287307739258</v>
+        <v>24.99600818157196</v>
       </c>
       <c r="Y3" t="n">
-        <v>950.6339681744576</v>
+        <v>20.03406688570976</v>
       </c>
       <c r="Z3" t="n">
-        <v>190.3620920062065</v>
+        <v>50.3111439704895</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.00675706863403</v>
+        <v>17.3799696803093</v>
       </c>
       <c r="AB3" t="n">
-        <v>699.6276417255402</v>
+        <v>51.43160099983215</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1946217881202698</v>
+        <v>18.05899799317122</v>
       </c>
       <c r="AD3" t="n">
-        <v>175.1502561569214</v>
+        <v>3402.295703458786</v>
       </c>
       <c r="AE3" t="n">
-        <v>766.0539019823075</v>
+        <v>2155.262908121943</v>
       </c>
       <c r="AF3" t="n">
-        <v>596.8142283439637</v>
+        <v>1306.112465202808</v>
       </c>
       <c r="AG3" t="n">
-        <v>647.2474658250809</v>
+        <v>2149.464554519951</v>
       </c>
       <c r="AH3" t="n">
-        <v>563.8698294818402</v>
+        <v>1302.09500991106</v>
       </c>
       <c r="AI3" t="n">
-        <v>115.1350487723947</v>
+        <v>1747.934133577347</v>
       </c>
       <c r="AJ3" t="n">
-        <v>257.9305027723312</v>
+        <v>412.7574707672</v>
       </c>
       <c r="AK3" t="n">
-        <v>536.359844994545</v>
+        <v>138.4708306342363</v>
       </c>
       <c r="AL3" t="n">
-        <v>407.4907848984004</v>
+        <v>421.3683820128441</v>
       </c>
       <c r="AM3" t="n">
-        <v>69.3098586320877</v>
+        <v>403.2578759789467</v>
       </c>
       <c r="AN3" t="n">
-        <v>652.9774834156036</v>
+        <v>465.2910732507705</v>
       </c>
       <c r="AO3" t="n">
-        <v>948.840850251913</v>
+        <v>113.1378021642566</v>
       </c>
       <c r="AP3" t="n">
-        <v>768.259301495552</v>
+        <v>237.9739070892334</v>
       </c>
       <c r="AQ3" t="n">
-        <v>712.8113773226738</v>
+        <v>27.75992126464844</v>
       </c>
       <c r="AR3" t="n">
-        <v>101.1564190149307</v>
+        <v>50.89126509279013</v>
       </c>
       <c r="AS3" t="n">
-        <v>587.2529226899147</v>
+        <v>-9.243543531373144</v>
       </c>
       <c r="AT3" t="n">
-        <v>79.88047025799752</v>
+        <v>-1.089115191623568</v>
       </c>
       <c r="AU3" t="n">
-        <v>277.5444737792015</v>
+        <v>302.5001960515976</v>
       </c>
       <c r="AV3" t="n">
-        <v>923.7685736596584</v>
+        <v>54.40177364349365</v>
       </c>
       <c r="AW3" t="n">
-        <v>527.6213189959526</v>
+        <v>784.799406054616</v>
       </c>
       <c r="AX3" t="n">
-        <v>127.1968757152557</v>
+        <v>35.46483111083508</v>
       </c>
       <c r="AY3" t="n">
-        <v>113.9269013792276</v>
+        <v>123.8403422862291</v>
       </c>
       <c r="AZ3" t="n">
-        <v>739.9014548778534</v>
+        <v>101.9260838150978</v>
       </c>
       <c r="BA3" t="n">
-        <v>39.10235686302185</v>
+        <v>12.03878488540649</v>
       </c>
       <c r="BB3" t="n">
-        <v>338.6593954801559</v>
+        <v>37.18885416164994</v>
       </c>
       <c r="BC3" t="n">
-        <v>826.3654315233231</v>
+        <v>76.78712474927308</v>
       </c>
       <c r="BD3" t="n">
-        <v>364.9027370393276</v>
+        <v>61.21970337629318</v>
       </c>
       <c r="BE3" t="n">
-        <v>28160.49891714828</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>28160498.91714828</v>
+        <v>28406.76021962166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>578.9487903475762</v>
+        <v>2156.460673773289</v>
       </c>
       <c r="B4" t="n">
-        <v>517.6981911063194</v>
+        <v>2157.263134282827</v>
       </c>
       <c r="C4" t="n">
-        <v>631.8134728886187</v>
+        <v>-0.008163560181856155</v>
       </c>
       <c r="D4" t="n">
-        <v>538.4261993587016</v>
+        <v>2126.448920154571</v>
       </c>
       <c r="E4" t="n">
-        <v>192.1630028679967</v>
+        <v>-0.0003442689776420593</v>
       </c>
       <c r="F4" t="n">
-        <v>542.055331325531</v>
+        <v>2118.650360302627</v>
       </c>
       <c r="G4" t="n">
-        <v>5.619719338417053</v>
+        <v>704.2971343159675</v>
       </c>
       <c r="H4" t="n">
-        <v>298.5267795413732</v>
+        <v>899.1604101896287</v>
       </c>
       <c r="I4" t="n">
-        <v>216.3892883062363</v>
+        <v>241.3123756229878</v>
       </c>
       <c r="J4" t="n">
-        <v>846.2116271972657</v>
+        <v>128.4142713129521</v>
       </c>
       <c r="K4" t="n">
-        <v>782.4454627037048</v>
+        <v>62.90110945776106</v>
       </c>
       <c r="L4" t="n">
-        <v>145.5694387435913</v>
+        <v>64.77208395004273</v>
       </c>
       <c r="M4" t="n">
-        <v>850.0272358894347</v>
+        <v>49.67842446565627</v>
       </c>
       <c r="N4" t="n">
-        <v>899.2380044460298</v>
+        <v>190.2739395022392</v>
       </c>
       <c r="O4" t="n">
-        <v>385.8461905479431</v>
+        <v>319.4354495286942</v>
       </c>
       <c r="P4" t="n">
-        <v>2248.011909484863</v>
+        <v>33.34237788468599</v>
       </c>
       <c r="Q4" t="n">
-        <v>465.724219596386</v>
+        <v>515.8412571847439</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04812733001708985</v>
+        <v>3.270022622868419</v>
       </c>
       <c r="S4" t="n">
-        <v>933.8321638345718</v>
+        <v>90.75064733028411</v>
       </c>
       <c r="T4" t="n">
-        <v>816.036279797554</v>
+        <v>28.94341146945953</v>
       </c>
       <c r="U4" t="n">
-        <v>738.5108096241951</v>
+        <v>37.12170379757881</v>
       </c>
       <c r="V4" t="n">
-        <v>785.2369414567947</v>
+        <v>42.76143127679825</v>
       </c>
       <c r="W4" t="n">
-        <v>451.1441736698151</v>
+        <v>28.23901160359382</v>
       </c>
       <c r="X4" t="n">
-        <v>333.7260757446289</v>
+        <v>20.64786372482777</v>
       </c>
       <c r="Y4" t="n">
-        <v>951.0048303484917</v>
+        <v>18.69467047452927</v>
       </c>
       <c r="Z4" t="n">
-        <v>192.5312172353267</v>
+        <v>50.85273466110229</v>
       </c>
       <c r="AA4" t="n">
-        <v>36.64002718925476</v>
+        <v>14.93887917101383</v>
       </c>
       <c r="AB4" t="n">
-        <v>698.3277117490769</v>
+        <v>46.99661979675293</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1939878178358078</v>
+        <v>18.21345005854964</v>
       </c>
       <c r="AD4" t="n">
-        <v>162.5064771056175</v>
+        <v>3326.799248510599</v>
       </c>
       <c r="AE4" t="n">
-        <v>735.9655682265759</v>
+        <v>2121.738239973783</v>
       </c>
       <c r="AF4" t="n">
-        <v>570.0748762607575</v>
+        <v>1276.324883550405</v>
       </c>
       <c r="AG4" t="n">
-        <v>591.0134447574616</v>
+        <v>2131.65600746274</v>
       </c>
       <c r="AH4" t="n">
-        <v>501.2736290216446</v>
+        <v>1278.598404753208</v>
       </c>
       <c r="AI4" t="n">
-        <v>88.88603673428298</v>
+        <v>1739.862423345447</v>
       </c>
       <c r="AJ4" t="n">
-        <v>202.4999198436737</v>
+        <v>395.2595754221082</v>
       </c>
       <c r="AK4" t="n">
-        <v>530.3689431786538</v>
+        <v>135.4512329846621</v>
       </c>
       <c r="AL4" t="n">
-        <v>406.0711004674435</v>
+        <v>419.4009239733219</v>
       </c>
       <c r="AM4" t="n">
-        <v>55.07130537927151</v>
+        <v>399.730347186327</v>
       </c>
       <c r="AN4" t="n">
-        <v>642.2403450608253</v>
+        <v>458.2393023580312</v>
       </c>
       <c r="AO4" t="n">
-        <v>950.8594981312751</v>
+        <v>105.6043844640255</v>
       </c>
       <c r="AP4" t="n">
-        <v>776.6909490704536</v>
+        <v>230.7147747397423</v>
       </c>
       <c r="AQ4" t="n">
-        <v>711.7396018147468</v>
+        <v>30.46441949605942</v>
       </c>
       <c r="AR4" t="n">
-        <v>106.5200671672821</v>
+        <v>50.08937201052905</v>
       </c>
       <c r="AS4" t="n">
-        <v>586.8161003112793</v>
+        <v>3.907499708980322</v>
       </c>
       <c r="AT4" t="n">
-        <v>79.16697372794151</v>
+        <v>-0.7796314642764627</v>
       </c>
       <c r="AU4" t="n">
-        <v>293.4508146464825</v>
+        <v>274.1793664693832</v>
       </c>
       <c r="AV4" t="n">
-        <v>924.2138963520526</v>
+        <v>46.29317512512207</v>
       </c>
       <c r="AW4" t="n">
-        <v>564.3173201918602</v>
+        <v>788.1181210368873</v>
       </c>
       <c r="AX4" t="n">
-        <v>129.4059010028839</v>
+        <v>32.30517920851707</v>
       </c>
       <c r="AY4" t="n">
-        <v>91.44055618345737</v>
+        <v>122.385585179925</v>
       </c>
       <c r="AZ4" t="n">
-        <v>739.3632191598415</v>
+        <v>100.5569678723812</v>
       </c>
       <c r="BA4" t="n">
-        <v>39.84065170288086</v>
+        <v>11.14590872526169</v>
       </c>
       <c r="BB4" t="n">
-        <v>338.2205114841461</v>
+        <v>35.9363126270473</v>
       </c>
       <c r="BC4" t="n">
-        <v>786.507857811451</v>
+        <v>73.37123668566348</v>
       </c>
       <c r="BD4" t="n">
-        <v>367.1911529004574</v>
+        <v>57.34558537602424</v>
       </c>
       <c r="BE4" t="n">
-        <v>28053.66392718225</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>28053663.92718225</v>
+        <v>27814.37270686878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>505.3892100453377</v>
+        <v>2095.11016536951</v>
       </c>
       <c r="B5" t="n">
-        <v>545.1338585555553</v>
+        <v>2118.972176504135</v>
       </c>
       <c r="C5" t="n">
-        <v>631.8015048719942</v>
+        <v>0.002144128084182739</v>
       </c>
       <c r="D5" t="n">
-        <v>476.0653393775224</v>
+        <v>2092.988779857755</v>
       </c>
       <c r="E5" t="n">
-        <v>192.2065394602716</v>
+        <v>0.0006067641079425812</v>
       </c>
       <c r="F5" t="n">
-        <v>499.1566454499959</v>
+        <v>2087.866415722668</v>
       </c>
       <c r="G5" t="n">
-        <v>5.564171969890594</v>
+        <v>726.9996326208114</v>
       </c>
       <c r="H5" t="n">
-        <v>300.631337159872</v>
+        <v>893.2605713367462</v>
       </c>
       <c r="I5" t="n">
-        <v>211.9296966135502</v>
+        <v>231.2161975711584</v>
       </c>
       <c r="J5" t="n">
-        <v>838.7499557495117</v>
+        <v>117.6933140933514</v>
       </c>
       <c r="K5" t="n">
-        <v>786.7800658345222</v>
+        <v>63.89602096602322</v>
       </c>
       <c r="L5" t="n">
-        <v>147.1794542312622</v>
+        <v>62.92692403793335</v>
       </c>
       <c r="M5" t="n">
-        <v>845.5746750235556</v>
+        <v>45.26874533295631</v>
       </c>
       <c r="N5" t="n">
-        <v>919.9935121536256</v>
+        <v>187.4533943891525</v>
       </c>
       <c r="O5" t="n">
-        <v>379.016244673729</v>
+        <v>319.0592630982399</v>
       </c>
       <c r="P5" t="n">
-        <v>2247.222211837769</v>
+        <v>31.89761413484812</v>
       </c>
       <c r="Q5" t="n">
-        <v>455.891540786624</v>
+        <v>515.6453332424164</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04820666236877442</v>
+        <v>4.351577803865075</v>
       </c>
       <c r="S5" t="n">
-        <v>933.2462992608547</v>
+        <v>84.91996095180511</v>
       </c>
       <c r="T5" t="n">
-        <v>815.6373099327087</v>
+        <v>27.0869996547699</v>
       </c>
       <c r="U5" t="n">
-        <v>737.1070363759994</v>
+        <v>33.68125786781311</v>
       </c>
       <c r="V5" t="n">
-        <v>785.2272479534149</v>
+        <v>42.06413139104843</v>
       </c>
       <c r="W5" t="n">
-        <v>452.5086064219475</v>
+        <v>25.28149605095386</v>
       </c>
       <c r="X5" t="n">
-        <v>333.9953125</v>
+        <v>17.5297227665782</v>
       </c>
       <c r="Y5" t="n">
-        <v>950.9314760565758</v>
+        <v>17.95509324073792</v>
       </c>
       <c r="Z5" t="n">
-        <v>192.8863533318043</v>
+        <v>48.77364406585693</v>
       </c>
       <c r="AA5" t="n">
-        <v>36.75267119407653</v>
+        <v>14.46204830110073</v>
       </c>
       <c r="AB5" t="n">
-        <v>691.7028679609299</v>
+        <v>42.20854516029357</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1942579723596573</v>
+        <v>17.52364142686129</v>
       </c>
       <c r="AD5" t="n">
-        <v>123.009283220768</v>
+        <v>3265.863066130877</v>
       </c>
       <c r="AE5" t="n">
-        <v>776.014875215292</v>
+        <v>2091.096919846535</v>
       </c>
       <c r="AF5" t="n">
-        <v>612.1280659019948</v>
+        <v>1241.601399064064</v>
       </c>
       <c r="AG5" t="n">
-        <v>686.7696486473084</v>
+        <v>2089.497708709538</v>
       </c>
       <c r="AH5" t="n">
-        <v>570.747418820858</v>
+        <v>1238.185319638252</v>
       </c>
       <c r="AI5" t="n">
-        <v>41.25325699150563</v>
+        <v>1708.246703098714</v>
       </c>
       <c r="AJ5" t="n">
-        <v>128.5357152938843</v>
+        <v>391.8790167450905</v>
       </c>
       <c r="AK5" t="n">
-        <v>522.5666541576386</v>
+        <v>132.7067862600088</v>
       </c>
       <c r="AL5" t="n">
-        <v>378.2182213127614</v>
+        <v>412.5156186461448</v>
       </c>
       <c r="AM5" t="n">
-        <v>106.2095457613468</v>
+        <v>399.0081323087215</v>
       </c>
       <c r="AN5" t="n">
-        <v>628.1455712795257</v>
+        <v>450.694282490015</v>
       </c>
       <c r="AO5" t="n">
-        <v>942.3133979916572</v>
+        <v>109.1659502923489</v>
       </c>
       <c r="AP5" t="n">
-        <v>778.1216395020484</v>
+        <v>226.6865290880203</v>
       </c>
       <c r="AQ5" t="n">
-        <v>710.929467868805</v>
+        <v>31.10792936086655</v>
       </c>
       <c r="AR5" t="n">
-        <v>103.2709040880203</v>
+        <v>51.50107562541962</v>
       </c>
       <c r="AS5" t="n">
-        <v>585.813270944357</v>
+        <v>0.01750359311699867</v>
       </c>
       <c r="AT5" t="n">
-        <v>79.745690792799</v>
+        <v>-0.8110493227839469</v>
       </c>
       <c r="AU5" t="n">
-        <v>247.861725383997</v>
+        <v>250.697673201561</v>
       </c>
       <c r="AV5" t="n">
-        <v>922.2172033309936</v>
+        <v>41.07385902404785</v>
       </c>
       <c r="AW5" t="n">
-        <v>598.3974965631962</v>
+        <v>790.1462287425995</v>
       </c>
       <c r="AX5" t="n">
-        <v>126.4386448204517</v>
+        <v>32.20734436959028</v>
       </c>
       <c r="AY5" t="n">
-        <v>150.0339745864272</v>
+        <v>121.6671158060431</v>
       </c>
       <c r="AZ5" t="n">
-        <v>720.6978052139282</v>
+        <v>99.015113645792</v>
       </c>
       <c r="BA5" t="n">
-        <v>39.53931803703308</v>
+        <v>5.79747892320156</v>
       </c>
       <c r="BB5" t="n">
-        <v>337.7817690253258</v>
+        <v>35.41592749878764</v>
       </c>
       <c r="BC5" t="n">
-        <v>825.8909067988396</v>
+        <v>61.68121968656779</v>
       </c>
       <c r="BD5" t="n">
-        <v>368.4357570767402</v>
+        <v>56.67835361808537</v>
       </c>
       <c r="BE5" t="n">
-        <v>28029.61083804513</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>28029610.83804514</v>
+        <v>27299.43862394281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>566.3552628338336</v>
+        <v>2068.026423335075</v>
       </c>
       <c r="B6" t="n">
-        <v>572.1575751125813</v>
+        <v>2056.696958553791</v>
       </c>
       <c r="C6" t="n">
-        <v>631.8085115786641</v>
+        <v>-0.006422381848096848</v>
       </c>
       <c r="D6" t="n">
-        <v>612.7193291902541</v>
+        <v>2040.660263210535</v>
       </c>
       <c r="E6" t="n">
-        <v>192.1643662571907</v>
+        <v>-0.005561405792832375</v>
       </c>
       <c r="F6" t="n">
-        <v>585.0693473815918</v>
+        <v>2029.066316713393</v>
       </c>
       <c r="G6" t="n">
-        <v>5.538688015937804</v>
+        <v>710.8359399795531</v>
       </c>
       <c r="H6" t="n">
-        <v>222.5824209421873</v>
+        <v>885.496683216095</v>
       </c>
       <c r="I6" t="n">
-        <v>217.3216760635376</v>
+        <v>226.120998197794</v>
       </c>
       <c r="J6" t="n">
-        <v>849.4480163574219</v>
+        <v>110.7471962451935</v>
       </c>
       <c r="K6" t="n">
-        <v>793.6809818744659</v>
+        <v>83.16704027056694</v>
       </c>
       <c r="L6" t="n">
-        <v>146.4503345489502</v>
+        <v>63.31949100494384</v>
       </c>
       <c r="M6" t="n">
-        <v>843.7583247184753</v>
+        <v>42.6664923608303</v>
       </c>
       <c r="N6" t="n">
-        <v>897.8810137271881</v>
+        <v>185.1388205528259</v>
       </c>
       <c r="O6" t="n">
-        <v>380.6916359901429</v>
+        <v>316.1316609621048</v>
       </c>
       <c r="P6" t="n">
-        <v>2245.477705192566</v>
+        <v>30.28918260782957</v>
       </c>
       <c r="Q6" t="n">
-        <v>479.9307046145201</v>
+        <v>511.9033418178558</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04758138580322266</v>
+        <v>3.028741469979286</v>
       </c>
       <c r="S6" t="n">
-        <v>938.5995621860027</v>
+        <v>82.97764292955398</v>
       </c>
       <c r="T6" t="n">
-        <v>815.0254310011863</v>
+        <v>29.57581663131714</v>
       </c>
       <c r="U6" t="n">
-        <v>736.043868625164</v>
+        <v>29.34604111909866</v>
       </c>
       <c r="V6" t="n">
-        <v>783.1956639885902</v>
+        <v>38.23573112785816</v>
       </c>
       <c r="W6" t="n">
-        <v>449.8332857489586</v>
+        <v>25.89831437915564</v>
       </c>
       <c r="X6" t="n">
-        <v>333.8837265014648</v>
+        <v>19.07509526014328</v>
       </c>
       <c r="Y6" t="n">
-        <v>951.546510887146</v>
+        <v>16.33899230360985</v>
       </c>
       <c r="Z6" t="n">
-        <v>194.0095508575439</v>
+        <v>49.54024753570556</v>
       </c>
       <c r="AA6" t="n">
-        <v>35.85348787307739</v>
+        <v>13.68123207092285</v>
       </c>
       <c r="AB6" t="n">
-        <v>694.4709167480469</v>
+        <v>40.23539838790894</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1932250598907471</v>
+        <v>17.23737692944706</v>
       </c>
       <c r="AD6" t="n">
-        <v>87.77318145036696</v>
+        <v>3165.363832394779</v>
       </c>
       <c r="AE6" t="n">
-        <v>774.0752970695496</v>
+        <v>2047.371314798296</v>
       </c>
       <c r="AF6" t="n">
-        <v>604.5133985579015</v>
+        <v>1212.268621176481</v>
       </c>
       <c r="AG6" t="n">
-        <v>626.6528942346573</v>
+        <v>2035.97993067801</v>
       </c>
       <c r="AH6" t="n">
-        <v>626.6357418715954</v>
+        <v>1202.886962416768</v>
       </c>
       <c r="AI6" t="n">
-        <v>43.38578159697354</v>
+        <v>1696.369630767405</v>
       </c>
       <c r="AJ6" t="n">
-        <v>167.3107826709747</v>
+        <v>381.1605963587761</v>
       </c>
       <c r="AK6" t="n">
-        <v>546.5306929945946</v>
+        <v>134.0197958350182</v>
       </c>
       <c r="AL6" t="n">
-        <v>433.6558391869069</v>
+        <v>412.031751409173</v>
       </c>
       <c r="AM6" t="n">
-        <v>18.51083410382271</v>
+        <v>393.3542339205742</v>
       </c>
       <c r="AN6" t="n">
-        <v>651.1038662672042</v>
+        <v>439.0470037996769</v>
       </c>
       <c r="AO6" t="n">
-        <v>949.6495488762855</v>
+        <v>102.6280737251043</v>
       </c>
       <c r="AP6" t="n">
-        <v>771.5732973933219</v>
+        <v>228.5642088294029</v>
       </c>
       <c r="AQ6" t="n">
-        <v>712.4737110853196</v>
+        <v>31.57670540809631</v>
       </c>
       <c r="AR6" t="n">
-        <v>106.7434965610504</v>
+        <v>50.40316231548787</v>
       </c>
       <c r="AS6" t="n">
-        <v>586.8098182380199</v>
+        <v>-13.11016222313047</v>
       </c>
       <c r="AT6" t="n">
-        <v>80.66821405291557</v>
+        <v>-10.01545352600515</v>
       </c>
       <c r="AU6" t="n">
-        <v>257.4456358075142</v>
+        <v>224.0296415448189</v>
       </c>
       <c r="AV6" t="n">
-        <v>923.6509057879447</v>
+        <v>38.24459714889527</v>
       </c>
       <c r="AW6" t="n">
-        <v>620.0984131395817</v>
+        <v>784.1689096957446</v>
       </c>
       <c r="AX6" t="n">
-        <v>128.392150914669</v>
+        <v>31.14665706306696</v>
       </c>
       <c r="AY6" t="n">
-        <v>81.72522565722466</v>
+        <v>119.6997056365013</v>
       </c>
       <c r="AZ6" t="n">
-        <v>664.3295483887196</v>
+        <v>98.58851286172866</v>
       </c>
       <c r="BA6" t="n">
-        <v>39.57114262580872</v>
+        <v>4.960996431112289</v>
       </c>
       <c r="BB6" t="n">
-        <v>338.5885036110878</v>
+        <v>32.40617722794413</v>
       </c>
       <c r="BC6" t="n">
-        <v>857.5305967271328</v>
+        <v>63.15056128427388</v>
       </c>
       <c r="BD6" t="n">
-        <v>365.3988071143627</v>
+        <v>55.7438378304243</v>
       </c>
       <c r="BE6" t="n">
-        <v>28240.53603124789</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>28240536.03124789</v>
+        <v>26687.46526019387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>566.2158818483352</v>
+        <v>2087.02485756278</v>
       </c>
       <c r="B7" t="n">
-        <v>587.4709073245525</v>
+        <v>2079.217600923776</v>
       </c>
       <c r="C7" t="n">
-        <v>631.7158388227224</v>
+        <v>0.00194074958562851</v>
       </c>
       <c r="D7" t="n">
-        <v>496.3546742767095</v>
+        <v>2034.704783242941</v>
       </c>
       <c r="E7" t="n">
-        <v>192.2177836194634</v>
+        <v>-0.004323918372392654</v>
       </c>
       <c r="F7" t="n">
-        <v>493.5035002410411</v>
+        <v>2024.425910814106</v>
       </c>
       <c r="G7" t="n">
-        <v>5.582764792442322</v>
+        <v>756.429758286476</v>
       </c>
       <c r="H7" t="n">
-        <v>238.9059527188539</v>
+        <v>870.4885831952096</v>
       </c>
       <c r="I7" t="n">
-        <v>145.0977380633354</v>
+        <v>215.4855089128017</v>
       </c>
       <c r="J7" t="n">
-        <v>849.806689453125</v>
+        <v>107.1686404153705</v>
       </c>
       <c r="K7" t="n">
-        <v>792.130499958992</v>
+        <v>129.6272841304541</v>
       </c>
       <c r="L7" t="n">
-        <v>147.9594131469727</v>
+        <v>66.47632675170898</v>
       </c>
       <c r="M7" t="n">
-        <v>842.3351999402046</v>
+        <v>44.03373653292656</v>
       </c>
       <c r="N7" t="n">
-        <v>894.4759558677674</v>
+        <v>183.8938863515854</v>
       </c>
       <c r="O7" t="n">
-        <v>374.7973403692246</v>
+        <v>311.1006311774254</v>
       </c>
       <c r="P7" t="n">
-        <v>2247.694689559937</v>
+        <v>32.05160363018513</v>
       </c>
       <c r="Q7" t="n">
-        <v>475.154351195693</v>
+        <v>502.7972366064787</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04760636444091797</v>
+        <v>4.570785816013813</v>
       </c>
       <c r="S7" t="n">
-        <v>945.9694350421428</v>
+        <v>86.39104586839676</v>
       </c>
       <c r="T7" t="n">
-        <v>814.6702135801315</v>
+        <v>30.42882263660431</v>
       </c>
       <c r="U7" t="n">
-        <v>737.0381340026855</v>
+        <v>26.11981012225151</v>
       </c>
       <c r="V7" t="n">
-        <v>784.8320063948631</v>
+        <v>32.14092625975609</v>
       </c>
       <c r="W7" t="n">
-        <v>451.4283187747001</v>
+        <v>30.09075251221657</v>
       </c>
       <c r="X7" t="n">
-        <v>334.0992584228516</v>
+        <v>23.26124882102013</v>
       </c>
       <c r="Y7" t="n">
-        <v>950.3397183299065</v>
+        <v>15.08490346968174</v>
       </c>
       <c r="Z7" t="n">
-        <v>194.1467100858688</v>
+        <v>48.27096710205078</v>
       </c>
       <c r="AA7" t="n">
-        <v>36.84323346614838</v>
+        <v>16.57640839219093</v>
       </c>
       <c r="AB7" t="n">
-        <v>697.2909039020539</v>
+        <v>38.27283017635345</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.194313787317276</v>
+        <v>18.23493135273457</v>
       </c>
       <c r="AD7" t="n">
-        <v>173.6710696935653</v>
+        <v>3140.956303039193</v>
       </c>
       <c r="AE7" t="n">
-        <v>697.8055582165719</v>
+        <v>2031.053930199146</v>
       </c>
       <c r="AF7" t="n">
-        <v>599.3915360987187</v>
+        <v>1185.962671613693</v>
       </c>
       <c r="AG7" t="n">
-        <v>647.2751860380173</v>
+        <v>2044.625374296308</v>
       </c>
       <c r="AH7" t="n">
-        <v>571.7014605939389</v>
+        <v>1179.734443196654</v>
       </c>
       <c r="AI7" t="n">
-        <v>116.3478479608894</v>
+        <v>1632.621269118786</v>
       </c>
       <c r="AJ7" t="n">
-        <v>139.7666966438294</v>
+        <v>380.2258823134005</v>
       </c>
       <c r="AK7" t="n">
-        <v>533.145928478241</v>
+        <v>117.05106523633</v>
       </c>
       <c r="AL7" t="n">
-        <v>368.5839354753495</v>
+        <v>411.7866944819689</v>
       </c>
       <c r="AM7" t="n">
-        <v>93.9504380762577</v>
+        <v>384.8334316313267</v>
       </c>
       <c r="AN7" t="n">
-        <v>665.8073410630226</v>
+        <v>428.4619654119015</v>
       </c>
       <c r="AO7" t="n">
-        <v>948.5481489181518</v>
+        <v>94.68114646077157</v>
       </c>
       <c r="AP7" t="n">
-        <v>783.3413793206214</v>
+        <v>223.4443359732628</v>
       </c>
       <c r="AQ7" t="n">
-        <v>710.4684695839882</v>
+        <v>31.46984852552414</v>
       </c>
       <c r="AR7" t="n">
-        <v>104.9246858358383</v>
+        <v>49.36593492329121</v>
       </c>
       <c r="AS7" t="n">
-        <v>588.0502772510052</v>
+        <v>-14.30689165145159</v>
       </c>
       <c r="AT7" t="n">
-        <v>80.37110071778298</v>
+        <v>-7.756433652713894</v>
       </c>
       <c r="AU7" t="n">
-        <v>235.8061620444059</v>
+        <v>228.0674783229828</v>
       </c>
       <c r="AV7" t="n">
-        <v>929.4213860750198</v>
+        <v>36.29719581604004</v>
       </c>
       <c r="AW7" t="n">
-        <v>599.5156712889672</v>
+        <v>767.3127757638694</v>
       </c>
       <c r="AX7" t="n">
-        <v>128.2749793469906</v>
+        <v>31.85921736806631</v>
       </c>
       <c r="AY7" t="n">
-        <v>48.51557973697781</v>
+        <v>120.3444311007857</v>
       </c>
       <c r="AZ7" t="n">
-        <v>654.3332398653031</v>
+        <v>97.9439904808998</v>
       </c>
       <c r="BA7" t="n">
-        <v>39.60686821937561</v>
+        <v>5.767627626657485</v>
       </c>
       <c r="BB7" t="n">
-        <v>337.6442268371582</v>
+        <v>34.64212188050151</v>
       </c>
       <c r="BC7" t="n">
-        <v>846.2412351489068</v>
+        <v>63.33942202478649</v>
       </c>
       <c r="BD7" t="n">
-        <v>371.1070149540901</v>
+        <v>56.6365696594119</v>
       </c>
       <c r="BE7" t="n">
-        <v>27941.93645683546</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>27941936.45683546</v>
+        <v>26570.7891990561</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>515.3615891158581</v>
+        <v>2137.963476979733</v>
       </c>
       <c r="B8" t="n">
-        <v>575.3302935898304</v>
+        <v>2129.008525115251</v>
       </c>
       <c r="C8" t="n">
-        <v>631.797895671986</v>
+        <v>0.004446597769856453</v>
       </c>
       <c r="D8" t="n">
-        <v>559.3154520034789</v>
+        <v>2144.533742374182</v>
       </c>
       <c r="E8" t="n">
-        <v>192.2192078612745</v>
+        <v>-0.004997715353965759</v>
       </c>
       <c r="F8" t="n">
-        <v>517.6251754462719</v>
+        <v>2133.524459069967</v>
       </c>
       <c r="G8" t="n">
-        <v>5.602052807807922</v>
+        <v>745.351275318861</v>
       </c>
       <c r="H8" t="n">
-        <v>306.8173284590244</v>
+        <v>881.9783894896508</v>
       </c>
       <c r="I8" t="n">
-        <v>193.7048561304808</v>
+        <v>231.5975359112024</v>
       </c>
       <c r="J8" t="n">
-        <v>852.7814651489258</v>
+        <v>108.5007968276739</v>
       </c>
       <c r="K8" t="n">
-        <v>787.6955958008766</v>
+        <v>166.2639157742262</v>
       </c>
       <c r="L8" t="n">
-        <v>154.4098880767822</v>
+        <v>68.83602647781372</v>
       </c>
       <c r="M8" t="n">
-        <v>842.426016896963</v>
+        <v>51.37671434879302</v>
       </c>
       <c r="N8" t="n">
-        <v>904.1810306072235</v>
+        <v>189.0207294106483</v>
       </c>
       <c r="O8" t="n">
-        <v>371.9213561534882</v>
+        <v>305.3125867366791</v>
       </c>
       <c r="P8" t="n">
-        <v>2248.760196113587</v>
+        <v>40.36728321313858</v>
       </c>
       <c r="Q8" t="n">
-        <v>483.9408957719803</v>
+        <v>501.8894143193961</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04812643547058106</v>
+        <v>4.404227769747377</v>
       </c>
       <c r="S8" t="n">
-        <v>937.3549246370792</v>
+        <v>87.92690782546997</v>
       </c>
       <c r="T8" t="n">
-        <v>816.4212433457375</v>
+        <v>35.87491106987</v>
       </c>
       <c r="U8" t="n">
-        <v>736.7273239135742</v>
+        <v>26.48034245371819</v>
       </c>
       <c r="V8" t="n">
-        <v>784.0424740314484</v>
+        <v>28.69364528656006</v>
       </c>
       <c r="W8" t="n">
-        <v>448.370791965723</v>
+        <v>36.47323796749115</v>
       </c>
       <c r="X8" t="n">
-        <v>333.7256317138672</v>
+        <v>28.0407043337822</v>
       </c>
       <c r="Y8" t="n">
-        <v>951.9489466547966</v>
+        <v>19.42611264288426</v>
       </c>
       <c r="Z8" t="n">
-        <v>192.8709520876407</v>
+        <v>50.07954034805297</v>
       </c>
       <c r="AA8" t="n">
-        <v>36.58278021812439</v>
+        <v>19.38167468011379</v>
       </c>
       <c r="AB8" t="n">
-        <v>700.8879311561585</v>
+        <v>41.00415711402893</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1934718316555023</v>
+        <v>19.90125893950463</v>
       </c>
       <c r="AD8" t="n">
-        <v>173.5443920373916</v>
+        <v>3255.066969572008</v>
       </c>
       <c r="AE8" t="n">
-        <v>753.9258342802525</v>
+        <v>2098.294435703755</v>
       </c>
       <c r="AF8" t="n">
-        <v>609.798549860716</v>
+        <v>1220.425422590971</v>
       </c>
       <c r="AG8" t="n">
-        <v>708.519427394867</v>
+        <v>2115.949796134234</v>
       </c>
       <c r="AH8" t="n">
-        <v>508.2643794894219</v>
+        <v>1243.480644500255</v>
       </c>
       <c r="AI8" t="n">
-        <v>89.73447776138784</v>
+        <v>1704.407820239663</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122.4251528322697</v>
+        <v>427.9095697060228</v>
       </c>
       <c r="AK8" t="n">
-        <v>531.9869855046272</v>
+        <v>100.7253208905458</v>
       </c>
       <c r="AL8" t="n">
-        <v>381.236827158928</v>
+        <v>413.7772123992443</v>
       </c>
       <c r="AM8" t="n">
-        <v>97.91883979737757</v>
+        <v>384.7820575833321</v>
       </c>
       <c r="AN8" t="n">
-        <v>667.5474402189254</v>
+        <v>450.0634488135576</v>
       </c>
       <c r="AO8" t="n">
-        <v>931.074689912796</v>
+        <v>109.323960493505</v>
       </c>
       <c r="AP8" t="n">
-        <v>781.4320397853851</v>
+        <v>234.5713609218597</v>
       </c>
       <c r="AQ8" t="n">
-        <v>710.5621838450431</v>
+        <v>32.42685420513153</v>
       </c>
       <c r="AR8" t="n">
-        <v>105.0604885101318</v>
+        <v>52.14169641137124</v>
       </c>
       <c r="AS8" t="n">
-        <v>591.1958128929139</v>
+        <v>14.92393230646849</v>
       </c>
       <c r="AT8" t="n">
-        <v>80.43731480240822</v>
+        <v>11.66276764161885</v>
       </c>
       <c r="AU8" t="n">
-        <v>209.2520316511393</v>
+        <v>252.9040659546852</v>
       </c>
       <c r="AV8" t="n">
-        <v>925.220477426052</v>
+        <v>38.51344676017762</v>
       </c>
       <c r="AW8" t="n">
-        <v>554.649781525135</v>
+        <v>753.4961707800627</v>
       </c>
       <c r="AX8" t="n">
-        <v>129.6073079705238</v>
+        <v>32.34899563193321</v>
       </c>
       <c r="AY8" t="n">
-        <v>129.668478371203</v>
+        <v>120.8419791892171</v>
       </c>
       <c r="AZ8" t="n">
-        <v>514.0992044448852</v>
+        <v>112.2873972475529</v>
       </c>
       <c r="BA8" t="n">
-        <v>39.80456919670105</v>
+        <v>9.049771964550018</v>
       </c>
       <c r="BB8" t="n">
-        <v>340.4837870240211</v>
+        <v>42.77607294172049</v>
       </c>
       <c r="BC8" t="n">
-        <v>829.5182019233704</v>
+        <v>83.07347203046085</v>
       </c>
       <c r="BD8" t="n">
-        <v>366.2730217933654</v>
+        <v>61.24701625108718</v>
       </c>
       <c r="BE8" t="n">
-        <v>27966.30659105835</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>27966306.59105835</v>
+        <v>27609.68269954585</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>538.3486751496791</v>
+        <v>2318.9108684659</v>
       </c>
       <c r="B9" t="n">
-        <v>589.9747042417526</v>
+        <v>2302.385387700796</v>
       </c>
       <c r="C9" t="n">
-        <v>631.8291638486087</v>
+        <v>-0.00808220449835062</v>
       </c>
       <c r="D9" t="n">
-        <v>529.8396085917949</v>
+        <v>2302.24308078885</v>
       </c>
       <c r="E9" t="n">
-        <v>192.1993581492454</v>
+        <v>-0.003278978168964386</v>
       </c>
       <c r="F9" t="n">
-        <v>501.8296778619289</v>
+        <v>2285.488500568271</v>
       </c>
       <c r="G9" t="n">
-        <v>5.57746478319168</v>
+        <v>725.9612200856208</v>
       </c>
       <c r="H9" t="n">
-        <v>266.8160870939493</v>
+        <v>931.7653797388077</v>
       </c>
       <c r="I9" t="n">
-        <v>195.1493539601564</v>
+        <v>265.2744351178408</v>
       </c>
       <c r="J9" t="n">
-        <v>845.921730041504</v>
+        <v>115.6566940575838</v>
       </c>
       <c r="K9" t="n">
-        <v>791.8560444116592</v>
+        <v>207.3766152203083</v>
       </c>
       <c r="L9" t="n">
-        <v>146.5694246292114</v>
+        <v>73.17851371765137</v>
       </c>
       <c r="M9" t="n">
-        <v>845.0059534490108</v>
+        <v>62.52239290475845</v>
       </c>
       <c r="N9" t="n">
-        <v>901.9498723983766</v>
+        <v>198.2732343196869</v>
       </c>
       <c r="O9" t="n">
-        <v>372.6512837409974</v>
+        <v>294.9622972726822</v>
       </c>
       <c r="P9" t="n">
-        <v>2244.932150268555</v>
+        <v>55.97860864400863</v>
       </c>
       <c r="Q9" t="n">
-        <v>515.171279257536</v>
+        <v>528.2037907332182</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04804644889831543</v>
+        <v>10.13709087520838</v>
       </c>
       <c r="S9" t="n">
-        <v>939.7188428521156</v>
+        <v>100.9241345405579</v>
       </c>
       <c r="T9" t="n">
-        <v>815.5536871314049</v>
+        <v>40.36989545822144</v>
       </c>
       <c r="U9" t="n">
-        <v>737.0929215192795</v>
+        <v>29.44898975193501</v>
       </c>
       <c r="V9" t="n">
-        <v>783.7564273476601</v>
+        <v>28.66928959488869</v>
       </c>
       <c r="W9" t="n">
-        <v>450.5971444308758</v>
+        <v>38.69355192780495</v>
       </c>
       <c r="X9" t="n">
-        <v>333.2778564453125</v>
+        <v>31.80030932426453</v>
       </c>
       <c r="Y9" t="n">
-        <v>951.3510967612267</v>
+        <v>23.3978788971901</v>
       </c>
       <c r="Z9" t="n">
-        <v>191.3037631392479</v>
+        <v>53.60170803070068</v>
       </c>
       <c r="AA9" t="n">
-        <v>37.43769266605377</v>
+        <v>23.90911388397217</v>
       </c>
       <c r="AB9" t="n">
-        <v>696.5554923057557</v>
+        <v>51.97926874160766</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1945970162153244</v>
+        <v>22.58040485084057</v>
       </c>
       <c r="AD9" t="n">
-        <v>204.403831410408</v>
+        <v>3638.797138777375</v>
       </c>
       <c r="AE9" t="n">
-        <v>780.6221552312375</v>
+        <v>2321.701473584771</v>
       </c>
       <c r="AF9" t="n">
-        <v>664.6053008913995</v>
+        <v>1392.329320645332</v>
       </c>
       <c r="AG9" t="n">
-        <v>710.663817858696</v>
+        <v>2318.363301822543</v>
       </c>
       <c r="AH9" t="n">
-        <v>537.0864773154259</v>
+        <v>1389.467783379555</v>
       </c>
       <c r="AI9" t="n">
-        <v>62.59980531409384</v>
+        <v>1843.418108123541</v>
       </c>
       <c r="AJ9" t="n">
-        <v>86.23392613530159</v>
+        <v>517.3025095790625</v>
       </c>
       <c r="AK9" t="n">
-        <v>541.5485887169839</v>
+        <v>108.5817954093218</v>
       </c>
       <c r="AL9" t="n">
-        <v>397.5927680462599</v>
+        <v>430.6361186623573</v>
       </c>
       <c r="AM9" t="n">
-        <v>48.06018652915954</v>
+        <v>406.0312780737877</v>
       </c>
       <c r="AN9" t="n">
-        <v>696.6128087282181</v>
+        <v>497.0885886371136</v>
       </c>
       <c r="AO9" t="n">
-        <v>945.3382838547229</v>
+        <v>141.18299459517</v>
       </c>
       <c r="AP9" t="n">
-        <v>756.0475708127021</v>
+        <v>267.3380104064942</v>
       </c>
       <c r="AQ9" t="n">
-        <v>711.4343892455101</v>
+        <v>35.84380884170532</v>
       </c>
       <c r="AR9" t="n">
-        <v>107.3714066028595</v>
+        <v>57.14330112040044</v>
       </c>
       <c r="AS9" t="n">
-        <v>586.5715406239033</v>
+        <v>74.65147151648999</v>
       </c>
       <c r="AT9" t="n">
-        <v>81.30607888698577</v>
+        <v>52.88020083159208</v>
       </c>
       <c r="AU9" t="n">
-        <v>256.4372971236705</v>
+        <v>287.380632686615</v>
       </c>
       <c r="AV9" t="n">
-        <v>927.9312805414199</v>
+        <v>48.97652053833008</v>
       </c>
       <c r="AW9" t="n">
-        <v>613.9680781304836</v>
+        <v>782.3436330825091</v>
       </c>
       <c r="AX9" t="n">
-        <v>129.0462926268578</v>
+        <v>36.13268196880818</v>
       </c>
       <c r="AY9" t="n">
-        <v>139.9219701170921</v>
+        <v>126.9949106693268</v>
       </c>
       <c r="AZ9" t="n">
-        <v>517.5063420295716</v>
+        <v>139.4151812791824</v>
       </c>
       <c r="BA9" t="n">
-        <v>39.54133863449097</v>
+        <v>14.11066700220108</v>
       </c>
       <c r="BB9" t="n">
-        <v>339.8556951999664</v>
+        <v>60.29818783700465</v>
       </c>
       <c r="BC9" t="n">
-        <v>876.5565231144428</v>
+        <v>113.8821338504553</v>
       </c>
       <c r="BD9" t="n">
-        <v>363.0064004659653</v>
+        <v>73.21226236224173</v>
       </c>
       <c r="BE9" t="n">
-        <v>28174.37955412903</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>28174379.55412903</v>
+        <v>30299.18530931379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>510.5347559273243</v>
+        <v>2518.734861254692</v>
       </c>
       <c r="B10" t="n">
-        <v>547.9572612524032</v>
+        <v>2539.867314052582</v>
       </c>
       <c r="C10" t="n">
-        <v>631.8151713080704</v>
+        <v>0.01390741392970085</v>
       </c>
       <c r="D10" t="n">
-        <v>493.7605303555726</v>
+        <v>2526.318881881237</v>
       </c>
       <c r="E10" t="n">
-        <v>192.2026595853269</v>
+        <v>0.001280899159610271</v>
       </c>
       <c r="F10" t="n">
-        <v>484.486473685503</v>
+        <v>2513.821914106607</v>
       </c>
       <c r="G10" t="n">
-        <v>5.597327005863189</v>
+        <v>713.1931140065193</v>
       </c>
       <c r="H10" t="n">
-        <v>255.7334232658148</v>
+        <v>1041.289051008225</v>
       </c>
       <c r="I10" t="n">
-        <v>145.3769597709179</v>
+        <v>316.9776119589806</v>
       </c>
       <c r="J10" t="n">
-        <v>847.1233703613282</v>
+        <v>121.6643105775118</v>
       </c>
       <c r="K10" t="n">
-        <v>784.3584658503532</v>
+        <v>219.5522104680538</v>
       </c>
       <c r="L10" t="n">
-        <v>146.67894115448</v>
+        <v>80.14012603759765</v>
       </c>
       <c r="M10" t="n">
-        <v>846.3884029984473</v>
+        <v>70.66847987174987</v>
       </c>
       <c r="N10" t="n">
-        <v>903.9827291011811</v>
+        <v>213.6893678665161</v>
       </c>
       <c r="O10" t="n">
-        <v>372.5160570144654</v>
+        <v>277.1883336424828</v>
       </c>
       <c r="P10" t="n">
-        <v>2248.311281394959</v>
+        <v>79.10617578029631</v>
       </c>
       <c r="Q10" t="n">
-        <v>504.4837312459945</v>
+        <v>581.6157144486904</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04741104335784913</v>
+        <v>26.67850173711777</v>
       </c>
       <c r="S10" t="n">
-        <v>940.5152030944823</v>
+        <v>124.3750436663628</v>
       </c>
       <c r="T10" t="n">
-        <v>815.3367576122284</v>
+        <v>49.13577365875244</v>
       </c>
       <c r="U10" t="n">
-        <v>737.1287023663521</v>
+        <v>37.12794162631035</v>
       </c>
       <c r="V10" t="n">
-        <v>785.4306697249413</v>
+        <v>30.66068971008063</v>
       </c>
       <c r="W10" t="n">
-        <v>451.0050758302212</v>
+        <v>40.70419768691063</v>
       </c>
       <c r="X10" t="n">
-        <v>334.3498641967773</v>
+        <v>40.1866080403328</v>
       </c>
       <c r="Y10" t="n">
-        <v>950.8079855322839</v>
+        <v>31.42099365592003</v>
       </c>
       <c r="Z10" t="n">
-        <v>191.7951596260071</v>
+        <v>60.47302207946777</v>
       </c>
       <c r="AA10" t="n">
-        <v>37.17065217494964</v>
+        <v>28.22025627493858</v>
       </c>
       <c r="AB10" t="n">
-        <v>696.1834357738495</v>
+        <v>66.52473053932189</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.1951815769910812</v>
+        <v>24.24043735861778</v>
       </c>
       <c r="AD10" t="n">
-        <v>222.1924980998039</v>
+        <v>4295.037314110994</v>
       </c>
       <c r="AE10" t="n">
-        <v>708.5401107788086</v>
+        <v>2680.734893882275</v>
       </c>
       <c r="AF10" t="n">
-        <v>592.2289204001428</v>
+        <v>1694.677012825012</v>
       </c>
       <c r="AG10" t="n">
-        <v>751.0317051172257</v>
+        <v>2701.962088042498</v>
       </c>
       <c r="AH10" t="n">
-        <v>586.02958817482</v>
+        <v>1694.502231478691</v>
       </c>
       <c r="AI10" t="n">
-        <v>115.0495641119778</v>
+        <v>2105.622126108408</v>
       </c>
       <c r="AJ10" t="n">
-        <v>72.78026803731917</v>
+        <v>624.0606412172318</v>
       </c>
       <c r="AK10" t="n">
-        <v>529.9568747997284</v>
+        <v>131.7670032531023</v>
       </c>
       <c r="AL10" t="n">
-        <v>359.3054124087096</v>
+        <v>460.3103943407536</v>
       </c>
       <c r="AM10" t="n">
-        <v>58.2574037104845</v>
+        <v>454.3913732618093</v>
       </c>
       <c r="AN10" t="n">
-        <v>618.8536256313324</v>
+        <v>562.9717118382454</v>
       </c>
       <c r="AO10" t="n">
-        <v>949.7101863205432</v>
+        <v>188.5180222809315</v>
       </c>
       <c r="AP10" t="n">
-        <v>775.4132087945937</v>
+        <v>311.8131705284119</v>
       </c>
       <c r="AQ10" t="n">
-        <v>712.1402378559112</v>
+        <v>44.48824239969254</v>
       </c>
       <c r="AR10" t="n">
-        <v>105.1851083278656</v>
+        <v>64.97511211037637</v>
       </c>
       <c r="AS10" t="n">
-        <v>586.1329903304577</v>
+        <v>187.1848541021347</v>
       </c>
       <c r="AT10" t="n">
-        <v>79.87843213677407</v>
+        <v>115.7870317101478</v>
       </c>
       <c r="AU10" t="n">
-        <v>251.2233509361744</v>
+        <v>336.9375475168228</v>
       </c>
       <c r="AV10" t="n">
-        <v>920.7780945003032</v>
+        <v>60.19794063568115</v>
       </c>
       <c r="AW10" t="n">
-        <v>567.5906005442142</v>
+        <v>842.6101470470429</v>
       </c>
       <c r="AX10" t="n">
-        <v>129.0009759187698</v>
+        <v>42.96329827308654</v>
       </c>
       <c r="AY10" t="n">
-        <v>56.71806471049786</v>
+        <v>137.0750517249107</v>
       </c>
       <c r="AZ10" t="n">
-        <v>551.8635531663895</v>
+        <v>176.1077034711838</v>
       </c>
       <c r="BA10" t="n">
-        <v>39.50992817878723</v>
+        <v>17.46875846385956</v>
       </c>
       <c r="BB10" t="n">
-        <v>336.4292305111885</v>
+        <v>78.04105811119079</v>
       </c>
       <c r="BC10" t="n">
-        <v>930.4489909946918</v>
+        <v>141.7996502578259</v>
       </c>
       <c r="BD10" t="n">
-        <v>367.2725494265556</v>
+        <v>96.90142074823379</v>
       </c>
       <c r="BE10" t="n">
-        <v>27834.79511375452</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>27834795.11375452</v>
+        <v>34622.49665104951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>551.0460388183594</v>
+        <v>2726.627778792381</v>
       </c>
       <c r="B11" t="n">
-        <v>471.4376360654831</v>
+        <v>2712.126402330398</v>
       </c>
       <c r="C11" t="n">
-        <v>631.7832215495407</v>
+        <v>-0.001303128898143768</v>
       </c>
       <c r="D11" t="n">
-        <v>551.0117851138114</v>
+        <v>2738.786178267002</v>
       </c>
       <c r="E11" t="n">
-        <v>192.2223415270448</v>
+        <v>-0.004040483385324478</v>
       </c>
       <c r="F11" t="n">
-        <v>584.0312267899513</v>
+        <v>2717.817756950855</v>
       </c>
       <c r="G11" t="n">
-        <v>5.596709740161895</v>
+        <v>754.8620469212532</v>
       </c>
       <c r="H11" t="n">
-        <v>306.0867244124412</v>
+        <v>1151.038579750061</v>
       </c>
       <c r="I11" t="n">
-        <v>207.1174649775028</v>
+        <v>380.2933204233647</v>
       </c>
       <c r="J11" t="n">
-        <v>851.1076217651367</v>
+        <v>128.0467620819807</v>
       </c>
       <c r="K11" t="n">
-        <v>794.5106533169746</v>
+        <v>238.9599283874035</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5685581207275</v>
+        <v>83.69744529724122</v>
       </c>
       <c r="M11" t="n">
-        <v>845.8481870353221</v>
+        <v>67.50446945428847</v>
       </c>
       <c r="N11" t="n">
-        <v>895.8566442489624</v>
+        <v>219.2854128360748</v>
       </c>
       <c r="O11" t="n">
-        <v>392.9573783397675</v>
+        <v>280.1072369813919</v>
       </c>
       <c r="P11" t="n">
-        <v>2247.809837341309</v>
+        <v>96.87124334573744</v>
       </c>
       <c r="Q11" t="n">
-        <v>489.3254189699888</v>
+        <v>642.0320012807846</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04801865215301514</v>
+        <v>45.79453474581241</v>
       </c>
       <c r="S11" t="n">
-        <v>933.3096384346485</v>
+        <v>143.1923557400703</v>
       </c>
       <c r="T11" t="n">
-        <v>814.7921664357185</v>
+        <v>55.84658479690552</v>
       </c>
       <c r="U11" t="n">
-        <v>737.9447224378586</v>
+        <v>37.00786426663399</v>
       </c>
       <c r="V11" t="n">
-        <v>782.6750810146332</v>
+        <v>31.57633593380451</v>
       </c>
       <c r="W11" t="n">
-        <v>452.3592705011368</v>
+        <v>45.29644463062287</v>
       </c>
       <c r="X11" t="n">
-        <v>334.5018737792968</v>
+        <v>39.14602419137955</v>
       </c>
       <c r="Y11" t="n">
-        <v>950.5365737438202</v>
+        <v>33.78783428668976</v>
       </c>
       <c r="Z11" t="n">
-        <v>194.1163829445839</v>
+        <v>66.65657386779785</v>
       </c>
       <c r="AA11" t="n">
-        <v>35.07865219116211</v>
+        <v>29.86781470775604</v>
       </c>
       <c r="AB11" t="n">
-        <v>692.8648792028428</v>
+        <v>80.19231233596801</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1941952824115753</v>
+        <v>25.92582932114601</v>
       </c>
       <c r="AD11" t="n">
-        <v>102.5315155148506</v>
+        <v>4743.447625392675</v>
       </c>
       <c r="AE11" t="n">
-        <v>678.8371666789055</v>
+        <v>2968.418831056356</v>
       </c>
       <c r="AF11" t="n">
-        <v>655.5235946476461</v>
+        <v>1838.5585460186</v>
       </c>
       <c r="AG11" t="n">
-        <v>662.3751474380493</v>
+        <v>2958.906999224424</v>
       </c>
       <c r="AH11" t="n">
-        <v>529.1559715926647</v>
+        <v>1834.973827719688</v>
       </c>
       <c r="AI11" t="n">
-        <v>53.20144954212011</v>
+        <v>2290.713884019852</v>
       </c>
       <c r="AJ11" t="n">
-        <v>109.902243694663</v>
+        <v>695.2532479941846</v>
       </c>
       <c r="AK11" t="n">
-        <v>532.2917815804482</v>
+        <v>139.1429385691881</v>
       </c>
       <c r="AL11" t="n">
-        <v>414.2823054283858</v>
+        <v>494.8732665538789</v>
       </c>
       <c r="AM11" t="n">
-        <v>64.34977168440818</v>
+        <v>497.3220782876015</v>
       </c>
       <c r="AN11" t="n">
-        <v>662.7598065257073</v>
+        <v>621.8051647901535</v>
       </c>
       <c r="AO11" t="n">
-        <v>956.2118310809135</v>
+        <v>227.3452226877213</v>
       </c>
       <c r="AP11" t="n">
-        <v>764.6436608552932</v>
+        <v>338.539143371582</v>
       </c>
       <c r="AQ11" t="n">
-        <v>712.1429393053055</v>
+        <v>51.76463086605072</v>
       </c>
       <c r="AR11" t="n">
-        <v>102.2218790769577</v>
+        <v>70.63418431878091</v>
       </c>
       <c r="AS11" t="n">
-        <v>589.0474311530591</v>
+        <v>229.7217076063156</v>
       </c>
       <c r="AT11" t="n">
-        <v>80.52665410637856</v>
+        <v>130.8783721864223</v>
       </c>
       <c r="AU11" t="n">
-        <v>233.8333300232887</v>
+        <v>347.6399981737137</v>
       </c>
       <c r="AV11" t="n">
-        <v>922.4016673743724</v>
+        <v>67.45878944396972</v>
       </c>
       <c r="AW11" t="n">
-        <v>544.8330973029136</v>
+        <v>928.259072136879</v>
       </c>
       <c r="AX11" t="n">
-        <v>129.2783533632755</v>
+        <v>49.26152386665344</v>
       </c>
       <c r="AY11" t="n">
-        <v>100.3689754813909</v>
+        <v>146.3399402439594</v>
       </c>
       <c r="AZ11" t="n">
-        <v>542.9950901448726</v>
+        <v>196.6670774698257</v>
       </c>
       <c r="BA11" t="n">
-        <v>39.57850332260132</v>
+        <v>20.54368690252304</v>
       </c>
       <c r="BB11" t="n">
-        <v>340.1391074419021</v>
+        <v>85.22117783427238</v>
       </c>
       <c r="BC11" t="n">
-        <v>893.6049651563168</v>
+        <v>158.8230323940516</v>
       </c>
       <c r="BD11" t="n">
-        <v>363.8926300168037</v>
+        <v>117.2265720248222</v>
       </c>
       <c r="BE11" t="n">
-        <v>27872.66977228624</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>27872669.77228624</v>
+        <v>37822.08226946667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>565.461402630806</v>
+        <v>2798.329201292991</v>
       </c>
       <c r="B12" t="n">
-        <v>598.5164187669754</v>
+        <v>2810.515502047539</v>
       </c>
       <c r="C12" t="n">
-        <v>631.7900834374129</v>
+        <v>0.002795569598674774</v>
       </c>
       <c r="D12" t="n">
-        <v>540.9343939840793</v>
+        <v>2807.017789030075</v>
       </c>
       <c r="E12" t="n">
-        <v>192.1966958165169</v>
+        <v>0.0003774315118789673</v>
       </c>
       <c r="F12" t="n">
-        <v>593.8806804299354</v>
+        <v>2774.871879833937</v>
       </c>
       <c r="G12" t="n">
-        <v>5.620445001125336</v>
+        <v>774.6566056489944</v>
       </c>
       <c r="H12" t="n">
-        <v>320.1183886259794</v>
+        <v>1190.094939661026</v>
       </c>
       <c r="I12" t="n">
-        <v>191.7460581958294</v>
+        <v>407.7532941222191</v>
       </c>
       <c r="J12" t="n">
-        <v>848.1083862304688</v>
+        <v>129.9992588192225</v>
       </c>
       <c r="K12" t="n">
-        <v>784.2124574184418</v>
+        <v>245.2067379832268</v>
       </c>
       <c r="L12" t="n">
-        <v>147.9570596694946</v>
+        <v>80.6522258758545</v>
       </c>
       <c r="M12" t="n">
-        <v>842.0801462054252</v>
+        <v>61.5809897661209</v>
       </c>
       <c r="N12" t="n">
-        <v>909.0920216560364</v>
+        <v>223.9894580841064</v>
       </c>
       <c r="O12" t="n">
-        <v>380.587672495842</v>
+        <v>271.1673222541809</v>
       </c>
       <c r="P12" t="n">
-        <v>2246.277756500244</v>
+        <v>100.4384774446487</v>
       </c>
       <c r="Q12" t="n">
-        <v>483.6972048789263</v>
+        <v>667.1608878016472</v>
       </c>
       <c r="R12" t="n">
-        <v>0.04835166091918946</v>
+        <v>63.54201718568802</v>
       </c>
       <c r="S12" t="n">
-        <v>937.2227872729301</v>
+        <v>148.6686502337456</v>
       </c>
       <c r="T12" t="n">
-        <v>813.1977437376976</v>
+        <v>57.74962902069093</v>
       </c>
       <c r="U12" t="n">
-        <v>737.944073343277</v>
+        <v>41.02261382937431</v>
       </c>
       <c r="V12" t="n">
-        <v>785.043638586998</v>
+        <v>32.31947903633118</v>
       </c>
       <c r="W12" t="n">
-        <v>451.529816955328</v>
+        <v>48.57311839461327</v>
       </c>
       <c r="X12" t="n">
-        <v>333.9208740234375</v>
+        <v>34.47009106874467</v>
       </c>
       <c r="Y12" t="n">
-        <v>951.0766691684723</v>
+        <v>35.67675250768661</v>
       </c>
       <c r="Z12" t="n">
-        <v>193.403349417448</v>
+        <v>66.23593101501464</v>
       </c>
       <c r="AA12" t="n">
-        <v>36.81544144153595</v>
+        <v>30.57816804051399</v>
       </c>
       <c r="AB12" t="n">
-        <v>697.6776020526886</v>
+        <v>87.88495931625366</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1939708436012268</v>
+        <v>24.82938228845596</v>
       </c>
       <c r="AD12" t="n">
-        <v>140.0113662362098</v>
+        <v>4788.533125603199</v>
       </c>
       <c r="AE12" t="n">
-        <v>646.7598076581955</v>
+        <v>3023.4224766016</v>
       </c>
       <c r="AF12" t="n">
-        <v>671.1700840950012</v>
+        <v>1870.588776564598</v>
       </c>
       <c r="AG12" t="n">
-        <v>735.9956905603409</v>
+        <v>3030.037923896313</v>
       </c>
       <c r="AH12" t="n">
-        <v>572.8823603689671</v>
+        <v>1874.496776342392</v>
       </c>
       <c r="AI12" t="n">
-        <v>142.2829867228866</v>
+        <v>2350.489924788475</v>
       </c>
       <c r="AJ12" t="n">
-        <v>85.01521570682524</v>
+        <v>723.6927800953389</v>
       </c>
       <c r="AK12" t="n">
-        <v>530.2380817055703</v>
+        <v>123.3551860749722</v>
       </c>
       <c r="AL12" t="n">
-        <v>393.3052322804928</v>
+        <v>517.3406040430069</v>
       </c>
       <c r="AM12" t="n">
-        <v>46.68978337645531</v>
+        <v>514.6920300424099</v>
       </c>
       <c r="AN12" t="n">
-        <v>622.9237627625465</v>
+        <v>636.0195192456246</v>
       </c>
       <c r="AO12" t="n">
-        <v>947.7037041068077</v>
+        <v>233.8076145291329</v>
       </c>
       <c r="AP12" t="n">
-        <v>789.6915074944495</v>
+        <v>344.648325920105</v>
       </c>
       <c r="AQ12" t="n">
-        <v>713.9527781009674</v>
+        <v>56.80672843456269</v>
       </c>
       <c r="AR12" t="n">
-        <v>102.6820937156677</v>
+        <v>73.47365334033967</v>
       </c>
       <c r="AS12" t="n">
-        <v>589.7465335369111</v>
+        <v>209.9387947797775</v>
       </c>
       <c r="AT12" t="n">
-        <v>78.15742517709732</v>
+        <v>118.289006254077</v>
       </c>
       <c r="AU12" t="n">
-        <v>263.839041185379</v>
+        <v>351.430682182312</v>
       </c>
       <c r="AV12" t="n">
-        <v>926.0123973369598</v>
+        <v>68.2694808959961</v>
       </c>
       <c r="AW12" t="n">
-        <v>530.0559534132481</v>
+        <v>999.5603623747826</v>
       </c>
       <c r="AX12" t="n">
-        <v>128.146061706543</v>
+        <v>51.35103739500046</v>
       </c>
       <c r="AY12" t="n">
-        <v>36.80010246559978</v>
+        <v>150.3664317786694</v>
       </c>
       <c r="AZ12" t="n">
-        <v>471.2797847181558</v>
+        <v>197.6375979661941</v>
       </c>
       <c r="BA12" t="n">
-        <v>39.95111436843872</v>
+        <v>22.6353025317192</v>
       </c>
       <c r="BB12" t="n">
-        <v>341.2258984684944</v>
+        <v>85.76304150819777</v>
       </c>
       <c r="BC12" t="n">
-        <v>897.3139104783535</v>
+        <v>176.0590320050717</v>
       </c>
       <c r="BD12" t="n">
-        <v>361.174263805151</v>
+        <v>118.9475852966308</v>
       </c>
       <c r="BE12" t="n">
-        <v>28025.35853199959</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>28025358.53199959</v>
+        <v>38726.64233509451</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>595.7954324781895</v>
+        <v>2815.005892133713</v>
       </c>
       <c r="B13" t="n">
-        <v>561.1464772582054</v>
+        <v>2798.976476860046</v>
       </c>
       <c r="C13" t="n">
-        <v>631.8120242647826</v>
+        <v>0.003039635717868805</v>
       </c>
       <c r="D13" t="n">
-        <v>562.5263699769973</v>
+        <v>2804.391253948212</v>
       </c>
       <c r="E13" t="n">
-        <v>192.2235635377467</v>
+        <v>0.002896301448345184</v>
       </c>
       <c r="F13" t="n">
-        <v>562.7414125144481</v>
+        <v>2831.343211966753</v>
       </c>
       <c r="G13" t="n">
-        <v>5.569291162490845</v>
+        <v>787.3398594439029</v>
       </c>
       <c r="H13" t="n">
-        <v>387.4215428978204</v>
+        <v>1192.195048093796</v>
       </c>
       <c r="I13" t="n">
-        <v>192.8420279800892</v>
+        <v>408.4586470246315</v>
       </c>
       <c r="J13" t="n">
-        <v>842.8506744384766</v>
+        <v>139.7810843467713</v>
       </c>
       <c r="K13" t="n">
-        <v>782.1093314290047</v>
+        <v>232.9753475308418</v>
       </c>
       <c r="L13" t="n">
-        <v>153.9061717987061</v>
+        <v>78.92200584411621</v>
       </c>
       <c r="M13" t="n">
-        <v>843.8953124999999</v>
+        <v>61.01073060035705</v>
       </c>
       <c r="N13" t="n">
-        <v>918.6577727794648</v>
+        <v>221.2566370248794</v>
       </c>
       <c r="O13" t="n">
-        <v>371.3307460069657</v>
+        <v>270.2809952259064</v>
       </c>
       <c r="P13" t="n">
-        <v>2247.802690887451</v>
+        <v>98.51567826271057</v>
       </c>
       <c r="Q13" t="n">
-        <v>508.9685253858566</v>
+        <v>672.9171304702759</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04855385513305664</v>
+        <v>72.77287552356719</v>
       </c>
       <c r="S13" t="n">
-        <v>932.3303054451942</v>
+        <v>152.9271865487099</v>
       </c>
       <c r="T13" t="n">
-        <v>815.9370894908905</v>
+        <v>57.22649955749512</v>
       </c>
       <c r="U13" t="n">
-        <v>737.0170207262039</v>
+        <v>42.33639029860497</v>
       </c>
       <c r="V13" t="n">
-        <v>782.9283418059349</v>
+        <v>31.42470187395811</v>
       </c>
       <c r="W13" t="n">
-        <v>450.0953761816025</v>
+        <v>49.87915263772011</v>
       </c>
       <c r="X13" t="n">
-        <v>334.1073974609375</v>
+        <v>31.20800724029541</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.5240800857545</v>
+        <v>34.3779779791832</v>
       </c>
       <c r="Z13" t="n">
-        <v>197.8444649755955</v>
+        <v>66.96674499511718</v>
       </c>
       <c r="AA13" t="n">
-        <v>35.84352929592132</v>
+        <v>29.669345921278</v>
       </c>
       <c r="AB13" t="n">
-        <v>690.7934175252915</v>
+        <v>87.21960000991821</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.1952261649847031</v>
+        <v>24.91960291564465</v>
       </c>
       <c r="AD13" t="n">
-        <v>166.9920989632606</v>
+        <v>4887.449125421047</v>
       </c>
       <c r="AE13" t="n">
-        <v>695.8106946170331</v>
+        <v>3029.781729501486</v>
       </c>
       <c r="AF13" t="n">
-        <v>603.501150649786</v>
+        <v>1882.690583348274</v>
       </c>
       <c r="AG13" t="n">
-        <v>695.735888338089</v>
+        <v>3066.615866863728</v>
       </c>
       <c r="AH13" t="n">
-        <v>593.9470574498177</v>
+        <v>1884.930435013771</v>
       </c>
       <c r="AI13" t="n">
-        <v>109.0900088690221</v>
+        <v>2328.208032852411</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17.06208112537861</v>
+        <v>762.9075057089329</v>
       </c>
       <c r="AK13" t="n">
-        <v>523.1518045186997</v>
+        <v>114.0657019615173</v>
       </c>
       <c r="AL13" t="n">
-        <v>406.553216969967</v>
+        <v>523.0437065362931</v>
       </c>
       <c r="AM13" t="n">
-        <v>62.02527879178524</v>
+        <v>523.8093911707401</v>
       </c>
       <c r="AN13" t="n">
-        <v>694.4555340528489</v>
+        <v>620.2601340353489</v>
       </c>
       <c r="AO13" t="n">
-        <v>935.5348443567752</v>
+        <v>230.4183916568756</v>
       </c>
       <c r="AP13" t="n">
-        <v>776.6237247347832</v>
+        <v>341.9703233718872</v>
       </c>
       <c r="AQ13" t="n">
-        <v>712.1369197249412</v>
+        <v>56.61396129131317</v>
       </c>
       <c r="AR13" t="n">
-        <v>102.6506327390671</v>
+        <v>70.85683599114419</v>
       </c>
       <c r="AS13" t="n">
-        <v>588.4405056715012</v>
+        <v>205.5737287759781</v>
       </c>
       <c r="AT13" t="n">
-        <v>80.97386015653611</v>
+        <v>114.1817183077335</v>
       </c>
       <c r="AU13" t="n">
-        <v>268.6192715287208</v>
+        <v>355.2028651952743</v>
       </c>
       <c r="AV13" t="n">
-        <v>924.1813286423683</v>
+        <v>67.49795913696289</v>
       </c>
       <c r="AW13" t="n">
-        <v>632.5492080032826</v>
+        <v>1011.963264757395</v>
       </c>
       <c r="AX13" t="n">
-        <v>129.3344672501087</v>
+        <v>51.30654793381691</v>
       </c>
       <c r="AY13" t="n">
-        <v>125.4985819250345</v>
+        <v>152.1929671168327</v>
       </c>
       <c r="AZ13" t="n">
-        <v>436.187274813652</v>
+        <v>195.1920936822891</v>
       </c>
       <c r="BA13" t="n">
-        <v>39.45723028182984</v>
+        <v>22.84303275346756</v>
       </c>
       <c r="BB13" t="n">
-        <v>339.932225728035</v>
+        <v>82.95143443346024</v>
       </c>
       <c r="BC13" t="n">
-        <v>875.6287503957749</v>
+        <v>211.825784534216</v>
       </c>
       <c r="BD13" t="n">
-        <v>362.4193523108959</v>
+        <v>117.7544747948646</v>
       </c>
       <c r="BE13" t="n">
-        <v>28188.75716291913</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>28188757.16291913</v>
+        <v>39006.41161636263</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>505.9999619245529</v>
+        <v>2840.658255052566</v>
       </c>
       <c r="B14" t="n">
-        <v>600.7810472011566</v>
+        <v>2823.429858338833</v>
       </c>
       <c r="C14" t="n">
-        <v>631.7665061496198</v>
+        <v>-0.001708265393972397</v>
       </c>
       <c r="D14" t="n">
-        <v>508.8898995816707</v>
+        <v>2830.037546992302</v>
       </c>
       <c r="E14" t="n">
-        <v>192.1805536530912</v>
+        <v>0.008991401642560959</v>
       </c>
       <c r="F14" t="n">
-        <v>531.7395516753197</v>
+        <v>2845.926115036011</v>
       </c>
       <c r="G14" t="n">
-        <v>5.54722466468811</v>
+        <v>782.14694237113</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6602022260427</v>
+        <v>1191.589147567749</v>
       </c>
       <c r="I14" t="n">
-        <v>157.3604457110167</v>
+        <v>403.6834832429886</v>
       </c>
       <c r="J14" t="n">
-        <v>840.412925720215</v>
+        <v>146.101368445158</v>
       </c>
       <c r="K14" t="n">
-        <v>788.3538092970848</v>
+        <v>235.3238052010536</v>
       </c>
       <c r="L14" t="n">
-        <v>148.8916734695435</v>
+        <v>80.45874633789063</v>
       </c>
       <c r="M14" t="n">
-        <v>846.3957527995109</v>
+        <v>62.84313341379165</v>
       </c>
       <c r="N14" t="n">
-        <v>913.4029326438905</v>
+        <v>222.9217684268951</v>
       </c>
       <c r="O14" t="n">
-        <v>380.6855317115784</v>
+        <v>272.6645022153855</v>
       </c>
       <c r="P14" t="n">
-        <v>2245.285160446167</v>
+        <v>93.69892307519912</v>
       </c>
       <c r="Q14" t="n">
-        <v>504.7516988873481</v>
+        <v>667.0212799310684</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04778607196807862</v>
+        <v>80.19132027626037</v>
       </c>
       <c r="S14" t="n">
-        <v>937.6526825487613</v>
+        <v>152.2493171930313</v>
       </c>
       <c r="T14" t="n">
-        <v>815.5807573080062</v>
+        <v>56.70978546142579</v>
       </c>
       <c r="U14" t="n">
-        <v>738.3722928404808</v>
+        <v>41.73550083041191</v>
       </c>
       <c r="V14" t="n">
-        <v>784.7605510950089</v>
+        <v>33.15289166867733</v>
       </c>
       <c r="W14" t="n">
-        <v>451.1136617422104</v>
+        <v>49.85504204630852</v>
       </c>
       <c r="X14" t="n">
-        <v>334.5860885620117</v>
+        <v>34.97132813334466</v>
       </c>
       <c r="Y14" t="n">
-        <v>951.4328096151352</v>
+        <v>35.74250683784485</v>
       </c>
       <c r="Z14" t="n">
-        <v>194.4309157609939</v>
+        <v>66.60570678710937</v>
       </c>
       <c r="AA14" t="n">
-        <v>36.08853859901428</v>
+        <v>30.10260429978371</v>
       </c>
       <c r="AB14" t="n">
-        <v>697.2915254354477</v>
+        <v>88.07388048171997</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1941513177394867</v>
+        <v>24.90474797785282</v>
       </c>
       <c r="AD14" t="n">
-        <v>80.50695675015449</v>
+        <v>4821.239217281342</v>
       </c>
       <c r="AE14" t="n">
-        <v>574.0309591412545</v>
+        <v>2999.87433668375</v>
       </c>
       <c r="AF14" t="n">
-        <v>607.8819009065629</v>
+        <v>1894.774356293678</v>
       </c>
       <c r="AG14" t="n">
-        <v>702.331395483017</v>
+        <v>3044.616239511967</v>
       </c>
       <c r="AH14" t="n">
-        <v>531.988928604126</v>
+        <v>1898.97932972908</v>
       </c>
       <c r="AI14" t="n">
-        <v>167.0623657256365</v>
+        <v>2324.061698311567</v>
       </c>
       <c r="AJ14" t="n">
-        <v>104.6112524151802</v>
+        <v>765.8562788248063</v>
       </c>
       <c r="AK14" t="n">
-        <v>530.0651049852372</v>
+        <v>106.6442555934191</v>
       </c>
       <c r="AL14" t="n">
-        <v>410.9512563884259</v>
+        <v>526.6175660371781</v>
       </c>
       <c r="AM14" t="n">
-        <v>63.72307100892066</v>
+        <v>520.3644729554653</v>
       </c>
       <c r="AN14" t="n">
-        <v>648.9792890191078</v>
+        <v>612.2369570493698</v>
       </c>
       <c r="AO14" t="n">
-        <v>941.3008481144905</v>
+        <v>233.487793648243</v>
       </c>
       <c r="AP14" t="n">
-        <v>773.1096715807914</v>
+        <v>342.4619928359986</v>
       </c>
       <c r="AQ14" t="n">
-        <v>711.3120323657989</v>
+        <v>55.65801198482514</v>
       </c>
       <c r="AR14" t="n">
-        <v>107.6942623615265</v>
+        <v>71.49392296671869</v>
       </c>
       <c r="AS14" t="n">
-        <v>585.2602876543999</v>
+        <v>188.8209702730179</v>
       </c>
       <c r="AT14" t="n">
-        <v>79.45273075103759</v>
+        <v>116.4103508740663</v>
       </c>
       <c r="AU14" t="n">
-        <v>279.8218395173549</v>
+        <v>372.7469200134277</v>
       </c>
       <c r="AV14" t="n">
-        <v>921.8245425581931</v>
+        <v>63.01201133728027</v>
       </c>
       <c r="AW14" t="n">
-        <v>567.9245698451996</v>
+        <v>1002.308290451765</v>
       </c>
       <c r="AX14" t="n">
-        <v>129.5661068797112</v>
+        <v>50.49304028749466</v>
       </c>
       <c r="AY14" t="n">
-        <v>102.808230432868</v>
+        <v>152.0480369150638</v>
       </c>
       <c r="AZ14" t="n">
-        <v>388.4816271543503</v>
+        <v>191.3790260076523</v>
       </c>
       <c r="BA14" t="n">
-        <v>39.88469572067261</v>
+        <v>23.03319189548492</v>
       </c>
       <c r="BB14" t="n">
-        <v>338.9105372428894</v>
+        <v>85.1566572010517</v>
       </c>
       <c r="BC14" t="n">
-        <v>906.3110470592976</v>
+        <v>208.7745994210243</v>
       </c>
       <c r="BD14" t="n">
-        <v>368.2176045835018</v>
+        <v>113.9066772818565</v>
       </c>
       <c r="BE14" t="n">
-        <v>27709.66975290898</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>27709669.75290898</v>
+        <v>38979.26299244464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>573.0729976534843</v>
+        <v>2871.978080916404</v>
       </c>
       <c r="B15" t="n">
-        <v>499.9248529702425</v>
+        <v>2825.822289180755</v>
       </c>
       <c r="C15" t="n">
-        <v>631.8085697863251</v>
+        <v>0.003670830279588699</v>
       </c>
       <c r="D15" t="n">
-        <v>556.3467764317988</v>
+        <v>2838.430420517921</v>
       </c>
       <c r="E15" t="n">
-        <v>192.268743146956</v>
+        <v>0.004089751280844212</v>
       </c>
       <c r="F15" t="n">
-        <v>501.5180390894413</v>
+        <v>2835.470314729214</v>
       </c>
       <c r="G15" t="n">
-        <v>5.582074785232543</v>
+        <v>770.8020477950572</v>
       </c>
       <c r="H15" t="n">
-        <v>367.8029398351907</v>
+        <v>1208.788641166687</v>
       </c>
       <c r="I15" t="n">
-        <v>225.8647846668959</v>
+        <v>419.4208774089813</v>
       </c>
       <c r="J15" t="n">
-        <v>853.4084381103517</v>
+        <v>151.5630614042282</v>
       </c>
       <c r="K15" t="n">
-        <v>794.2323304414749</v>
+        <v>224.8444394171238</v>
       </c>
       <c r="L15" t="n">
-        <v>146.3099447250366</v>
+        <v>78.74559154510499</v>
       </c>
       <c r="M15" t="n">
-        <v>845.630312347412</v>
+        <v>63.10511119365691</v>
       </c>
       <c r="N15" t="n">
-        <v>893.6298461437226</v>
+        <v>227.2376836299896</v>
       </c>
       <c r="O15" t="n">
-        <v>394.7057242631913</v>
+        <v>269.3788422346115</v>
       </c>
       <c r="P15" t="n">
-        <v>2244.493114471436</v>
+        <v>95.45684390068052</v>
       </c>
       <c r="Q15" t="n">
-        <v>487.7904731541872</v>
+        <v>673.2299810409546</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04763548965454102</v>
+        <v>75.87166247963906</v>
       </c>
       <c r="S15" t="n">
-        <v>934.4329928576946</v>
+        <v>153.0829609036446</v>
       </c>
       <c r="T15" t="n">
-        <v>815.6518279433251</v>
+        <v>57.52769804000855</v>
       </c>
       <c r="U15" t="n">
-        <v>737.0173964142799</v>
+        <v>40.89499979615211</v>
       </c>
       <c r="V15" t="n">
-        <v>782.6062896847725</v>
+        <v>34.83892039656639</v>
       </c>
       <c r="W15" t="n">
-        <v>452.5785810947418</v>
+        <v>49.4704597890377</v>
       </c>
       <c r="X15" t="n">
-        <v>335.074137878418</v>
+        <v>36.1545882165432</v>
       </c>
       <c r="Y15" t="n">
-        <v>950.8342239379883</v>
+        <v>35.45827949047089</v>
       </c>
       <c r="Z15" t="n">
-        <v>196.7958882927894</v>
+        <v>67.39283142089843</v>
       </c>
       <c r="AA15" t="n">
-        <v>36.35501298904419</v>
+        <v>31.49736778736115</v>
       </c>
       <c r="AB15" t="n">
-        <v>698.0412750005722</v>
+        <v>92.01097908020019</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1946537507772446</v>
+        <v>24.87391411960125</v>
       </c>
       <c r="AD15" t="n">
-        <v>190.4204078555107</v>
+        <v>4926.47941058278</v>
       </c>
       <c r="AE15" t="n">
-        <v>495.917736363411</v>
+        <v>3045.803294980526</v>
       </c>
       <c r="AF15" t="n">
-        <v>657.0064145624639</v>
+        <v>1893.997386956215</v>
       </c>
       <c r="AG15" t="n">
-        <v>686.7123046875</v>
+        <v>3076.431272917986</v>
       </c>
       <c r="AH15" t="n">
-        <v>557.4985781550408</v>
+        <v>1934.889540839195</v>
       </c>
       <c r="AI15" t="n">
-        <v>82.99273452386261</v>
+        <v>2372.481558793783</v>
       </c>
       <c r="AJ15" t="n">
-        <v>46.41645909696817</v>
+        <v>725.846441257</v>
       </c>
       <c r="AK15" t="n">
-        <v>534.8802219390869</v>
+        <v>126.9568938910961</v>
       </c>
       <c r="AL15" t="n">
-        <v>460.9397541314364</v>
+        <v>534.5311976790429</v>
       </c>
       <c r="AM15" t="n">
-        <v>88.33022562265396</v>
+        <v>530.6992795467377</v>
       </c>
       <c r="AN15" t="n">
-        <v>673.3287147283554</v>
+        <v>612.5935301125049</v>
       </c>
       <c r="AO15" t="n">
-        <v>952.4172505319118</v>
+        <v>252.387599670887</v>
       </c>
       <c r="AP15" t="n">
-        <v>774.9840562820434</v>
+        <v>347.9188406944275</v>
       </c>
       <c r="AQ15" t="n">
-        <v>711.5133778333663</v>
+        <v>58.75366158485413</v>
       </c>
       <c r="AR15" t="n">
-        <v>109.1706603765488</v>
+        <v>70.26696404814722</v>
       </c>
       <c r="AS15" t="n">
-        <v>588.1971867740154</v>
+        <v>203.2949411273003</v>
       </c>
       <c r="AT15" t="n">
-        <v>80.11239105463028</v>
+        <v>119.7814329236746</v>
       </c>
       <c r="AU15" t="n">
-        <v>244.0022324204445</v>
+        <v>371.3075293064117</v>
       </c>
       <c r="AV15" t="n">
-        <v>922.5037768542766</v>
+        <v>59.55458984375</v>
       </c>
       <c r="AW15" t="n">
-        <v>613.4741228222847</v>
+        <v>1011.424734258652</v>
       </c>
       <c r="AX15" t="n">
-        <v>127.5925729453564</v>
+        <v>51.58220089673996</v>
       </c>
       <c r="AY15" t="n">
-        <v>87.93652603775263</v>
+        <v>154.5607980012894</v>
       </c>
       <c r="AZ15" t="n">
-        <v>390.0627802491188</v>
+        <v>193.4948276519775</v>
       </c>
       <c r="BA15" t="n">
-        <v>38.90300006866455</v>
+        <v>22.46152460575103</v>
       </c>
       <c r="BB15" t="n">
-        <v>338.1734480857849</v>
+        <v>84.60577967762947</v>
       </c>
       <c r="BC15" t="n">
-        <v>805.5032100737095</v>
+        <v>176.8617765545845</v>
       </c>
       <c r="BD15" t="n">
-        <v>367.6410949707031</v>
+        <v>115.3842860341072</v>
       </c>
       <c r="BE15" t="n">
-        <v>27780.65111640334</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>27780651.11640334</v>
+        <v>39327.70794262011</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>525.878155374527</v>
+        <v>2900.76580119133</v>
       </c>
       <c r="B16" t="n">
-        <v>587.2481716275215</v>
+        <v>2862.836510372162</v>
       </c>
       <c r="C16" t="n">
-        <v>631.8092537775635</v>
+        <v>-0.00735856406390667</v>
       </c>
       <c r="D16" t="n">
-        <v>568.9392119228839</v>
+        <v>2871.881076705456</v>
       </c>
       <c r="E16" t="n">
-        <v>192.1763917326927</v>
+        <v>0.001074237748980522</v>
       </c>
       <c r="F16" t="n">
-        <v>458.1927417814731</v>
+        <v>2849.03308993578</v>
       </c>
       <c r="G16" t="n">
-        <v>5.583447611331939</v>
+        <v>766.3613737225531</v>
       </c>
       <c r="H16" t="n">
-        <v>344.8074885606765</v>
+        <v>1240.938175153732</v>
       </c>
       <c r="I16" t="n">
-        <v>206.4499966740608</v>
+        <v>422.216730505228</v>
       </c>
       <c r="J16" t="n">
-        <v>855.2169815063477</v>
+        <v>153.6381193876267</v>
       </c>
       <c r="K16" t="n">
-        <v>792.0094228386879</v>
+        <v>220.5218084275723</v>
       </c>
       <c r="L16" t="n">
-        <v>147.911107635498</v>
+        <v>81.33313312530518</v>
       </c>
       <c r="M16" t="n">
-        <v>841.1132508337497</v>
+        <v>62.67293660640716</v>
       </c>
       <c r="N16" t="n">
-        <v>918.8362208366395</v>
+        <v>233.9575991153717</v>
       </c>
       <c r="O16" t="n">
-        <v>383.2366962432862</v>
+        <v>276.0571427822113</v>
       </c>
       <c r="P16" t="n">
-        <v>2248.816835021973</v>
+        <v>98.70603141784667</v>
       </c>
       <c r="Q16" t="n">
-        <v>499.6122963786125</v>
+        <v>692.0804579496383</v>
       </c>
       <c r="R16" t="n">
-        <v>0.04741591091156006</v>
+        <v>70.35813809037208</v>
       </c>
       <c r="S16" t="n">
-        <v>942.2837148487567</v>
+        <v>155.5460566401482</v>
       </c>
       <c r="T16" t="n">
-        <v>814.9999559521675</v>
+        <v>58.10155296325684</v>
       </c>
       <c r="U16" t="n">
-        <v>738.5764252185821</v>
+        <v>40.5384196639061</v>
       </c>
       <c r="V16" t="n">
-        <v>784.8488131165504</v>
+        <v>32.07629843354226</v>
       </c>
       <c r="W16" t="n">
-        <v>450.8460198462009</v>
+        <v>46.99675492048264</v>
       </c>
       <c r="X16" t="n">
-        <v>334.4722793579101</v>
+        <v>31.99485903382302</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.9336152791977</v>
+        <v>35.57705076932907</v>
       </c>
       <c r="Z16" t="n">
-        <v>188.6372131586075</v>
+        <v>67.07073364257812</v>
       </c>
       <c r="AA16" t="n">
-        <v>36.4361613035202</v>
+        <v>32.60626800060273</v>
       </c>
       <c r="AB16" t="n">
-        <v>696.9587488651276</v>
+        <v>92.48425645828247</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1941829461812973</v>
+        <v>24.53851135373116</v>
       </c>
       <c r="AD16" t="n">
-        <v>215.2596062660217</v>
+        <v>4978.831075185537</v>
       </c>
       <c r="AE16" t="n">
-        <v>468.1317617565394</v>
+        <v>3122.593171417713</v>
       </c>
       <c r="AF16" t="n">
-        <v>655.1688493371011</v>
+        <v>1947.234172344208</v>
       </c>
       <c r="AG16" t="n">
-        <v>700.4239355087281</v>
+        <v>3144.13009955883</v>
       </c>
       <c r="AH16" t="n">
-        <v>565.3096723973752</v>
+        <v>1923.078636169434</v>
       </c>
       <c r="AI16" t="n">
-        <v>55.73007343299687</v>
+        <v>2441.14223356843</v>
       </c>
       <c r="AJ16" t="n">
-        <v>39.90500347912311</v>
+        <v>710.8710450708867</v>
       </c>
       <c r="AK16" t="n">
-        <v>532.8060696959496</v>
+        <v>139.5968630164862</v>
       </c>
       <c r="AL16" t="n">
-        <v>368.4639277338982</v>
+        <v>544.2635321617128</v>
       </c>
       <c r="AM16" t="n">
-        <v>66.44275591969489</v>
+        <v>539.220635920763</v>
       </c>
       <c r="AN16" t="n">
-        <v>665.1022267103195</v>
+        <v>634.8467940330505</v>
       </c>
       <c r="AO16" t="n">
-        <v>938.8163545012474</v>
+        <v>263.3171060442925</v>
       </c>
       <c r="AP16" t="n">
-        <v>786.0836725234985</v>
+        <v>354.639825630188</v>
       </c>
       <c r="AQ16" t="n">
-        <v>711.7508301138878</v>
+        <v>57.91694350242615</v>
       </c>
       <c r="AR16" t="n">
-        <v>106.3192549467087</v>
+        <v>71.96738371253015</v>
       </c>
       <c r="AS16" t="n">
-        <v>586.9879497110844</v>
+        <v>220.2720745325089</v>
       </c>
       <c r="AT16" t="n">
-        <v>79.24316217899323</v>
+        <v>126.7880641460419</v>
       </c>
       <c r="AU16" t="n">
-        <v>224.0205090492964</v>
+        <v>342.1188418626786</v>
       </c>
       <c r="AV16" t="n">
-        <v>925.4372904241084</v>
+        <v>56.52237529754638</v>
       </c>
       <c r="AW16" t="n">
-        <v>576.1880317628384</v>
+        <v>1027.962220710516</v>
       </c>
       <c r="AX16" t="n">
-        <v>129.754223716259</v>
+        <v>52.17426247000694</v>
       </c>
       <c r="AY16" t="n">
-        <v>77.86897473707795</v>
+        <v>155.013300216198</v>
       </c>
       <c r="AZ16" t="n">
-        <v>392.7440058588982</v>
+        <v>199.3870297431946</v>
       </c>
       <c r="BA16" t="n">
-        <v>39.77665920257569</v>
+        <v>22.96025623083115</v>
       </c>
       <c r="BB16" t="n">
-        <v>339.5552071809769</v>
+        <v>87.2174586355686</v>
       </c>
       <c r="BC16" t="n">
-        <v>894.1893302559853</v>
+        <v>144.3676978319884</v>
       </c>
       <c r="BD16" t="n">
-        <v>364.3353071451187</v>
+        <v>118.1809348225594</v>
       </c>
       <c r="BE16" t="n">
-        <v>27652.88686170754</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>27652886.86170754</v>
+        <v>39847.49663587808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>517.8562170147895</v>
+        <v>2920.469034099579</v>
       </c>
       <c r="B17" t="n">
-        <v>596.3097218573093</v>
+        <v>2920.380023550987</v>
       </c>
       <c r="C17" t="n">
-        <v>631.8253957398235</v>
+        <v>0.005470260977745056</v>
       </c>
       <c r="D17" t="n">
-        <v>633.9949069440364</v>
+        <v>2903.754982829094</v>
       </c>
       <c r="E17" t="n">
-        <v>192.237808932364</v>
+        <v>-0.0008550230413675308</v>
       </c>
       <c r="F17" t="n">
-        <v>491.9663405060767</v>
+        <v>2921.457642173767</v>
       </c>
       <c r="G17" t="n">
-        <v>5.625439667701721</v>
+        <v>775.4083146512507</v>
       </c>
       <c r="H17" t="n">
-        <v>360.347634896636</v>
+        <v>1250.423188829422</v>
       </c>
       <c r="I17" t="n">
-        <v>226.5596358269453</v>
+        <v>424.1678891420364</v>
       </c>
       <c r="J17" t="n">
-        <v>856.0749023437501</v>
+        <v>154.3132497251034</v>
       </c>
       <c r="K17" t="n">
-        <v>793.9861361384392</v>
+        <v>215.8588092446327</v>
       </c>
       <c r="L17" t="n">
-        <v>147.2767965316773</v>
+        <v>80.65116558074951</v>
       </c>
       <c r="M17" t="n">
-        <v>845.8689016342162</v>
+        <v>61.48565881252288</v>
       </c>
       <c r="N17" t="n">
-        <v>908.3249263286591</v>
+        <v>235.8077289104461</v>
       </c>
       <c r="O17" t="n">
-        <v>383.8436480522156</v>
+        <v>287.3053637623787</v>
       </c>
       <c r="P17" t="n">
-        <v>2248.429016685486</v>
+        <v>98.13026031255721</v>
       </c>
       <c r="Q17" t="n">
-        <v>491.2667545735836</v>
+        <v>700.5122177004814</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04682241363525391</v>
+        <v>54.27585291266441</v>
       </c>
       <c r="S17" t="n">
-        <v>945.244452124834</v>
+        <v>156.8623081207275</v>
       </c>
       <c r="T17" t="n">
-        <v>814.1159733176231</v>
+        <v>59.2205605506897</v>
       </c>
       <c r="U17" t="n">
-        <v>736.360642516613</v>
+        <v>38.69952529668808</v>
       </c>
       <c r="V17" t="n">
-        <v>782.9744684696198</v>
+        <v>29.0953096807003</v>
       </c>
       <c r="W17" t="n">
-        <v>449.8602782666683</v>
+        <v>46.98816316723823</v>
       </c>
       <c r="X17" t="n">
-        <v>334.2715530395508</v>
+        <v>30.91087436079979</v>
       </c>
       <c r="Y17" t="n">
-        <v>950.8015527248383</v>
+        <v>36.06847772598267</v>
       </c>
       <c r="Z17" t="n">
-        <v>195.0534864246845</v>
+        <v>66.99108085632324</v>
       </c>
       <c r="AA17" t="n">
-        <v>36.00703268051147</v>
+        <v>31.99514816999435</v>
       </c>
       <c r="AB17" t="n">
-        <v>696.7899574756623</v>
+        <v>93.57960443496704</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1938759818553925</v>
+        <v>25.06182293891907</v>
       </c>
       <c r="AD17" t="n">
-        <v>92.06048607230186</v>
+        <v>4961.572588300704</v>
       </c>
       <c r="AE17" t="n">
-        <v>459.9020036578179</v>
+        <v>3128.827782380581</v>
       </c>
       <c r="AF17" t="n">
-        <v>628.6345908999443</v>
+        <v>1924.382890152931</v>
       </c>
       <c r="AG17" t="n">
-        <v>710.6582857131958</v>
+        <v>3124.845581495762</v>
       </c>
       <c r="AH17" t="n">
-        <v>558.5063729524613</v>
+        <v>1896.671450209617</v>
       </c>
       <c r="AI17" t="n">
-        <v>151.3718302249909</v>
+        <v>2450.888933628798</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3.274025771021843</v>
+        <v>701.7190442264081</v>
       </c>
       <c r="AK17" t="n">
-        <v>528.157276916504</v>
+        <v>142.7800578474998</v>
       </c>
       <c r="AL17" t="n">
-        <v>364.3878058046103</v>
+        <v>541.7761451244355</v>
       </c>
       <c r="AM17" t="n">
-        <v>96.89954631626605</v>
+        <v>544.7248794734478</v>
       </c>
       <c r="AN17" t="n">
-        <v>648.3998435974121</v>
+        <v>637.6234872043133</v>
       </c>
       <c r="AO17" t="n">
-        <v>948.5048691809177</v>
+        <v>260.4163693666458</v>
       </c>
       <c r="AP17" t="n">
-        <v>785.2348571896553</v>
+        <v>354.1712354660035</v>
       </c>
       <c r="AQ17" t="n">
-        <v>713.2245006322861</v>
+        <v>58.16574914455414</v>
       </c>
       <c r="AR17" t="n">
-        <v>102.3809679031372</v>
+        <v>71.80774694681169</v>
       </c>
       <c r="AS17" t="n">
-        <v>588.7510753810407</v>
+        <v>212.6819071054459</v>
       </c>
       <c r="AT17" t="n">
-        <v>79.69610479474068</v>
+        <v>120.0157096147537</v>
       </c>
       <c r="AU17" t="n">
-        <v>241.0287640750408</v>
+        <v>302.6292283535004</v>
       </c>
       <c r="AV17" t="n">
-        <v>922.2067834496497</v>
+        <v>55.52824993133544</v>
       </c>
       <c r="AW17" t="n">
-        <v>591.5809371352195</v>
+        <v>1051.140093040466</v>
       </c>
       <c r="AX17" t="n">
-        <v>128.2961245238781</v>
+        <v>51.49841601848603</v>
       </c>
       <c r="AY17" t="n">
-        <v>82.14177576154471</v>
+        <v>155.9606295108795</v>
       </c>
       <c r="AZ17" t="n">
-        <v>373.2383100628853</v>
+        <v>198.1774324417114</v>
       </c>
       <c r="BA17" t="n">
-        <v>39.37062711715699</v>
+        <v>23.61584658622742</v>
       </c>
       <c r="BB17" t="n">
-        <v>336.6511106014252</v>
+        <v>86.62089989185333</v>
       </c>
       <c r="BC17" t="n">
-        <v>901.126140320301</v>
+        <v>135.9512733697891</v>
       </c>
       <c r="BD17" t="n">
-        <v>366.4150528669357</v>
+        <v>116.6558277368545</v>
       </c>
       <c r="BE17" t="n">
-        <v>27715.61434803215</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>27715614.34803215</v>
+        <v>39930.72832734846</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>572.1569293737411</v>
+        <v>2891.041790294647</v>
       </c>
       <c r="B18" t="n">
-        <v>583.3259156763554</v>
+        <v>2907.913941812515</v>
       </c>
       <c r="C18" t="n">
-        <v>631.7927128031849</v>
+        <v>-0.002351549454033375</v>
       </c>
       <c r="D18" t="n">
-        <v>441.8768776148557</v>
+        <v>2893.855194723606</v>
       </c>
       <c r="E18" t="n">
-        <v>192.2178581140935</v>
+        <v>0.003269899636507034</v>
       </c>
       <c r="F18" t="n">
-        <v>527.5133604824543</v>
+        <v>2883.470547688007</v>
       </c>
       <c r="G18" t="n">
-        <v>5.578533411026001</v>
+        <v>794.6236991345882</v>
       </c>
       <c r="H18" t="n">
-        <v>334.8407061636448</v>
+        <v>1240.216415405273</v>
       </c>
       <c r="I18" t="n">
-        <v>257.8663008451462</v>
+        <v>404.422086596489</v>
       </c>
       <c r="J18" t="n">
-        <v>852.4142791748047</v>
+        <v>152.2104486107826</v>
       </c>
       <c r="K18" t="n">
-        <v>790.5421988368034</v>
+        <v>219.9940509200096</v>
       </c>
       <c r="L18" t="n">
-        <v>149.468574142456</v>
+        <v>79.23916702270508</v>
       </c>
       <c r="M18" t="n">
-        <v>848.9773201584815</v>
+        <v>65.58306639194488</v>
       </c>
       <c r="N18" t="n">
-        <v>918.0636337757112</v>
+        <v>234.4911483764648</v>
       </c>
       <c r="O18" t="n">
-        <v>367.8530240535737</v>
+        <v>301.0831072568894</v>
       </c>
       <c r="P18" t="n">
-        <v>2247.738992500305</v>
+        <v>86.51905906200408</v>
       </c>
       <c r="Q18" t="n">
-        <v>453.8777621746063</v>
+        <v>694.3706590056419</v>
       </c>
       <c r="R18" t="n">
-        <v>0.04845350666046143</v>
+        <v>36.51887660622597</v>
       </c>
       <c r="S18" t="n">
-        <v>941.1627664029597</v>
+        <v>155.9196537256241</v>
       </c>
       <c r="T18" t="n">
-        <v>814.4762241363526</v>
+        <v>55.58900547027588</v>
       </c>
       <c r="U18" t="n">
-        <v>737.0572016477585</v>
+        <v>38.77599520683289</v>
       </c>
       <c r="V18" t="n">
-        <v>784.8635277152061</v>
+        <v>24.43531209081411</v>
       </c>
       <c r="W18" t="n">
-        <v>452.2935133397579</v>
+        <v>47.59798924326897</v>
       </c>
       <c r="X18" t="n">
-        <v>333.4109649658203</v>
+        <v>31.84613933563233</v>
       </c>
       <c r="Y18" t="n">
-        <v>952.2103542089462</v>
+        <v>35.04042193889618</v>
       </c>
       <c r="Z18" t="n">
-        <v>193.051627177</v>
+        <v>65.97526893615722</v>
       </c>
       <c r="AA18" t="n">
-        <v>36.83968396186828</v>
+        <v>31.52592720389366</v>
       </c>
       <c r="AB18" t="n">
-        <v>698.9052491188049</v>
+        <v>92.17115354537964</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1941760629892349</v>
+        <v>23.83953382372856</v>
       </c>
       <c r="AD18" t="n">
-        <v>152.6056236743927</v>
+        <v>4724.059166502952</v>
       </c>
       <c r="AE18" t="n">
-        <v>470.2144088864327</v>
+        <v>3060.463952296972</v>
       </c>
       <c r="AF18" t="n">
-        <v>651.027136796713</v>
+        <v>1814.454600381851</v>
       </c>
       <c r="AG18" t="n">
-        <v>733.583794093132</v>
+        <v>3085.234442347288</v>
       </c>
       <c r="AH18" t="n">
-        <v>637.3086637973786</v>
+        <v>1811.467020225525</v>
       </c>
       <c r="AI18" t="n">
-        <v>114.6085699245334</v>
+        <v>2404.553044462204</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-2.930118582025171</v>
+        <v>699.9324198842049</v>
       </c>
       <c r="AK18" t="n">
-        <v>530.1891454935075</v>
+        <v>137.3292714804411</v>
       </c>
       <c r="AL18" t="n">
-        <v>426.8399476706982</v>
+        <v>539.444655263424</v>
       </c>
       <c r="AM18" t="n">
-        <v>43.49924627542496</v>
+        <v>532.0151616334915</v>
       </c>
       <c r="AN18" t="n">
-        <v>686.1074065685273</v>
+        <v>615.4748383104801</v>
       </c>
       <c r="AO18" t="n">
-        <v>961.8568908154964</v>
+        <v>243.1217425584793</v>
       </c>
       <c r="AP18" t="n">
-        <v>771.3169847011566</v>
+        <v>343.9700987815857</v>
       </c>
       <c r="AQ18" t="n">
-        <v>712.6721865296364</v>
+        <v>56.35815138816834</v>
       </c>
       <c r="AR18" t="n">
-        <v>105.8241490364075</v>
+        <v>69.00251680612566</v>
       </c>
       <c r="AS18" t="n">
-        <v>593.2446327328682</v>
+        <v>173.3612550973892</v>
       </c>
       <c r="AT18" t="n">
-        <v>78.34666224718094</v>
+        <v>80.16850683391094</v>
       </c>
       <c r="AU18" t="n">
-        <v>224.2689362168312</v>
+        <v>297.4087794542313</v>
       </c>
       <c r="AV18" t="n">
-        <v>924.9344396293162</v>
+        <v>58.4942512512207</v>
       </c>
       <c r="AW18" t="n">
-        <v>554.4106959581375</v>
+        <v>1029.809186339378</v>
       </c>
       <c r="AX18" t="n">
-        <v>126.4331339359283</v>
+        <v>50.73118625879287</v>
       </c>
       <c r="AY18" t="n">
-        <v>69.19536216408014</v>
+        <v>153.9971984624863</v>
       </c>
       <c r="AZ18" t="n">
-        <v>264.3053546458483</v>
+        <v>189.4248409748077</v>
       </c>
       <c r="BA18" t="n">
-        <v>39.32657308578491</v>
+        <v>22.6526843547821</v>
       </c>
       <c r="BB18" t="n">
-        <v>338.693300485611</v>
+        <v>84.54654580950736</v>
       </c>
       <c r="BC18" t="n">
-        <v>847.0836029529572</v>
+        <v>156.1196935266256</v>
       </c>
       <c r="BD18" t="n">
-        <v>363.8147755146027</v>
+        <v>110.1352254748344</v>
       </c>
       <c r="BE18" t="n">
-        <v>27539.40022679593</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>27539400.22679593</v>
+        <v>39032.00101393964</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>648.4710256576539</v>
+        <v>2839.44137480259</v>
       </c>
       <c r="B19" t="n">
-        <v>481.7502512067556</v>
+        <v>2849.23388762474</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7905319623649</v>
+        <v>-0.004233323037624359</v>
       </c>
       <c r="D19" t="n">
-        <v>546.5507009804248</v>
+        <v>2815.233776032925</v>
       </c>
       <c r="E19" t="n">
-        <v>192.1757406804711</v>
+        <v>0.001509420573711395</v>
       </c>
       <c r="F19" t="n">
-        <v>548.2535464525223</v>
+        <v>2814.094220924378</v>
       </c>
       <c r="G19" t="n">
-        <v>5.598364377021789</v>
+        <v>807.0351479411124</v>
       </c>
       <c r="H19" t="n">
-        <v>382.0195919692516</v>
+        <v>1201.534517621994</v>
       </c>
       <c r="I19" t="n">
-        <v>189.4478648006916</v>
+        <v>371.5918990433216</v>
       </c>
       <c r="J19" t="n">
-        <v>849.071356201172</v>
+        <v>155.0316935360432</v>
       </c>
       <c r="K19" t="n">
-        <v>783.0558671951294</v>
+        <v>214.8930492043495</v>
       </c>
       <c r="L19" t="n">
-        <v>146.3840663909912</v>
+        <v>77.91126899719238</v>
       </c>
       <c r="M19" t="n">
-        <v>841.5230189979076</v>
+        <v>74.28889364004134</v>
       </c>
       <c r="N19" t="n">
-        <v>904.6747374534608</v>
+        <v>225.5603341579437</v>
       </c>
       <c r="O19" t="n">
-        <v>392.140591955185</v>
+        <v>315.0503054380417</v>
       </c>
       <c r="P19" t="n">
-        <v>2246.032370758057</v>
+        <v>73.74425699710845</v>
       </c>
       <c r="Q19" t="n">
-        <v>498.2239642500878</v>
+        <v>676.4885937333107</v>
       </c>
       <c r="R19" t="n">
-        <v>0.04856397457122803</v>
+        <v>23.46941046863794</v>
       </c>
       <c r="S19" t="n">
-        <v>932.9330665409565</v>
+        <v>145.8782819867134</v>
       </c>
       <c r="T19" t="n">
-        <v>813.1463263273239</v>
+        <v>54.03614282608032</v>
       </c>
       <c r="U19" t="n">
-        <v>738.8278726577759</v>
+        <v>42.95383413434028</v>
       </c>
       <c r="V19" t="n">
-        <v>784.3552975654602</v>
+        <v>28.96666921973229</v>
       </c>
       <c r="W19" t="n">
-        <v>451.7597013413906</v>
+        <v>50.66978234052658</v>
       </c>
       <c r="X19" t="n">
-        <v>334.3085861206055</v>
+        <v>33.89140194058418</v>
       </c>
       <c r="Y19" t="n">
-        <v>951.5236198425293</v>
+        <v>35.04497892856598</v>
       </c>
       <c r="Z19" t="n">
-        <v>192.3337969660759</v>
+        <v>63.08943328857421</v>
       </c>
       <c r="AA19" t="n">
-        <v>36.74484939575195</v>
+        <v>29.45356148481369</v>
       </c>
       <c r="AB19" t="n">
-        <v>696.2938647031784</v>
+        <v>87.88366003036499</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1951567692041397</v>
+        <v>23.49896966218948</v>
       </c>
       <c r="AD19" t="n">
-        <v>127.0400090098381</v>
+        <v>4522.033569830655</v>
       </c>
       <c r="AE19" t="n">
-        <v>441.0197573423386</v>
+        <v>2939.514375531674</v>
       </c>
       <c r="AF19" t="n">
-        <v>615.5166369378568</v>
+        <v>1653.650306081772</v>
       </c>
       <c r="AG19" t="n">
-        <v>681.4950155973435</v>
+        <v>2972.33584895134</v>
       </c>
       <c r="AH19" t="n">
-        <v>612.3744632899761</v>
+        <v>1631.905970549583</v>
       </c>
       <c r="AI19" t="n">
-        <v>72.20190685093404</v>
+        <v>2312.608281618357</v>
       </c>
       <c r="AJ19" t="n">
-        <v>62.04561339467764</v>
+        <v>677.4647001802922</v>
       </c>
       <c r="AK19" t="n">
-        <v>536.7385559082031</v>
+        <v>138.9166502505541</v>
       </c>
       <c r="AL19" t="n">
-        <v>347.2148708045483</v>
+        <v>519.7781296253205</v>
       </c>
       <c r="AM19" t="n">
-        <v>-3.246920743584633</v>
+        <v>511.5726366341114</v>
       </c>
       <c r="AN19" t="n">
-        <v>691.9406863570214</v>
+        <v>584.5578054189682</v>
       </c>
       <c r="AO19" t="n">
-        <v>948.5622106969356</v>
+        <v>223.5133278131485</v>
       </c>
       <c r="AP19" t="n">
-        <v>794.7724065303802</v>
+        <v>333.1628721237183</v>
       </c>
       <c r="AQ19" t="n">
-        <v>711.2546062946319</v>
+        <v>53.18233211040497</v>
       </c>
       <c r="AR19" t="n">
-        <v>100.9147231817246</v>
+        <v>66.23010038137437</v>
       </c>
       <c r="AS19" t="n">
-        <v>585.0744494974614</v>
+        <v>96.74277876019478</v>
       </c>
       <c r="AT19" t="n">
-        <v>81.36904440522194</v>
+        <v>28.06090057194233</v>
       </c>
       <c r="AU19" t="n">
-        <v>327.1293743610382</v>
+        <v>311.0784983873367</v>
       </c>
       <c r="AV19" t="n">
-        <v>927.3117842197418</v>
+        <v>58.90122776031494</v>
       </c>
       <c r="AW19" t="n">
-        <v>607.5989553689957</v>
+        <v>986.0768149495126</v>
       </c>
       <c r="AX19" t="n">
-        <v>129.5534708678722</v>
+        <v>50.37721833586693</v>
       </c>
       <c r="AY19" t="n">
-        <v>89.83163010179996</v>
+        <v>149.2795402288437</v>
       </c>
       <c r="AZ19" t="n">
-        <v>230.4897167533636</v>
+        <v>175.3963376522064</v>
       </c>
       <c r="BA19" t="n">
-        <v>39.68874068260193</v>
+        <v>21.97079257965088</v>
       </c>
       <c r="BB19" t="n">
-        <v>338.1578013777733</v>
+        <v>82.50472828149795</v>
       </c>
       <c r="BC19" t="n">
-        <v>961.3996009349823</v>
+        <v>171.5293891966343</v>
       </c>
       <c r="BD19" t="n">
-        <v>362.722501707077</v>
+        <v>99.41805628538131</v>
       </c>
       <c r="BE19" t="n">
-        <v>27639.80590522473</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>27639805.90522473</v>
+        <v>37501.7298121944</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>611.8571113824844</v>
+        <v>2720.694634532928</v>
       </c>
       <c r="B20" t="n">
-        <v>614.6971758306026</v>
+        <v>2708.127985608578</v>
       </c>
       <c r="C20" t="n">
-        <v>631.7975542202591</v>
+        <v>0.003076415508985519</v>
       </c>
       <c r="D20" t="n">
-        <v>474.2802386194467</v>
+        <v>2720.103068697452</v>
       </c>
       <c r="E20" t="n">
-        <v>192.1969271756709</v>
+        <v>-0.001094330102205276</v>
       </c>
       <c r="F20" t="n">
-        <v>490.8529618322848</v>
+        <v>2691.724315023422</v>
       </c>
       <c r="G20" t="n">
-        <v>5.563801324367523</v>
+        <v>740.3866423964499</v>
       </c>
       <c r="H20" t="n">
-        <v>381.9186434596776</v>
+        <v>1129.698079109192</v>
       </c>
       <c r="I20" t="n">
-        <v>178.1152654886246</v>
+        <v>335.1483849704265</v>
       </c>
       <c r="J20" t="n">
-        <v>855.5948059082032</v>
+        <v>161.0218877971172</v>
       </c>
       <c r="K20" t="n">
-        <v>781.7392098903656</v>
+        <v>198.175160241127</v>
       </c>
       <c r="L20" t="n">
-        <v>153.360654258728</v>
+        <v>73.96527862548828</v>
       </c>
       <c r="M20" t="n">
-        <v>843.8210158407687</v>
+        <v>86.37823467254637</v>
       </c>
       <c r="N20" t="n">
-        <v>899.7230909347535</v>
+        <v>212.0803520679474</v>
       </c>
       <c r="O20" t="n">
-        <v>388.1302505016328</v>
+        <v>316.5438669919968</v>
       </c>
       <c r="P20" t="n">
-        <v>2248.382637214661</v>
+        <v>57.13249215483665</v>
       </c>
       <c r="Q20" t="n">
-        <v>504.0426391124725</v>
+        <v>657.7912761807441</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04788107891082764</v>
+        <v>10.0483349069953</v>
       </c>
       <c r="S20" t="n">
-        <v>935.6345415413379</v>
+        <v>139.3159056901932</v>
       </c>
       <c r="T20" t="n">
-        <v>815.4296875</v>
+        <v>48.03117895126343</v>
       </c>
       <c r="U20" t="n">
-        <v>735.4007496476173</v>
+        <v>46.52547688484192</v>
       </c>
       <c r="V20" t="n">
-        <v>783.3295877575874</v>
+        <v>32.87284048199654</v>
       </c>
       <c r="W20" t="n">
-        <v>452.3460243582725</v>
+        <v>51.27378594875336</v>
       </c>
       <c r="X20" t="n">
-        <v>335.5429840087891</v>
+        <v>34.42296286821366</v>
       </c>
       <c r="Y20" t="n">
-        <v>949.7844530463219</v>
+        <v>35.34230626821518</v>
       </c>
       <c r="Z20" t="n">
-        <v>195.811189609766</v>
+        <v>60.08578357696533</v>
       </c>
       <c r="AA20" t="n">
-        <v>36.67710554599762</v>
+        <v>27.25916284918785</v>
       </c>
       <c r="AB20" t="n">
-        <v>693.8216895341874</v>
+        <v>81.09571580886841</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1938714115142822</v>
+        <v>21.41490725576878</v>
       </c>
       <c r="AD20" t="n">
-        <v>184.1531990647316</v>
+        <v>4201.007339563966</v>
       </c>
       <c r="AE20" t="n">
-        <v>440.9838039249182</v>
+        <v>2801.216072243452</v>
       </c>
       <c r="AF20" t="n">
-        <v>619.8583812892438</v>
+        <v>1492.339171445369</v>
       </c>
       <c r="AG20" t="n">
-        <v>702.7237614154816</v>
+        <v>2803.353139007092</v>
       </c>
       <c r="AH20" t="n">
-        <v>552.6305066406727</v>
+        <v>1494.495561027527</v>
       </c>
       <c r="AI20" t="n">
-        <v>144.3357209280134</v>
+        <v>2176.950351893902</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-21.94445767104625</v>
+        <v>623.2562784135342</v>
       </c>
       <c r="AK20" t="n">
-        <v>531.3221098542214</v>
+        <v>166.6706555485725</v>
       </c>
       <c r="AL20" t="n">
-        <v>409.3462273299695</v>
+        <v>492.4900339365006</v>
       </c>
       <c r="AM20" t="n">
-        <v>16.29457718729973</v>
+        <v>493.0964026749134</v>
       </c>
       <c r="AN20" t="n">
-        <v>653.7422842144966</v>
+        <v>550.0637788712978</v>
       </c>
       <c r="AO20" t="n">
-        <v>951.4003103256225</v>
+        <v>192.602729010582</v>
       </c>
       <c r="AP20" t="n">
-        <v>780.7211094379425</v>
+        <v>320.8966835021973</v>
       </c>
       <c r="AQ20" t="n">
-        <v>711.7235744953156</v>
+        <v>47.93830628395081</v>
       </c>
       <c r="AR20" t="n">
-        <v>109.3137032032013</v>
+        <v>61.84476310014726</v>
       </c>
       <c r="AS20" t="n">
-        <v>588.3003653466702</v>
+        <v>18.20055777803064</v>
       </c>
       <c r="AT20" t="n">
-        <v>82.16048415899277</v>
+        <v>-3.64499197807163</v>
       </c>
       <c r="AU20" t="n">
-        <v>231.4588579416275</v>
+        <v>346.2489242076874</v>
       </c>
       <c r="AV20" t="n">
-        <v>923.899799877405</v>
+        <v>59.80907955169678</v>
       </c>
       <c r="AW20" t="n">
-        <v>576.8642496109009</v>
+        <v>926.7617541313172</v>
       </c>
       <c r="AX20" t="n">
-        <v>129.7222701311111</v>
+        <v>47.03989754319191</v>
       </c>
       <c r="AY20" t="n">
-        <v>143.0671118855476</v>
+        <v>143.8215672135353</v>
       </c>
       <c r="AZ20" t="n">
-        <v>216.3287713676691</v>
+        <v>157.7889994978905</v>
       </c>
       <c r="BA20" t="n">
-        <v>40.04913873672486</v>
+        <v>20.16321090459823</v>
       </c>
       <c r="BB20" t="n">
-        <v>339.7654766559601</v>
+        <v>76.36786495447159</v>
       </c>
       <c r="BC20" t="n">
-        <v>969.3449399352074</v>
+        <v>153.3830511182547</v>
       </c>
       <c r="BD20" t="n">
-        <v>364.2655403614044</v>
+        <v>84.69514592289924</v>
       </c>
       <c r="BE20" t="n">
-        <v>27581.92556568461</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>27581925.56568461</v>
+        <v>35345.51833001543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>551.3991650998593</v>
+        <v>2585.793124175072</v>
       </c>
       <c r="B21" t="n">
-        <v>546.368341833353</v>
+        <v>2581.842785429954</v>
       </c>
       <c r="C21" t="n">
-        <v>631.8305236801505</v>
+        <v>0.005674112588167191</v>
       </c>
       <c r="D21" t="n">
-        <v>528.1954932689666</v>
+        <v>2556.965395581722</v>
       </c>
       <c r="E21" t="n">
-        <v>192.1544465206563</v>
+        <v>-0.01194242760539055</v>
       </c>
       <c r="F21" t="n">
-        <v>557.8451681673527</v>
+        <v>2558.015237545967</v>
       </c>
       <c r="G21" t="n">
-        <v>5.60365651845932</v>
+        <v>682.221816676855</v>
       </c>
       <c r="H21" t="n">
-        <v>377.6873201459646</v>
+        <v>1051.893610429764</v>
       </c>
       <c r="I21" t="n">
-        <v>170.0211582630873</v>
+        <v>300.9744136869907</v>
       </c>
       <c r="J21" t="n">
-        <v>850.2389236450196</v>
+        <v>161.2613405764103</v>
       </c>
       <c r="K21" t="n">
-        <v>779.5280098319054</v>
+        <v>149.6234684616327</v>
       </c>
       <c r="L21" t="n">
-        <v>145.9493425369263</v>
+        <v>69.36999530792237</v>
       </c>
       <c r="M21" t="n">
-        <v>845.6571703970432</v>
+        <v>89.36896555423735</v>
       </c>
       <c r="N21" t="n">
-        <v>906.702601671219</v>
+        <v>205.004089641571</v>
       </c>
       <c r="O21" t="n">
-        <v>376.652129650116</v>
+        <v>324.4255437970162</v>
       </c>
       <c r="P21" t="n">
-        <v>2246.181489562989</v>
+        <v>46.06800810694694</v>
       </c>
       <c r="Q21" t="n">
-        <v>461.3742135375738</v>
+        <v>634.4092800617218</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0479158899307251</v>
+        <v>7.316506984457374</v>
       </c>
       <c r="S21" t="n">
-        <v>938.8374714136123</v>
+        <v>128.5952113986015</v>
       </c>
       <c r="T21" t="n">
-        <v>815.077161693573</v>
+        <v>47.06943464279175</v>
       </c>
       <c r="U21" t="n">
-        <v>737.271808052063</v>
+        <v>46.90763413906097</v>
       </c>
       <c r="V21" t="n">
-        <v>784.0932940244675</v>
+        <v>43.14818382263184</v>
       </c>
       <c r="W21" t="n">
-        <v>450.4385353207588</v>
+        <v>47.26609825491905</v>
       </c>
       <c r="X21" t="n">
-        <v>336.8325820922851</v>
+        <v>36.82112475633622</v>
       </c>
       <c r="Y21" t="n">
-        <v>950.9604305028915</v>
+        <v>33.24294929504395</v>
       </c>
       <c r="Z21" t="n">
-        <v>194.9673276126385</v>
+        <v>57.0131908416748</v>
       </c>
       <c r="AA21" t="n">
-        <v>35.71832871437073</v>
+        <v>24.77596034407616</v>
       </c>
       <c r="AB21" t="n">
-        <v>699.8721368312836</v>
+        <v>73.29200487136841</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1947998807191849</v>
+        <v>19.78995943367481</v>
       </c>
       <c r="AD21" t="n">
-        <v>154.2904454350471</v>
+        <v>3949.149546054005</v>
       </c>
       <c r="AE21" t="n">
-        <v>351.7146855115891</v>
+        <v>2618.263175350427</v>
       </c>
       <c r="AF21" t="n">
-        <v>589.5325701951981</v>
+        <v>1440.398206818104</v>
       </c>
       <c r="AG21" t="n">
-        <v>690.3011204957962</v>
+        <v>2613.186271482706</v>
       </c>
       <c r="AH21" t="n">
-        <v>564.03341011405</v>
+        <v>1440.887766599655</v>
       </c>
       <c r="AI21" t="n">
-        <v>156.1216847911477</v>
+        <v>2093.439920127392</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-13.29041679948568</v>
+        <v>545.1021048009396</v>
       </c>
       <c r="AK21" t="n">
-        <v>531.6949261069299</v>
+        <v>187.9582187533379</v>
       </c>
       <c r="AL21" t="n">
-        <v>345.9519293546677</v>
+        <v>474.6274882137776</v>
       </c>
       <c r="AM21" t="n">
-        <v>10.45350614488125</v>
+        <v>467.8407596498728</v>
       </c>
       <c r="AN21" t="n">
-        <v>668.3018315672874</v>
+        <v>516.4842622637749</v>
       </c>
       <c r="AO21" t="n">
-        <v>947.9287307441234</v>
+        <v>165.963339561224</v>
       </c>
       <c r="AP21" t="n">
-        <v>779.2873012900352</v>
+        <v>305.9269730567932</v>
       </c>
       <c r="AQ21" t="n">
-        <v>713.4610097527504</v>
+        <v>39.54169256687165</v>
       </c>
       <c r="AR21" t="n">
-        <v>109.5587391853333</v>
+        <v>57.97070166170598</v>
       </c>
       <c r="AS21" t="n">
-        <v>590.011492729187</v>
+        <v>-8.394284308701755</v>
       </c>
       <c r="AT21" t="n">
-        <v>78.81814679503441</v>
+        <v>-6.29357803352177</v>
       </c>
       <c r="AU21" t="n">
-        <v>262.4535103559494</v>
+        <v>363.5539121627808</v>
       </c>
       <c r="AV21" t="n">
-        <v>924.2626162171363</v>
+        <v>59.57962322235107</v>
       </c>
       <c r="AW21" t="n">
-        <v>631.2457330286503</v>
+        <v>852.1764439463616</v>
       </c>
       <c r="AX21" t="n">
-        <v>126.4202789485455</v>
+        <v>44.62126379013061</v>
       </c>
       <c r="AY21" t="n">
-        <v>103.4998657144606</v>
+        <v>137.8252375155687</v>
       </c>
       <c r="AZ21" t="n">
-        <v>206.8893231511116</v>
+        <v>134.4793728113174</v>
       </c>
       <c r="BA21" t="n">
-        <v>39.77374811172486</v>
+        <v>19.23399045467377</v>
       </c>
       <c r="BB21" t="n">
-        <v>338.7750724554062</v>
+        <v>71.1820541203022</v>
       </c>
       <c r="BC21" t="n">
-        <v>919.8000172793866</v>
+        <v>115.1228262156248</v>
       </c>
       <c r="BD21" t="n">
-        <v>367.7872515976429</v>
+        <v>74.47538210153579</v>
       </c>
       <c r="BE21" t="n">
-        <v>27306.77947663282</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>27306779.47663282</v>
+        <v>33336.77173646241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>514.8297860562801</v>
+        <v>2500.396119713783</v>
       </c>
       <c r="B22" t="n">
-        <v>548.9171502947808</v>
+        <v>2493.890097868442</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7837590903043</v>
+        <v>-0.0003656842745840549</v>
       </c>
       <c r="D22" t="n">
-        <v>530.9948314547538</v>
+        <v>2470.812557852268</v>
       </c>
       <c r="E22" t="n">
-        <v>192.1754419736564</v>
+        <v>-0.006443178281188011</v>
       </c>
       <c r="F22" t="n">
-        <v>489.5334725439548</v>
+        <v>2469.822499269247</v>
       </c>
       <c r="G22" t="n">
-        <v>5.588978898525237</v>
+        <v>625.8966141104697</v>
       </c>
       <c r="H22" t="n">
-        <v>323.9825642049312</v>
+        <v>1023.562389945984</v>
       </c>
       <c r="I22" t="n">
-        <v>192.0218086272478</v>
+        <v>292.5091259270906</v>
       </c>
       <c r="J22" t="n">
-        <v>850.9710845947267</v>
+        <v>164.1171664774418</v>
       </c>
       <c r="K22" t="n">
-        <v>786.6368019580841</v>
+        <v>94.39697730690241</v>
       </c>
       <c r="L22" t="n">
-        <v>149.2700271606445</v>
+        <v>66.72150783538818</v>
       </c>
       <c r="M22" t="n">
-        <v>842.8331098675727</v>
+        <v>90.19603707790374</v>
       </c>
       <c r="N22" t="n">
-        <v>922.4421929359437</v>
+        <v>200.940374135971</v>
       </c>
       <c r="O22" t="n">
-        <v>392.0374974727631</v>
+        <v>322.8798808336258</v>
       </c>
       <c r="P22" t="n">
-        <v>2246.255306053162</v>
+        <v>41.42681958377361</v>
       </c>
       <c r="Q22" t="n">
-        <v>491.3949596345425</v>
+        <v>609.0328509509563</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04754480476379395</v>
+        <v>5.593266729265451</v>
       </c>
       <c r="S22" t="n">
-        <v>940.7930843532084</v>
+        <v>124.6285272240639</v>
       </c>
       <c r="T22" t="n">
-        <v>812.4015688300133</v>
+        <v>46.38344764709473</v>
       </c>
       <c r="U22" t="n">
-        <v>738.3064490795135</v>
+        <v>46.80930315256118</v>
       </c>
       <c r="V22" t="n">
-        <v>784.9815141558647</v>
+        <v>50.44947240352631</v>
       </c>
       <c r="W22" t="n">
-        <v>452.7346934914589</v>
+        <v>41.68164188861847</v>
       </c>
       <c r="X22" t="n">
-        <v>333.8755905151367</v>
+        <v>36.80375983715058</v>
       </c>
       <c r="Y22" t="n">
-        <v>952.2546177983285</v>
+        <v>33.42187608480454</v>
       </c>
       <c r="Z22" t="n">
-        <v>192.1023677766323</v>
+        <v>56.92046127319335</v>
       </c>
       <c r="AA22" t="n">
-        <v>35.96127705574035</v>
+        <v>23.11840834319592</v>
       </c>
       <c r="AB22" t="n">
-        <v>695.150575375557</v>
+        <v>72.39898943901062</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.1947284519672394</v>
+        <v>18.99973656386137</v>
       </c>
       <c r="AD22" t="n">
-        <v>204.9043183326721</v>
+        <v>3821.742126515508</v>
       </c>
       <c r="AE22" t="n">
-        <v>389.2474320054055</v>
+        <v>2494.021223881841</v>
       </c>
       <c r="AF22" t="n">
-        <v>625.1897441685201</v>
+        <v>1429.367933535576</v>
       </c>
       <c r="AG22" t="n">
-        <v>690.6321569442749</v>
+        <v>2494.617601105571</v>
       </c>
       <c r="AH22" t="n">
-        <v>551.4958594679833</v>
+        <v>1407.352305424213</v>
       </c>
       <c r="AI22" t="n">
-        <v>117.5279116712511</v>
+        <v>2043.235900583863</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.8278918746858834</v>
+        <v>476.1921091109514</v>
       </c>
       <c r="AK22" t="n">
-        <v>533.4787452459336</v>
+        <v>190.3795504868031</v>
       </c>
       <c r="AL22" t="n">
-        <v>386.9342453330756</v>
+        <v>468.7204317450524</v>
       </c>
       <c r="AM22" t="n">
-        <v>5.150196534395217</v>
+        <v>453.0455705970526</v>
       </c>
       <c r="AN22" t="n">
-        <v>662.6316191792488</v>
+        <v>500.6154797106981</v>
       </c>
       <c r="AO22" t="n">
-        <v>943.6843896090984</v>
+        <v>148.99205493927</v>
       </c>
       <c r="AP22" t="n">
-        <v>784.4851488232612</v>
+        <v>305.1449177742005</v>
       </c>
       <c r="AQ22" t="n">
-        <v>710.5485613703728</v>
+        <v>36.00062180757522</v>
       </c>
       <c r="AR22" t="n">
-        <v>106.8286181688309</v>
+        <v>55.90536493957044</v>
       </c>
       <c r="AS22" t="n">
-        <v>585.5154537975789</v>
+        <v>8.408806547150016</v>
       </c>
       <c r="AT22" t="n">
-        <v>78.79977139234543</v>
+        <v>-0.2598903350532055</v>
       </c>
       <c r="AU22" t="n">
-        <v>247.0895228683949</v>
+        <v>360.2250907182694</v>
       </c>
       <c r="AV22" t="n">
-        <v>924.2433880984782</v>
+        <v>61.08242588043213</v>
       </c>
       <c r="AW22" t="n">
-        <v>562.1642397046089</v>
+        <v>829.7064390122891</v>
       </c>
       <c r="AX22" t="n">
-        <v>128.9732642829418</v>
+        <v>42.56885533332824</v>
       </c>
       <c r="AY22" t="n">
-        <v>52.29247873388231</v>
+        <v>135.9178605526686</v>
       </c>
       <c r="AZ22" t="n">
-        <v>211.8772115394473</v>
+        <v>121.3998054623604</v>
       </c>
       <c r="BA22" t="n">
-        <v>39.29420418739319</v>
+        <v>17.80214459896088</v>
       </c>
       <c r="BB22" t="n">
-        <v>341.4012310862541</v>
+        <v>64.315914696455</v>
       </c>
       <c r="BC22" t="n">
-        <v>900.394626069069</v>
+        <v>89.70364155322315</v>
       </c>
       <c r="BD22" t="n">
-        <v>371.7990400612354</v>
+        <v>66.03936377465725</v>
       </c>
       <c r="BE22" t="n">
-        <v>27206.22827131132</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>27206228.27131132</v>
+        <v>32146.04675056553</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>592.7164285123348</v>
+        <v>2436.997658967972</v>
       </c>
       <c r="B23" t="n">
-        <v>539.6541198194027</v>
+        <v>2427.938131850958</v>
       </c>
       <c r="C23" t="n">
-        <v>631.7718207269907</v>
+        <v>-0.005771160125732422</v>
       </c>
       <c r="D23" t="n">
-        <v>542.9743644833563</v>
+        <v>2399.567027819156</v>
       </c>
       <c r="E23" t="n">
-        <v>192.1877418167889</v>
+        <v>0.003122452646493912</v>
       </c>
       <c r="F23" t="n">
-        <v>540.2631998300552</v>
+        <v>2397.365244367719</v>
       </c>
       <c r="G23" t="n">
-        <v>5.599143469333648</v>
+        <v>624.0848122537135</v>
       </c>
       <c r="H23" t="n">
-        <v>296.1286644905805</v>
+        <v>998.1496736764908</v>
       </c>
       <c r="I23" t="n">
-        <v>215.9778303444386</v>
+        <v>283.5630809783935</v>
       </c>
       <c r="J23" t="n">
-        <v>859.2038177490235</v>
+        <v>164.8299334526062</v>
       </c>
       <c r="K23" t="n">
-        <v>797.3617186546326</v>
+        <v>69.4690304145217</v>
       </c>
       <c r="L23" t="n">
-        <v>145.7858505249023</v>
+        <v>68.23560113906861</v>
       </c>
       <c r="M23" t="n">
-        <v>845.3728738367556</v>
+        <v>86.75705127716063</v>
       </c>
       <c r="N23" t="n">
-        <v>907.2502606391907</v>
+        <v>196.8424649238586</v>
       </c>
       <c r="O23" t="n">
-        <v>394.7828543663026</v>
+        <v>314.9144689679146</v>
       </c>
       <c r="P23" t="n">
-        <v>2245.853064346314</v>
+        <v>36.35214022696018</v>
       </c>
       <c r="Q23" t="n">
-        <v>479.5267573952675</v>
+        <v>593.170858335495</v>
       </c>
       <c r="R23" t="n">
-        <v>0.04810489292144775</v>
+        <v>3.150589326024055</v>
       </c>
       <c r="S23" t="n">
-        <v>937.9018014430999</v>
+        <v>121.5612988114357</v>
       </c>
       <c r="T23" t="n">
-        <v>815.0613461732864</v>
+        <v>43.21701335906982</v>
       </c>
       <c r="U23" t="n">
-        <v>738.0187742948532</v>
+        <v>46.62683401107788</v>
       </c>
       <c r="V23" t="n">
-        <v>784.4372506737709</v>
+        <v>46.77087944149971</v>
       </c>
       <c r="W23" t="n">
-        <v>451.0834877490997</v>
+        <v>36.23337474763393</v>
       </c>
       <c r="X23" t="n">
-        <v>333.8946197509765</v>
+        <v>31.74883415699005</v>
       </c>
       <c r="Y23" t="n">
-        <v>950.1244955778122</v>
+        <v>29.69659791588783</v>
       </c>
       <c r="Z23" t="n">
-        <v>194.0853816747665</v>
+        <v>54.75375041961669</v>
       </c>
       <c r="AA23" t="n">
-        <v>36.26757817268371</v>
+        <v>21.92444829642773</v>
       </c>
       <c r="AB23" t="n">
-        <v>699.2008902549744</v>
+        <v>68.28784899711609</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.1952796117305756</v>
+        <v>18.58388852179051</v>
       </c>
       <c r="AD23" t="n">
-        <v>158.1100715756416</v>
+        <v>3840.894858512282</v>
       </c>
       <c r="AE23" t="n">
-        <v>282.8892402470112</v>
+        <v>2413.037276804447</v>
       </c>
       <c r="AF23" t="n">
-        <v>637.7869841814041</v>
+        <v>1445.009810304641</v>
       </c>
       <c r="AG23" t="n">
-        <v>717.7600139141083</v>
+        <v>2442.401963838935</v>
       </c>
       <c r="AH23" t="n">
-        <v>513.6741481482983</v>
+        <v>1421.081631040573</v>
       </c>
       <c r="AI23" t="n">
-        <v>136.8842918902636</v>
+        <v>1970.399502652883</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-40.6553247332573</v>
+        <v>466.6298864066601</v>
       </c>
       <c r="AK23" t="n">
-        <v>536.5333059191704</v>
+        <v>180.1522601544857</v>
       </c>
       <c r="AL23" t="n">
-        <v>428.1088180035353</v>
+        <v>463.8206797897816</v>
       </c>
       <c r="AM23" t="n">
-        <v>61.39950906634331</v>
+        <v>445.4094685465097</v>
       </c>
       <c r="AN23" t="n">
-        <v>650.1501843094826</v>
+        <v>499.2529963672161</v>
       </c>
       <c r="AO23" t="n">
-        <v>945.7900550842285</v>
+        <v>140.16674066782</v>
       </c>
       <c r="AP23" t="n">
-        <v>791.609585738182</v>
+        <v>289.3173692703247</v>
       </c>
       <c r="AQ23" t="n">
-        <v>714.0670605063439</v>
+        <v>31.50202490091324</v>
       </c>
       <c r="AR23" t="n">
-        <v>109.6068724393845</v>
+        <v>56.10224307775498</v>
       </c>
       <c r="AS23" t="n">
-        <v>591.6283108890057</v>
+        <v>12.29439320862293</v>
       </c>
       <c r="AT23" t="n">
-        <v>79.00778403282166</v>
+        <v>3.995434253662824</v>
       </c>
       <c r="AU23" t="n">
-        <v>247.617216438055</v>
+        <v>355.1019597053528</v>
       </c>
       <c r="AV23" t="n">
-        <v>923.7527429401873</v>
+        <v>62.52064094543457</v>
       </c>
       <c r="AW23" t="n">
-        <v>582.3550575315952</v>
+        <v>819.4397753477097</v>
       </c>
       <c r="AX23" t="n">
-        <v>130.5538915216923</v>
+        <v>41.01819415390491</v>
       </c>
       <c r="AY23" t="n">
-        <v>71.62935753166676</v>
+        <v>134.0974186182022</v>
       </c>
       <c r="AZ23" t="n">
-        <v>141.8170807734132</v>
+        <v>110.1177639007568</v>
       </c>
       <c r="BA23" t="n">
-        <v>39.83570857048035</v>
+        <v>16.56828750371933</v>
       </c>
       <c r="BB23" t="n">
-        <v>338.6431232690811</v>
+        <v>56.89126508831978</v>
       </c>
       <c r="BC23" t="n">
-        <v>920.5533446490765</v>
+        <v>87.09603473544122</v>
       </c>
       <c r="BD23" t="n">
-        <v>368.5997230231762</v>
+        <v>64.9900206029415</v>
       </c>
       <c r="BE23" t="n">
-        <v>27252.43767873604</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>27252437.67873604</v>
+        <v>31490.09978834838</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>543.9286776959896</v>
+        <v>2386.765848135948</v>
       </c>
       <c r="B24" t="n">
-        <v>518.6428381443023</v>
+        <v>2405.49283362627</v>
       </c>
       <c r="C24" t="n">
-        <v>631.8214019156992</v>
+        <v>-0.006291517987847328</v>
       </c>
       <c r="D24" t="n">
-        <v>595.4771737933158</v>
+        <v>2349.528777134418</v>
       </c>
       <c r="E24" t="n">
-        <v>192.2493848063052</v>
+        <v>-0.0004917755722999573</v>
       </c>
       <c r="F24" t="n">
-        <v>621.3853941261768</v>
+        <v>2372.918428140879</v>
       </c>
       <c r="G24" t="n">
-        <v>5.556757485866546</v>
+        <v>624.4712666153907</v>
       </c>
       <c r="H24" t="n">
-        <v>273.3115327596664</v>
+        <v>984.5387754678727</v>
       </c>
       <c r="I24" t="n">
-        <v>191.370191988349</v>
+        <v>281.135000038147</v>
       </c>
       <c r="J24" t="n">
-        <v>849.7192749023438</v>
+        <v>165.4500832438469</v>
       </c>
       <c r="K24" t="n">
-        <v>789.4276022315025</v>
+        <v>63.4033698797226</v>
       </c>
       <c r="L24" t="n">
-        <v>149.8622846603394</v>
+        <v>67.58441133499146</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8748376667498</v>
+        <v>83.38132123947142</v>
       </c>
       <c r="N24" t="n">
-        <v>906.0259036064149</v>
+        <v>195.8953207492828</v>
       </c>
       <c r="O24" t="n">
-        <v>403.20741584301</v>
+        <v>318.983386194706</v>
       </c>
       <c r="P24" t="n">
-        <v>2244.153085327149</v>
+        <v>37.67122969478368</v>
       </c>
       <c r="Q24" t="n">
-        <v>472.1559195876122</v>
+        <v>579.1518359422683</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04804579753875732</v>
+        <v>2.396421786211431</v>
       </c>
       <c r="S24" t="n">
-        <v>934.7296206891536</v>
+        <v>116.9980511307716</v>
       </c>
       <c r="T24" t="n">
-        <v>814.9491859912872</v>
+        <v>41.62304997444153</v>
       </c>
       <c r="U24" t="n">
-        <v>738.6062422633171</v>
+        <v>42.89322868585587</v>
       </c>
       <c r="V24" t="n">
-        <v>785.595122218132</v>
+        <v>42.79717128276825</v>
       </c>
       <c r="W24" t="n">
-        <v>451.3921153187752</v>
+        <v>30.51017408370972</v>
       </c>
       <c r="X24" t="n">
-        <v>334.3539276123047</v>
+        <v>32.04240357279777</v>
       </c>
       <c r="Y24" t="n">
-        <v>950.1162596464158</v>
+        <v>27.35347040891648</v>
       </c>
       <c r="Z24" t="n">
-        <v>193.9886183023453</v>
+        <v>53.8483377456665</v>
       </c>
       <c r="AA24" t="n">
-        <v>36.04654603004455</v>
+        <v>21.24090071618557</v>
       </c>
       <c r="AB24" t="n">
-        <v>698.6699868679048</v>
+        <v>68.61776142120361</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1949304071187973</v>
+        <v>17.90571469515562</v>
       </c>
       <c r="AD24" t="n">
-        <v>180.2841257572174</v>
+        <v>3683.12027323842</v>
       </c>
       <c r="AE24" t="n">
-        <v>305.5688763827086</v>
+        <v>2351.573958924413</v>
       </c>
       <c r="AF24" t="n">
-        <v>677.0868928611279</v>
+        <v>1414.298252558708</v>
       </c>
       <c r="AG24" t="n">
-        <v>776.1363434553147</v>
+        <v>2402.918537700176</v>
       </c>
       <c r="AH24" t="n">
-        <v>516.8005740523339</v>
+        <v>1406.922141611576</v>
       </c>
       <c r="AI24" t="n">
-        <v>95.43202255740763</v>
+        <v>1934.632791644335</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-37.22116545289755</v>
+        <v>449.5866371721029</v>
       </c>
       <c r="AK24" t="n">
-        <v>534.1734310388565</v>
+        <v>173.8040210008621</v>
       </c>
       <c r="AL24" t="n">
-        <v>412.5668918907643</v>
+        <v>452.8821942031383</v>
       </c>
       <c r="AM24" t="n">
-        <v>36.62027764618397</v>
+        <v>436.6091564595699</v>
       </c>
       <c r="AN24" t="n">
-        <v>673.4380139589309</v>
+        <v>483.2379136770963</v>
       </c>
       <c r="AO24" t="n">
-        <v>949.090462732315</v>
+        <v>134.265792298317</v>
       </c>
       <c r="AP24" t="n">
-        <v>797.3353969097137</v>
+        <v>277.4489971637726</v>
       </c>
       <c r="AQ24" t="n">
-        <v>712.1599353909493</v>
+        <v>31.70410091876984</v>
       </c>
       <c r="AR24" t="n">
-        <v>104.7754940986633</v>
+        <v>54.13643092811108</v>
       </c>
       <c r="AS24" t="n">
-        <v>586.5125341713428</v>
+        <v>9.008736003935338</v>
       </c>
       <c r="AT24" t="n">
-        <v>79.87431115508079</v>
+        <v>3.939016326144337</v>
       </c>
       <c r="AU24" t="n">
-        <v>174.2620744556189</v>
+        <v>349.5695548772812</v>
       </c>
       <c r="AV24" t="n">
-        <v>921.971045911312</v>
+        <v>64.5756061553955</v>
       </c>
       <c r="AW24" t="n">
-        <v>616.9587919831276</v>
+        <v>811.1677990913391</v>
       </c>
       <c r="AX24" t="n">
-        <v>127.7911865711212</v>
+        <v>39.94207929968834</v>
       </c>
       <c r="AY24" t="n">
-        <v>124.2558599591255</v>
+        <v>131.7659542649984</v>
       </c>
       <c r="AZ24" t="n">
-        <v>109.2611355721951</v>
+        <v>105.4210241377354</v>
       </c>
       <c r="BA24" t="n">
-        <v>39.47012133598328</v>
+        <v>15.10743280649185</v>
       </c>
       <c r="BB24" t="n">
-        <v>341.4545677781105</v>
+        <v>49.19509929418563</v>
       </c>
       <c r="BC24" t="n">
-        <v>886.6613608419896</v>
+        <v>93.98553630560637</v>
       </c>
       <c r="BD24" t="n">
-        <v>368.5969512581825</v>
+        <v>64.24831904768944</v>
       </c>
       <c r="BE24" t="n">
-        <v>27280.17779195791</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>27280177.79195791</v>
+        <v>30839.65914675799</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>576.9579226016998</v>
+        <v>2340.555154848099</v>
       </c>
       <c r="B25" t="n">
-        <v>570.5862197220325</v>
+        <v>2326.9328338027</v>
       </c>
       <c r="C25" t="n">
-        <v>631.8256150774657</v>
+        <v>0.00308188796043396</v>
       </c>
       <c r="D25" t="n">
-        <v>569.4384087681769</v>
+        <v>2304.572702425718</v>
       </c>
       <c r="E25" t="n">
-        <v>192.2323146432638</v>
+        <v>-0.004262968897819519</v>
       </c>
       <c r="F25" t="n">
-        <v>571.19504622221</v>
+        <v>2275.764893817902</v>
       </c>
       <c r="G25" t="n">
-        <v>5.604046475887298</v>
+        <v>661.495698416233</v>
       </c>
       <c r="H25" t="n">
-        <v>362.0010649085045</v>
+        <v>947.9439839601517</v>
       </c>
       <c r="I25" t="n">
-        <v>175.3184895694256</v>
+        <v>263.0943249583244</v>
       </c>
       <c r="J25" t="n">
-        <v>854.0961868286133</v>
+        <v>164.2229536354542</v>
       </c>
       <c r="K25" t="n">
-        <v>786.9677128195763</v>
+        <v>66.98124101161957</v>
       </c>
       <c r="L25" t="n">
-        <v>146.9900533676148</v>
+        <v>65.90809774398804</v>
       </c>
       <c r="M25" t="n">
-        <v>847.3547901391983</v>
+        <v>73.37380765676497</v>
       </c>
       <c r="N25" t="n">
-        <v>917.3781988620759</v>
+        <v>191.8644093990326</v>
       </c>
       <c r="O25" t="n">
-        <v>387.0224087238312</v>
+        <v>315.6427373886108</v>
       </c>
       <c r="P25" t="n">
-        <v>2250.559797859192</v>
+        <v>34.13287435472012</v>
       </c>
       <c r="Q25" t="n">
-        <v>460.9030956834555</v>
+        <v>554.44065964818</v>
       </c>
       <c r="R25" t="n">
-        <v>0.04784107131958008</v>
+        <v>4.030254285782576</v>
       </c>
       <c r="S25" t="n">
-        <v>947.3661595165729</v>
+        <v>110.3235068440437</v>
       </c>
       <c r="T25" t="n">
-        <v>815.4952417612076</v>
+        <v>38.78184342384338</v>
       </c>
       <c r="U25" t="n">
-        <v>737.0672291755676</v>
+        <v>41.52661959528923</v>
       </c>
       <c r="V25" t="n">
-        <v>782.6695275902748</v>
+        <v>42.44522941112518</v>
       </c>
       <c r="W25" t="n">
-        <v>451.3516521096229</v>
+        <v>30.59138150811195</v>
       </c>
       <c r="X25" t="n">
-        <v>333.520198059082</v>
+        <v>29.20181160569191</v>
       </c>
       <c r="Y25" t="n">
-        <v>951.7302978157998</v>
+        <v>24.6384192109108</v>
       </c>
       <c r="Z25" t="n">
-        <v>193.3540516078472</v>
+        <v>54.26891765594482</v>
       </c>
       <c r="AA25" t="n">
-        <v>36.93078200817108</v>
+        <v>19.28371098041535</v>
       </c>
       <c r="AB25" t="n">
-        <v>692.4163266181946</v>
+        <v>60.3459764957428</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1945210806846619</v>
+        <v>18.17889292687178</v>
       </c>
       <c r="AD25" t="n">
-        <v>172.6030793786049</v>
+        <v>3618.026008966565</v>
       </c>
       <c r="AE25" t="n">
-        <v>307.6761577099562</v>
+        <v>2278.618151628971</v>
       </c>
       <c r="AF25" t="n">
-        <v>693.1152233242989</v>
+        <v>1382.877524447441</v>
       </c>
       <c r="AG25" t="n">
-        <v>752.8082971334458</v>
+        <v>2297.365516418219</v>
       </c>
       <c r="AH25" t="n">
-        <v>584.3343142211438</v>
+        <v>1386.211294794083</v>
       </c>
       <c r="AI25" t="n">
-        <v>178.110287937522</v>
+        <v>1893.488609018922</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17.09196834564209</v>
+        <v>437.6793241232634</v>
       </c>
       <c r="AK25" t="n">
-        <v>537.2195391893388</v>
+        <v>161.7214971184731</v>
       </c>
       <c r="AL25" t="n">
-        <v>368.0163417607546</v>
+        <v>443.9030700922012</v>
       </c>
       <c r="AM25" t="n">
-        <v>64.7034954637289</v>
+        <v>418.6016003042459</v>
       </c>
       <c r="AN25" t="n">
-        <v>687.3481459140778</v>
+        <v>467.044157102704</v>
       </c>
       <c r="AO25" t="n">
-        <v>954.4211367249488</v>
+        <v>120.4657669603825</v>
       </c>
       <c r="AP25" t="n">
-        <v>790.8948549628258</v>
+        <v>269.6955436706543</v>
       </c>
       <c r="AQ25" t="n">
-        <v>713.2668148040772</v>
+        <v>31.80612362623215</v>
       </c>
       <c r="AR25" t="n">
-        <v>107.0140581130982</v>
+        <v>51.4194179981947</v>
       </c>
       <c r="AS25" t="n">
-        <v>586.9277024686337</v>
+        <v>0.9780620880424977</v>
       </c>
       <c r="AT25" t="n">
-        <v>79.16508722305298</v>
+        <v>-3.50026294440031</v>
       </c>
       <c r="AU25" t="n">
-        <v>243.3987220078707</v>
+        <v>339.4312410831452</v>
       </c>
       <c r="AV25" t="n">
-        <v>923.2375436484813</v>
+        <v>64.73882179260254</v>
       </c>
       <c r="AW25" t="n">
-        <v>648.9461655437947</v>
+        <v>816.5662763684988</v>
       </c>
       <c r="AX25" t="n">
-        <v>127.8843606650829</v>
+        <v>38.95558073222637</v>
       </c>
       <c r="AY25" t="n">
-        <v>121.0476925820112</v>
+        <v>130.4648677021265</v>
       </c>
       <c r="AZ25" t="n">
-        <v>99.49026652202011</v>
+        <v>104.7306056201458</v>
       </c>
       <c r="BA25" t="n">
-        <v>39.77523584365845</v>
+        <v>14.65981537699699</v>
       </c>
       <c r="BB25" t="n">
-        <v>340.1893257498741</v>
+        <v>41.91168153584003</v>
       </c>
       <c r="BC25" t="n">
-        <v>847.3843975126744</v>
+        <v>88.68739032298328</v>
       </c>
       <c r="BD25" t="n">
-        <v>365.8607290446758</v>
+        <v>62.54558051824569</v>
       </c>
       <c r="BE25" t="n">
-        <v>27600.50614448186</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>27600506.14448186</v>
+        <v>30019.63502239733</v>
       </c>
     </row>
   </sheetData>
